--- a/일정관리/WBS&Gantt.xlsx
+++ b/일정관리/WBS&Gantt.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -90,18 +90,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>세부 컨텐츠 기획</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>기획</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>제안서 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>필요 기술 리스트 체크</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -229,10 +221,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>구글 기술 R&amp;D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10.06</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -261,7 +249,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>컨셉 회의</t>
+    <t>구글 AR기술 R&amp;D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨셉을 바탕으로 세부 컨텐츠 기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제안서(컨셉 기획서) 작성</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -379,7 +375,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -773,13 +769,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -816,251 +879,269 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1275,7 +1356,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>209279</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>85397</xdr:rowOff>
     </xdr:from>
@@ -1283,7 +1364,7 @@
       <xdr:col>25</xdr:col>
       <xdr:colOff>11361</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>147575</xdr:rowOff>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1292,8 +1373,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12342158" y="2207173"/>
-          <a:ext cx="432703" cy="62178"/>
+          <a:off x="12317016" y="2204710"/>
+          <a:ext cx="445939" cy="57477"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1398,16 +1479,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>5953</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>82228</xdr:rowOff>
+      <xdr:rowOff>82227</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>209899</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1539</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
+      <xdr:rowOff>136920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1416,8 +1497,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11161059" y="2883699"/>
-          <a:ext cx="1588222" cy="52242"/>
+          <a:off x="12340828" y="2826618"/>
+          <a:ext cx="412305" cy="54693"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1786,10 +1867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AZ22"/>
+  <dimension ref="B1:AZ26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1810,98 +1891,98 @@
   <sheetData>
     <row r="1" spans="2:52" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:52" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68" t="s">
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="68" t="s">
+      <c r="O2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="69" t="s">
+      <c r="P2" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="68" t="s">
+      <c r="Q2" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="70" t="s">
+      <c r="R2" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="75" t="s">
-        <v>58</v>
-      </c>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76" t="s">
+      <c r="S2" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="76"/>
-      <c r="AA2" s="76"/>
-      <c r="AB2" s="76"/>
-      <c r="AC2" s="76"/>
-      <c r="AD2" s="76"/>
-      <c r="AE2" s="76"/>
-      <c r="AF2" s="76"/>
-      <c r="AG2" s="76"/>
-      <c r="AH2" s="76"/>
-      <c r="AI2" s="76"/>
-      <c r="AJ2" s="76"/>
-      <c r="AK2" s="76"/>
-      <c r="AL2" s="76"/>
-      <c r="AM2" s="76"/>
-      <c r="AN2" s="76"/>
-      <c r="AO2" s="76"/>
-      <c r="AP2" s="76"/>
-      <c r="AQ2" s="76"/>
-      <c r="AR2" s="76"/>
-      <c r="AS2" s="76"/>
-      <c r="AT2" s="76"/>
-      <c r="AU2" s="76"/>
-      <c r="AV2" s="76"/>
-      <c r="AW2" s="76"/>
-      <c r="AX2" s="76"/>
-      <c r="AY2" s="77"/>
-      <c r="AZ2" s="78" t="s">
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="68"/>
+      <c r="AH2" s="68"/>
+      <c r="AI2" s="68"/>
+      <c r="AJ2" s="68"/>
+      <c r="AK2" s="68"/>
+      <c r="AL2" s="68"/>
+      <c r="AM2" s="68"/>
+      <c r="AN2" s="68"/>
+      <c r="AO2" s="68"/>
+      <c r="AP2" s="68"/>
+      <c r="AQ2" s="68"/>
+      <c r="AR2" s="68"/>
+      <c r="AS2" s="68"/>
+      <c r="AT2" s="68"/>
+      <c r="AU2" s="68"/>
+      <c r="AV2" s="68"/>
+      <c r="AW2" s="68"/>
+      <c r="AX2" s="68"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="70" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:52" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="71"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="74"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="78"/>
       <c r="S3" s="4">
         <v>29</v>
       </c>
@@ -2001,1041 +2082,1041 @@
       <c r="AY3" s="4">
         <v>31</v>
       </c>
-      <c r="AZ3" s="79"/>
+      <c r="AZ3" s="71"/>
     </row>
     <row r="4" spans="2:52" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="85" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
+      <c r="B4" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
       <c r="N4" s="86"/>
       <c r="O4" s="86"/>
       <c r="P4" s="86"/>
       <c r="Q4" s="86"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="60"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="59"/>
-      <c r="AD4" s="60"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="44"/>
-      <c r="AJ4" s="59"/>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="44"/>
-      <c r="AQ4" s="59"/>
-      <c r="AR4" s="43"/>
-      <c r="AS4" s="43"/>
-      <c r="AT4" s="43"/>
-      <c r="AU4" s="43"/>
-      <c r="AV4" s="43"/>
-      <c r="AW4" s="44"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="30"/>
+      <c r="AJ4" s="45"/>
+      <c r="AK4" s="29"/>
+      <c r="AL4" s="29"/>
+      <c r="AM4" s="29"/>
+      <c r="AN4" s="29"/>
+      <c r="AO4" s="29"/>
+      <c r="AP4" s="30"/>
+      <c r="AQ4" s="45"/>
+      <c r="AR4" s="29"/>
+      <c r="AS4" s="29"/>
+      <c r="AT4" s="29"/>
+      <c r="AU4" s="29"/>
+      <c r="AV4" s="29"/>
+      <c r="AW4" s="30"/>
       <c r="AX4" s="3"/>
       <c r="AY4" s="2"/>
-      <c r="AZ4" s="81"/>
+      <c r="AZ4" s="54"/>
     </row>
     <row r="5" spans="2:52" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="80" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="13">
+      <c r="O5" s="87">
         <v>9.2899999999999991</v>
       </c>
-      <c r="P5" s="24">
+      <c r="P5" s="92">
         <v>9.2899999999999991</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="Q5" s="96">
         <v>1</v>
       </c>
-      <c r="R5" s="36">
+      <c r="R5" s="22">
         <v>2</v>
       </c>
-      <c r="S5" s="45"/>
+      <c r="S5" s="31"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="61"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="47"/>
       <c r="W5" s="3"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
-      <c r="AB5" s="46"/>
-      <c r="AC5" s="61"/>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="47"/>
       <c r="AD5" s="3"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
-      <c r="AI5" s="46"/>
-      <c r="AJ5" s="61"/>
+      <c r="AI5" s="32"/>
+      <c r="AJ5" s="47"/>
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" s="2"/>
       <c r="AO5" s="2"/>
-      <c r="AP5" s="46"/>
-      <c r="AQ5" s="61"/>
+      <c r="AP5" s="32"/>
+      <c r="AQ5" s="47"/>
       <c r="AR5" s="2"/>
       <c r="AS5" s="2"/>
       <c r="AT5" s="2"/>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
-      <c r="AW5" s="46"/>
+      <c r="AW5" s="32"/>
       <c r="AX5" s="3"/>
       <c r="AY5" s="2"/>
-      <c r="AZ5" s="82"/>
+      <c r="AZ5" s="55"/>
     </row>
     <row r="6" spans="2:52" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="O6" s="17">
+      <c r="O6" s="88">
         <v>9.2899999999999991</v>
       </c>
-      <c r="P6" s="25">
+      <c r="P6" s="93">
         <v>9.2899999999999991</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="Q6" s="97">
         <v>1</v>
       </c>
-      <c r="R6" s="37">
+      <c r="R6" s="23">
         <v>2</v>
       </c>
-      <c r="S6" s="47"/>
+      <c r="S6" s="33"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="61"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="47"/>
       <c r="W6" s="3"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
-      <c r="AB6" s="46"/>
-      <c r="AC6" s="61"/>
+      <c r="AB6" s="32"/>
+      <c r="AC6" s="47"/>
       <c r="AD6" s="3"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
-      <c r="AI6" s="46"/>
-      <c r="AJ6" s="61"/>
+      <c r="AI6" s="32"/>
+      <c r="AJ6" s="47"/>
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" s="2"/>
       <c r="AO6" s="2"/>
-      <c r="AP6" s="46"/>
-      <c r="AQ6" s="61"/>
+      <c r="AP6" s="32"/>
+      <c r="AQ6" s="47"/>
       <c r="AR6" s="2"/>
       <c r="AS6" s="2"/>
       <c r="AT6" s="2"/>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
-      <c r="AW6" s="46"/>
+      <c r="AW6" s="32"/>
       <c r="AX6" s="3"/>
       <c r="AY6" s="2"/>
-      <c r="AZ6" s="82"/>
+      <c r="AZ6" s="55"/>
     </row>
     <row r="7" spans="2:52" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="91" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="17">
+      <c r="O7" s="88">
         <v>10.039999999999999</v>
       </c>
-      <c r="P7" s="25">
+      <c r="P7" s="93">
         <v>10.06</v>
       </c>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="37">
+      <c r="Q7" s="97"/>
+      <c r="R7" s="23">
         <v>1</v>
       </c>
-      <c r="S7" s="48"/>
+      <c r="S7" s="34"/>
       <c r="T7" s="2"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="61"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="47"/>
       <c r="W7" s="3"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
       <c r="AA7" s="2"/>
-      <c r="AB7" s="46"/>
-      <c r="AC7" s="61"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="47"/>
       <c r="AD7" s="3"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
-      <c r="AI7" s="46"/>
-      <c r="AJ7" s="61"/>
+      <c r="AI7" s="32"/>
+      <c r="AJ7" s="47"/>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" s="2"/>
       <c r="AO7" s="2"/>
-      <c r="AP7" s="46"/>
-      <c r="AQ7" s="61"/>
+      <c r="AP7" s="32"/>
+      <c r="AQ7" s="47"/>
       <c r="AR7" s="2"/>
       <c r="AS7" s="2"/>
       <c r="AT7" s="2"/>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
-      <c r="AW7" s="46"/>
+      <c r="AW7" s="32"/>
       <c r="AX7" s="3"/>
-      <c r="AY7" s="84"/>
-      <c r="AZ7" s="82"/>
+      <c r="AY7" s="57"/>
+      <c r="AZ7" s="55"/>
     </row>
     <row r="8" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B8" s="88" t="s">
+      <c r="B8" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="92" t="s">
+      <c r="C8" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
       <c r="N8" s="89"/>
       <c r="O8" s="89"/>
       <c r="P8" s="89"/>
       <c r="Q8" s="89"/>
-      <c r="R8" s="90"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="62"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="50"/>
-      <c r="Y8" s="50"/>
-      <c r="Z8" s="50"/>
-      <c r="AA8" s="50"/>
-      <c r="AB8" s="51"/>
-      <c r="AC8" s="62"/>
-      <c r="AD8" s="50"/>
-      <c r="AE8" s="50"/>
-      <c r="AF8" s="50"/>
-      <c r="AG8" s="50"/>
-      <c r="AH8" s="50"/>
-      <c r="AI8" s="51"/>
-      <c r="AJ8" s="62"/>
-      <c r="AK8" s="50"/>
-      <c r="AL8" s="50"/>
-      <c r="AM8" s="50"/>
-      <c r="AN8" s="50"/>
-      <c r="AO8" s="50"/>
-      <c r="AP8" s="51"/>
-      <c r="AQ8" s="62"/>
-      <c r="AR8" s="50"/>
-      <c r="AS8" s="50"/>
-      <c r="AT8" s="50"/>
-      <c r="AU8" s="50"/>
-      <c r="AV8" s="50"/>
-      <c r="AW8" s="51"/>
-      <c r="AX8" s="62"/>
-      <c r="AY8" s="83"/>
-      <c r="AZ8" s="66"/>
+      <c r="R8" s="84"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="48"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="36"/>
+      <c r="AG8" s="36"/>
+      <c r="AH8" s="36"/>
+      <c r="AI8" s="37"/>
+      <c r="AJ8" s="48"/>
+      <c r="AK8" s="36"/>
+      <c r="AL8" s="36"/>
+      <c r="AM8" s="36"/>
+      <c r="AN8" s="36"/>
+      <c r="AO8" s="36"/>
+      <c r="AP8" s="37"/>
+      <c r="AQ8" s="48"/>
+      <c r="AR8" s="36"/>
+      <c r="AS8" s="36"/>
+      <c r="AT8" s="36"/>
+      <c r="AU8" s="36"/>
+      <c r="AV8" s="36"/>
+      <c r="AW8" s="37"/>
+      <c r="AX8" s="48"/>
+      <c r="AY8" s="56"/>
+      <c r="AZ8" s="52"/>
     </row>
     <row r="9" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B9" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="29" t="s">
+      <c r="B9" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="O9" s="29">
+      <c r="O9" s="90">
         <v>9.2899999999999991</v>
       </c>
-      <c r="P9" s="30">
+      <c r="P9" s="94">
         <v>9.2899999999999991</v>
       </c>
-      <c r="Q9" s="31">
+      <c r="Q9" s="98">
         <v>1</v>
       </c>
-      <c r="R9" s="38">
+      <c r="R9" s="24">
         <v>1</v>
       </c>
-      <c r="S9" s="52"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="63"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
-      <c r="AB9" s="51"/>
-      <c r="AC9" s="62"/>
-      <c r="AD9" s="50"/>
-      <c r="AE9" s="50"/>
-      <c r="AF9" s="50"/>
-      <c r="AG9" s="50"/>
-      <c r="AH9" s="50"/>
-      <c r="AI9" s="51"/>
-      <c r="AJ9" s="62"/>
-      <c r="AK9" s="50"/>
-      <c r="AL9" s="50"/>
-      <c r="AM9" s="50"/>
-      <c r="AN9" s="50"/>
-      <c r="AO9" s="50"/>
-      <c r="AP9" s="51"/>
-      <c r="AQ9" s="62"/>
-      <c r="AR9" s="50"/>
-      <c r="AS9" s="50"/>
-      <c r="AT9" s="50"/>
-      <c r="AU9" s="50"/>
-      <c r="AV9" s="50"/>
-      <c r="AW9" s="51"/>
-      <c r="AX9" s="50"/>
-      <c r="AY9" s="83"/>
-      <c r="AZ9" s="66"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="48"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="36"/>
+      <c r="AI9" s="37"/>
+      <c r="AJ9" s="48"/>
+      <c r="AK9" s="36"/>
+      <c r="AL9" s="36"/>
+      <c r="AM9" s="36"/>
+      <c r="AN9" s="36"/>
+      <c r="AO9" s="36"/>
+      <c r="AP9" s="37"/>
+      <c r="AQ9" s="48"/>
+      <c r="AR9" s="36"/>
+      <c r="AS9" s="36"/>
+      <c r="AT9" s="36"/>
+      <c r="AU9" s="36"/>
+      <c r="AV9" s="36"/>
+      <c r="AW9" s="37"/>
+      <c r="AX9" s="36"/>
+      <c r="AY9" s="56"/>
+      <c r="AZ9" s="52"/>
     </row>
     <row r="10" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B10" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="21" t="s">
+      <c r="B10" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="O10" s="33">
+      <c r="D10" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="91">
         <v>10.039999999999999</v>
       </c>
-      <c r="P10" s="34">
+      <c r="P10" s="95">
         <v>10.039999999999999</v>
       </c>
-      <c r="Q10" s="35">
+      <c r="Q10" s="99">
         <v>1</v>
       </c>
-      <c r="R10" s="39">
+      <c r="R10" s="25">
         <v>1</v>
       </c>
-      <c r="S10" s="55"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="50"/>
-      <c r="AB10" s="51"/>
-      <c r="AC10" s="62"/>
-      <c r="AD10" s="50"/>
-      <c r="AE10" s="50"/>
-      <c r="AF10" s="50"/>
-      <c r="AG10" s="50"/>
-      <c r="AH10" s="50"/>
-      <c r="AI10" s="51"/>
-      <c r="AJ10" s="62"/>
-      <c r="AK10" s="50"/>
-      <c r="AL10" s="50"/>
-      <c r="AM10" s="50"/>
-      <c r="AN10" s="50"/>
-      <c r="AO10" s="50"/>
-      <c r="AP10" s="51"/>
-      <c r="AQ10" s="62"/>
-      <c r="AR10" s="50"/>
-      <c r="AS10" s="50"/>
-      <c r="AT10" s="50"/>
-      <c r="AU10" s="50"/>
-      <c r="AV10" s="50"/>
-      <c r="AW10" s="51"/>
-      <c r="AX10" s="50"/>
-      <c r="AY10" s="83"/>
-      <c r="AZ10" s="66"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="36"/>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="48"/>
+      <c r="AD10" s="36"/>
+      <c r="AE10" s="36"/>
+      <c r="AF10" s="36"/>
+      <c r="AG10" s="36"/>
+      <c r="AH10" s="36"/>
+      <c r="AI10" s="37"/>
+      <c r="AJ10" s="48"/>
+      <c r="AK10" s="36"/>
+      <c r="AL10" s="36"/>
+      <c r="AM10" s="36"/>
+      <c r="AN10" s="36"/>
+      <c r="AO10" s="36"/>
+      <c r="AP10" s="37"/>
+      <c r="AQ10" s="48"/>
+      <c r="AR10" s="36"/>
+      <c r="AS10" s="36"/>
+      <c r="AT10" s="36"/>
+      <c r="AU10" s="36"/>
+      <c r="AV10" s="36"/>
+      <c r="AW10" s="37"/>
+      <c r="AX10" s="36"/>
+      <c r="AY10" s="56"/>
+      <c r="AZ10" s="52"/>
     </row>
     <row r="11" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B11" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="21" t="s">
+      <c r="B11" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="O11" s="33">
+      <c r="D11" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" s="91">
         <v>10.039999999999999</v>
       </c>
-      <c r="P11" s="34">
+      <c r="P11" s="95">
         <v>10.050000000000001</v>
       </c>
-      <c r="Q11" s="35">
+      <c r="Q11" s="99">
         <v>1</v>
       </c>
-      <c r="R11" s="39">
+      <c r="R11" s="25">
         <v>2</v>
       </c>
-      <c r="S11" s="49"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="62"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="53"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="50"/>
-      <c r="AB11" s="51"/>
-      <c r="AC11" s="62"/>
-      <c r="AD11" s="50"/>
-      <c r="AE11" s="50"/>
-      <c r="AF11" s="50"/>
-      <c r="AG11" s="50"/>
-      <c r="AH11" s="50"/>
-      <c r="AI11" s="51"/>
-      <c r="AJ11" s="62"/>
-      <c r="AK11" s="50"/>
-      <c r="AL11" s="50"/>
-      <c r="AM11" s="50"/>
-      <c r="AN11" s="50"/>
-      <c r="AO11" s="50"/>
-      <c r="AP11" s="51"/>
-      <c r="AQ11" s="62"/>
-      <c r="AR11" s="50"/>
-      <c r="AS11" s="50"/>
-      <c r="AT11" s="50"/>
-      <c r="AU11" s="50"/>
-      <c r="AV11" s="50"/>
-      <c r="AW11" s="51"/>
-      <c r="AX11" s="50"/>
-      <c r="AY11" s="83"/>
-      <c r="AZ11" s="66"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="37"/>
+      <c r="AC11" s="48"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="36"/>
+      <c r="AF11" s="36"/>
+      <c r="AG11" s="36"/>
+      <c r="AH11" s="36"/>
+      <c r="AI11" s="37"/>
+      <c r="AJ11" s="48"/>
+      <c r="AK11" s="36"/>
+      <c r="AL11" s="36"/>
+      <c r="AM11" s="36"/>
+      <c r="AN11" s="36"/>
+      <c r="AO11" s="36"/>
+      <c r="AP11" s="37"/>
+      <c r="AQ11" s="48"/>
+      <c r="AR11" s="36"/>
+      <c r="AS11" s="36"/>
+      <c r="AT11" s="36"/>
+      <c r="AU11" s="36"/>
+      <c r="AV11" s="36"/>
+      <c r="AW11" s="37"/>
+      <c r="AX11" s="36"/>
+      <c r="AY11" s="56"/>
+      <c r="AZ11" s="52"/>
     </row>
     <row r="12" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B12" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="O12" s="33">
+      <c r="B12" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="91">
         <v>10.050000000000001</v>
       </c>
-      <c r="P12" s="34">
+      <c r="P12" s="95">
         <v>10.06</v>
       </c>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="39">
+      <c r="Q12" s="91"/>
+      <c r="R12" s="25">
         <v>1</v>
       </c>
-      <c r="S12" s="49"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="62"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="50"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="50"/>
-      <c r="AB12" s="51"/>
-      <c r="AC12" s="62"/>
-      <c r="AD12" s="50"/>
-      <c r="AE12" s="50"/>
-      <c r="AF12" s="50"/>
-      <c r="AG12" s="50"/>
-      <c r="AH12" s="50"/>
-      <c r="AI12" s="51"/>
-      <c r="AJ12" s="62"/>
-      <c r="AK12" s="50"/>
-      <c r="AL12" s="50"/>
-      <c r="AM12" s="50"/>
-      <c r="AN12" s="50"/>
-      <c r="AO12" s="50"/>
-      <c r="AP12" s="51"/>
-      <c r="AQ12" s="62"/>
-      <c r="AR12" s="50"/>
-      <c r="AS12" s="50"/>
-      <c r="AT12" s="50"/>
-      <c r="AU12" s="50"/>
-      <c r="AV12" s="50"/>
-      <c r="AW12" s="51"/>
-      <c r="AX12" s="50"/>
-      <c r="AY12" s="83"/>
-      <c r="AZ12" s="66"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="48"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="36"/>
+      <c r="AF12" s="36"/>
+      <c r="AG12" s="36"/>
+      <c r="AH12" s="36"/>
+      <c r="AI12" s="37"/>
+      <c r="AJ12" s="48"/>
+      <c r="AK12" s="36"/>
+      <c r="AL12" s="36"/>
+      <c r="AM12" s="36"/>
+      <c r="AN12" s="36"/>
+      <c r="AO12" s="36"/>
+      <c r="AP12" s="37"/>
+      <c r="AQ12" s="48"/>
+      <c r="AR12" s="36"/>
+      <c r="AS12" s="36"/>
+      <c r="AT12" s="36"/>
+      <c r="AU12" s="36"/>
+      <c r="AV12" s="36"/>
+      <c r="AW12" s="37"/>
+      <c r="AX12" s="36"/>
+      <c r="AY12" s="56"/>
+      <c r="AZ12" s="52"/>
     </row>
     <row r="13" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B13" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="16" t="s">
+      <c r="B13" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="O13" s="33">
+      <c r="D13" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="91" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" s="91">
         <v>10.050000000000001</v>
       </c>
-      <c r="P13" s="34">
+      <c r="P13" s="95">
         <v>10.06</v>
       </c>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="39">
+      <c r="Q13" s="91"/>
+      <c r="R13" s="25">
         <v>2</v>
       </c>
-      <c r="S13" s="49"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="62"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="64"/>
-      <c r="Z13" s="64"/>
-      <c r="AA13" s="50"/>
-      <c r="AB13" s="51"/>
-      <c r="AC13" s="62"/>
-      <c r="AD13" s="50"/>
-      <c r="AE13" s="50"/>
-      <c r="AF13" s="50"/>
-      <c r="AG13" s="50"/>
-      <c r="AH13" s="50"/>
-      <c r="AI13" s="51"/>
-      <c r="AJ13" s="62"/>
-      <c r="AK13" s="50"/>
-      <c r="AL13" s="50"/>
-      <c r="AM13" s="50"/>
-      <c r="AN13" s="50"/>
-      <c r="AO13" s="50"/>
-      <c r="AP13" s="51"/>
-      <c r="AQ13" s="62"/>
-      <c r="AR13" s="50"/>
-      <c r="AS13" s="50"/>
-      <c r="AT13" s="50"/>
-      <c r="AU13" s="50"/>
-      <c r="AV13" s="50"/>
-      <c r="AW13" s="51"/>
-      <c r="AX13" s="50"/>
-      <c r="AY13" s="83"/>
-      <c r="AZ13" s="66"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="50"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="37"/>
+      <c r="AC13" s="48"/>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="36"/>
+      <c r="AF13" s="36"/>
+      <c r="AG13" s="36"/>
+      <c r="AH13" s="36"/>
+      <c r="AI13" s="37"/>
+      <c r="AJ13" s="48"/>
+      <c r="AK13" s="36"/>
+      <c r="AL13" s="36"/>
+      <c r="AM13" s="36"/>
+      <c r="AN13" s="36"/>
+      <c r="AO13" s="36"/>
+      <c r="AP13" s="37"/>
+      <c r="AQ13" s="48"/>
+      <c r="AR13" s="36"/>
+      <c r="AS13" s="36"/>
+      <c r="AT13" s="36"/>
+      <c r="AU13" s="36"/>
+      <c r="AV13" s="36"/>
+      <c r="AW13" s="37"/>
+      <c r="AX13" s="36"/>
+      <c r="AY13" s="56"/>
+      <c r="AZ13" s="52"/>
     </row>
     <row r="14" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="O14" s="33">
+      <c r="O14" s="91">
         <v>10.039999999999999</v>
       </c>
-      <c r="P14" s="34">
+      <c r="P14" s="95">
         <v>10.050000000000001</v>
       </c>
-      <c r="Q14" s="35">
+      <c r="Q14" s="99">
         <v>1</v>
       </c>
-      <c r="R14" s="39">
+      <c r="R14" s="25">
         <v>2</v>
       </c>
-      <c r="S14" s="49"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="51"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="50"/>
-      <c r="X14" s="53"/>
-      <c r="Y14" s="53"/>
-      <c r="Z14" s="50"/>
-      <c r="AA14" s="50"/>
-      <c r="AB14" s="51"/>
-      <c r="AC14" s="62"/>
-      <c r="AD14" s="50"/>
-      <c r="AE14" s="50"/>
-      <c r="AF14" s="50"/>
-      <c r="AG14" s="50"/>
-      <c r="AH14" s="50"/>
-      <c r="AI14" s="51"/>
-      <c r="AJ14" s="62"/>
-      <c r="AK14" s="50"/>
-      <c r="AL14" s="50"/>
-      <c r="AM14" s="50"/>
-      <c r="AN14" s="50"/>
-      <c r="AO14" s="50"/>
-      <c r="AP14" s="51"/>
-      <c r="AQ14" s="62"/>
-      <c r="AR14" s="50"/>
-      <c r="AS14" s="50"/>
-      <c r="AT14" s="50"/>
-      <c r="AU14" s="50"/>
-      <c r="AV14" s="50"/>
-      <c r="AW14" s="51"/>
-      <c r="AX14" s="50"/>
-      <c r="AY14" s="83"/>
-      <c r="AZ14" s="66"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="36"/>
+      <c r="AB14" s="37"/>
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="36"/>
+      <c r="AE14" s="36"/>
+      <c r="AF14" s="36"/>
+      <c r="AG14" s="36"/>
+      <c r="AH14" s="36"/>
+      <c r="AI14" s="37"/>
+      <c r="AJ14" s="48"/>
+      <c r="AK14" s="36"/>
+      <c r="AL14" s="36"/>
+      <c r="AM14" s="36"/>
+      <c r="AN14" s="36"/>
+      <c r="AO14" s="36"/>
+      <c r="AP14" s="37"/>
+      <c r="AQ14" s="48"/>
+      <c r="AR14" s="36"/>
+      <c r="AS14" s="36"/>
+      <c r="AT14" s="36"/>
+      <c r="AU14" s="36"/>
+      <c r="AV14" s="36"/>
+      <c r="AW14" s="37"/>
+      <c r="AX14" s="36"/>
+      <c r="AY14" s="56"/>
+      <c r="AZ14" s="52"/>
     </row>
     <row r="15" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B15" s="88" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="89"/>
+      <c r="B15" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
       <c r="N15" s="89"/>
       <c r="O15" s="89"/>
       <c r="P15" s="89"/>
       <c r="Q15" s="89"/>
-      <c r="R15" s="90"/>
-      <c r="S15" s="49"/>
-      <c r="T15" s="50"/>
-      <c r="U15" s="51"/>
-      <c r="V15" s="62"/>
-      <c r="W15" s="50"/>
-      <c r="X15" s="50"/>
-      <c r="Y15" s="50"/>
-      <c r="Z15" s="50"/>
-      <c r="AA15" s="50"/>
-      <c r="AB15" s="51"/>
-      <c r="AC15" s="62"/>
-      <c r="AD15" s="50"/>
-      <c r="AE15" s="50"/>
-      <c r="AF15" s="50"/>
-      <c r="AG15" s="50"/>
-      <c r="AH15" s="50"/>
-      <c r="AI15" s="51"/>
-      <c r="AJ15" s="62"/>
-      <c r="AK15" s="50"/>
-      <c r="AL15" s="50"/>
-      <c r="AM15" s="50"/>
-      <c r="AN15" s="50"/>
-      <c r="AO15" s="50"/>
-      <c r="AP15" s="51"/>
-      <c r="AQ15" s="62"/>
-      <c r="AR15" s="50"/>
-      <c r="AS15" s="50"/>
-      <c r="AT15" s="50"/>
-      <c r="AU15" s="50"/>
-      <c r="AV15" s="50"/>
-      <c r="AW15" s="51"/>
-      <c r="AX15" s="62"/>
-      <c r="AY15" s="83"/>
-      <c r="AZ15" s="66"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="37"/>
+      <c r="AC15" s="48"/>
+      <c r="AD15" s="36"/>
+      <c r="AE15" s="36"/>
+      <c r="AF15" s="36"/>
+      <c r="AG15" s="36"/>
+      <c r="AH15" s="36"/>
+      <c r="AI15" s="37"/>
+      <c r="AJ15" s="48"/>
+      <c r="AK15" s="36"/>
+      <c r="AL15" s="36"/>
+      <c r="AM15" s="36"/>
+      <c r="AN15" s="36"/>
+      <c r="AO15" s="36"/>
+      <c r="AP15" s="37"/>
+      <c r="AQ15" s="48"/>
+      <c r="AR15" s="36"/>
+      <c r="AS15" s="36"/>
+      <c r="AT15" s="36"/>
+      <c r="AU15" s="36"/>
+      <c r="AV15" s="36"/>
+      <c r="AW15" s="37"/>
+      <c r="AX15" s="48"/>
+      <c r="AY15" s="56"/>
+      <c r="AZ15" s="52"/>
     </row>
     <row r="16" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B16" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="33" t="s">
+      <c r="B16" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="O16" s="33">
+      <c r="O16" s="91">
         <v>9.2899999999999991</v>
       </c>
-      <c r="P16" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="39">
+      <c r="P16" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q16" s="99"/>
+      <c r="R16" s="25">
         <v>1</v>
       </c>
-      <c r="S16" s="56"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="65"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="57"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="50"/>
-      <c r="AB16" s="51"/>
-      <c r="AC16" s="62"/>
-      <c r="AD16" s="50"/>
-      <c r="AE16" s="50"/>
-      <c r="AF16" s="50"/>
-      <c r="AG16" s="50"/>
-      <c r="AH16" s="50"/>
-      <c r="AI16" s="51"/>
-      <c r="AJ16" s="62"/>
-      <c r="AK16" s="50"/>
-      <c r="AL16" s="50"/>
-      <c r="AM16" s="50"/>
-      <c r="AN16" s="50"/>
-      <c r="AO16" s="50"/>
-      <c r="AP16" s="51"/>
-      <c r="AQ16" s="62"/>
-      <c r="AR16" s="50"/>
-      <c r="AS16" s="50"/>
-      <c r="AT16" s="50"/>
-      <c r="AU16" s="50"/>
-      <c r="AV16" s="50"/>
-      <c r="AW16" s="51"/>
-      <c r="AZ16" s="66"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="51"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="43"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="37"/>
+      <c r="AC16" s="48"/>
+      <c r="AD16" s="36"/>
+      <c r="AE16" s="36"/>
+      <c r="AF16" s="36"/>
+      <c r="AG16" s="36"/>
+      <c r="AH16" s="36"/>
+      <c r="AI16" s="37"/>
+      <c r="AJ16" s="48"/>
+      <c r="AK16" s="36"/>
+      <c r="AL16" s="36"/>
+      <c r="AM16" s="36"/>
+      <c r="AN16" s="36"/>
+      <c r="AO16" s="36"/>
+      <c r="AP16" s="37"/>
+      <c r="AQ16" s="48"/>
+      <c r="AR16" s="36"/>
+      <c r="AS16" s="36"/>
+      <c r="AT16" s="36"/>
+      <c r="AU16" s="36"/>
+      <c r="AV16" s="36"/>
+      <c r="AW16" s="37"/>
+      <c r="AZ16" s="52"/>
     </row>
     <row r="17" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B17" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="33" t="s">
+      <c r="B17" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="O17" s="33">
+      <c r="O17" s="91">
         <v>10.039999999999999</v>
       </c>
-      <c r="P17" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="39">
+      <c r="P17" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q17" s="99"/>
+      <c r="R17" s="25">
         <v>2</v>
       </c>
-      <c r="S17" s="49"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="51"/>
-      <c r="V17" s="62"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="57"/>
-      <c r="Y17" s="57"/>
-      <c r="Z17" s="93"/>
-      <c r="AA17" s="93"/>
-      <c r="AB17" s="51"/>
-      <c r="AC17" s="62"/>
-      <c r="AD17" s="50"/>
-      <c r="AE17" s="50"/>
-      <c r="AF17" s="50"/>
-      <c r="AG17" s="50"/>
-      <c r="AH17" s="50"/>
-      <c r="AI17" s="51"/>
-      <c r="AJ17" s="62"/>
-      <c r="AK17" s="50"/>
-      <c r="AL17" s="50"/>
-      <c r="AM17" s="50"/>
-      <c r="AN17" s="50"/>
-      <c r="AO17" s="50"/>
-      <c r="AP17" s="51"/>
-      <c r="AQ17" s="62"/>
-      <c r="AR17" s="50"/>
-      <c r="AS17" s="50"/>
-      <c r="AT17" s="50"/>
-      <c r="AU17" s="50"/>
-      <c r="AV17" s="50"/>
-      <c r="AW17" s="51"/>
-      <c r="AZ17" s="66"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="60"/>
+      <c r="AA17" s="60"/>
+      <c r="AB17" s="37"/>
+      <c r="AC17" s="48"/>
+      <c r="AD17" s="36"/>
+      <c r="AE17" s="36"/>
+      <c r="AF17" s="36"/>
+      <c r="AG17" s="36"/>
+      <c r="AH17" s="36"/>
+      <c r="AI17" s="37"/>
+      <c r="AJ17" s="48"/>
+      <c r="AK17" s="36"/>
+      <c r="AL17" s="36"/>
+      <c r="AM17" s="36"/>
+      <c r="AN17" s="36"/>
+      <c r="AO17" s="36"/>
+      <c r="AP17" s="37"/>
+      <c r="AQ17" s="48"/>
+      <c r="AR17" s="36"/>
+      <c r="AS17" s="36"/>
+      <c r="AT17" s="36"/>
+      <c r="AU17" s="36"/>
+      <c r="AV17" s="36"/>
+      <c r="AW17" s="37"/>
+      <c r="AZ17" s="52"/>
     </row>
     <row r="18" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B18" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="20" t="s">
+      <c r="B18" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="33" t="s">
+      <c r="D18" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="O18" s="33">
+      <c r="O18" s="91">
         <v>10.039999999999999</v>
       </c>
-      <c r="P18" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q18" s="35">
+      <c r="P18" s="95" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q18" s="99">
         <v>1</v>
       </c>
-      <c r="R18" s="39">
+      <c r="R18" s="25">
         <v>2</v>
       </c>
-      <c r="S18" s="49"/>
-      <c r="T18" s="50"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="62"/>
-      <c r="W18" s="50"/>
-      <c r="X18" s="57"/>
-      <c r="Y18" s="50"/>
-      <c r="Z18" s="50"/>
-      <c r="AA18" s="50"/>
-      <c r="AB18" s="51"/>
-      <c r="AC18" s="62"/>
-      <c r="AD18" s="50"/>
-      <c r="AE18" s="50"/>
-      <c r="AF18" s="50"/>
-      <c r="AG18" s="50"/>
-      <c r="AH18" s="50"/>
-      <c r="AI18" s="51"/>
-      <c r="AJ18" s="62"/>
-      <c r="AK18" s="50"/>
-      <c r="AL18" s="50"/>
-      <c r="AM18" s="50"/>
-      <c r="AN18" s="50"/>
-      <c r="AO18" s="50"/>
-      <c r="AP18" s="51"/>
-      <c r="AQ18" s="62"/>
-      <c r="AR18" s="50"/>
-      <c r="AS18" s="50"/>
-      <c r="AT18" s="50"/>
-      <c r="AU18" s="50"/>
-      <c r="AV18" s="50"/>
-      <c r="AW18" s="51"/>
-      <c r="AZ18" s="66"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="37"/>
+      <c r="AC18" s="48"/>
+      <c r="AD18" s="36"/>
+      <c r="AE18" s="36"/>
+      <c r="AF18" s="36"/>
+      <c r="AG18" s="36"/>
+      <c r="AH18" s="36"/>
+      <c r="AI18" s="37"/>
+      <c r="AJ18" s="48"/>
+      <c r="AK18" s="36"/>
+      <c r="AL18" s="36"/>
+      <c r="AM18" s="36"/>
+      <c r="AN18" s="36"/>
+      <c r="AO18" s="36"/>
+      <c r="AP18" s="37"/>
+      <c r="AQ18" s="48"/>
+      <c r="AR18" s="36"/>
+      <c r="AS18" s="36"/>
+      <c r="AT18" s="36"/>
+      <c r="AU18" s="36"/>
+      <c r="AV18" s="36"/>
+      <c r="AW18" s="37"/>
+      <c r="AZ18" s="52"/>
     </row>
     <row r="19" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B19" s="34"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="80"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="AZ19" s="50"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="AZ19" s="36"/>
     </row>
     <row r="20" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="73"/>
     </row>
     <row r="21" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="C21" s="23"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
       <c r="Q21" s="8"/>
       <c r="S21" s="11"/>
       <c r="T21" s="11"/>
@@ -3060,20 +3141,21 @@
       <c r="N22"/>
       <c r="P22" s="1"/>
     </row>
+    <row r="26" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="K26" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D13:M13"/>
-    <mergeCell ref="C4:R4"/>
-    <mergeCell ref="D5:M5"/>
+    <mergeCell ref="D12:M12"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C15:M15"/>
     <mergeCell ref="D7:M7"/>
     <mergeCell ref="D6:M6"/>
     <mergeCell ref="D9:M9"/>
     <mergeCell ref="D10:M10"/>
     <mergeCell ref="D11:M11"/>
-    <mergeCell ref="D12:M12"/>
-    <mergeCell ref="C8:R8"/>
     <mergeCell ref="D14:M14"/>
-    <mergeCell ref="C15:R15"/>
     <mergeCell ref="U2:AY2"/>
     <mergeCell ref="AZ2:AZ3"/>
     <mergeCell ref="D21:M21"/>
@@ -3082,14 +3164,16 @@
     <mergeCell ref="D17:M17"/>
     <mergeCell ref="D18:M18"/>
     <mergeCell ref="S2:T2"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="D13:M13"/>
+    <mergeCell ref="D5:M5"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:M3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/일정관리/WBS&Gantt.xlsx
+++ b/일정관리/WBS&Gantt.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -258,6 +258,14 @@
   </si>
   <si>
     <t>제안서(컨셉 기획서) 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표 일정 기간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제 진행 기간</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -842,7 +850,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1026,27 +1034,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1074,74 +1136,32 @@
     <xf numFmtId="49" fontId="3" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1171,13 +1191,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>6569</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>262759</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>131380</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1233,13 +1253,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>7882</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>81687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>264072</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>145832</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1295,13 +1315,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>14605</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>77203</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>22411</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1357,13 +1377,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>85397</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>11361</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1419,13 +1439,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>386</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>86711</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>12675</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>148889</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1481,13 +1501,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>5953</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>82227</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>1539</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>136920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1543,13 +1563,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>202181</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>91333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>10026</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>155408</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1567,6 +1587,254 @@
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>102855</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>339656</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="직사각형 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10074026" y="0"/>
+          <a:ext cx="236801" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>20875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>126933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>257676</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>177466</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="직사각형 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11485967" y="548038"/>
+          <a:ext cx="236801" cy="50533"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>253486</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>14037</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>174458</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="직사각형 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11718578" y="545030"/>
+          <a:ext cx="236801" cy="50533"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>47946</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>174458</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="직사각형 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11247341" y="545030"/>
+          <a:ext cx="236801" cy="50533"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
             <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
@@ -1867,10 +2135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AZ26"/>
+  <dimension ref="B1:AZ29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1889,699 +2157,537 @@
     <col min="30" max="51" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:52" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:52" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="61" t="s">
+    <row r="1" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+    </row>
+    <row r="2" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="102"/>
+      <c r="W2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="2:52" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:52" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C5" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D5" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63" t="s">
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="63" t="s">
+      <c r="O5" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="75" t="s">
+      <c r="P5" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="63" t="s">
+      <c r="Q5" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="77" t="s">
+      <c r="R5" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="74" t="s">
+      <c r="S5" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68" t="s">
+      <c r="T5" s="86"/>
+      <c r="U5" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="68"/>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="68"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="68"/>
-      <c r="AO2" s="68"/>
-      <c r="AP2" s="68"/>
-      <c r="AQ2" s="68"/>
-      <c r="AR2" s="68"/>
-      <c r="AS2" s="68"/>
-      <c r="AT2" s="68"/>
-      <c r="AU2" s="68"/>
-      <c r="AV2" s="68"/>
-      <c r="AW2" s="68"/>
-      <c r="AX2" s="68"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="70" t="s">
+      <c r="V5" s="86"/>
+      <c r="W5" s="86"/>
+      <c r="X5" s="86"/>
+      <c r="Y5" s="86"/>
+      <c r="Z5" s="86"/>
+      <c r="AA5" s="86"/>
+      <c r="AB5" s="86"/>
+      <c r="AC5" s="86"/>
+      <c r="AD5" s="86"/>
+      <c r="AE5" s="86"/>
+      <c r="AF5" s="86"/>
+      <c r="AG5" s="86"/>
+      <c r="AH5" s="86"/>
+      <c r="AI5" s="86"/>
+      <c r="AJ5" s="86"/>
+      <c r="AK5" s="86"/>
+      <c r="AL5" s="86"/>
+      <c r="AM5" s="86"/>
+      <c r="AN5" s="86"/>
+      <c r="AO5" s="86"/>
+      <c r="AP5" s="86"/>
+      <c r="AQ5" s="86"/>
+      <c r="AR5" s="86"/>
+      <c r="AS5" s="86"/>
+      <c r="AT5" s="86"/>
+      <c r="AU5" s="86"/>
+      <c r="AV5" s="86"/>
+      <c r="AW5" s="86"/>
+      <c r="AX5" s="86"/>
+      <c r="AY5" s="87"/>
+      <c r="AZ5" s="88" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:52" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="62"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="4">
+    <row r="6" spans="2:52" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="100"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="98"/>
+      <c r="S6" s="4">
         <v>29</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T6" s="4">
         <v>30</v>
       </c>
-      <c r="U3" s="5">
+      <c r="U6" s="5">
         <v>1</v>
       </c>
-      <c r="V3" s="6">
+      <c r="V6" s="6">
         <v>2</v>
       </c>
-      <c r="W3" s="5">
+      <c r="W6" s="5">
         <v>3</v>
       </c>
-      <c r="X3" s="4">
+      <c r="X6" s="4">
         <v>4</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="Y6" s="4">
         <v>5</v>
       </c>
-      <c r="Z3" s="4">
+      <c r="Z6" s="4">
         <v>6</v>
       </c>
-      <c r="AA3" s="4">
+      <c r="AA6" s="4">
         <v>7</v>
       </c>
-      <c r="AB3" s="5">
+      <c r="AB6" s="5">
         <v>8</v>
       </c>
-      <c r="AC3" s="6">
+      <c r="AC6" s="6">
         <v>9</v>
       </c>
-      <c r="AD3" s="5">
+      <c r="AD6" s="5">
         <v>10</v>
       </c>
-      <c r="AE3" s="4">
+      <c r="AE6" s="4">
         <v>11</v>
       </c>
-      <c r="AF3" s="4">
+      <c r="AF6" s="4">
         <v>12</v>
       </c>
-      <c r="AG3" s="4">
+      <c r="AG6" s="4">
         <v>13</v>
       </c>
-      <c r="AH3" s="4">
+      <c r="AH6" s="4">
         <v>14</v>
       </c>
-      <c r="AI3" s="5">
+      <c r="AI6" s="5">
         <v>15</v>
       </c>
-      <c r="AJ3" s="6">
+      <c r="AJ6" s="6">
         <v>16</v>
       </c>
-      <c r="AK3" s="4">
+      <c r="AK6" s="4">
         <v>17</v>
       </c>
-      <c r="AL3" s="4">
+      <c r="AL6" s="4">
         <v>18</v>
       </c>
-      <c r="AM3" s="4">
+      <c r="AM6" s="4">
         <v>19</v>
       </c>
-      <c r="AN3" s="4">
+      <c r="AN6" s="4">
         <v>20</v>
       </c>
-      <c r="AO3" s="4">
+      <c r="AO6" s="4">
         <v>21</v>
       </c>
-      <c r="AP3" s="5">
+      <c r="AP6" s="5">
         <v>22</v>
       </c>
-      <c r="AQ3" s="6">
+      <c r="AQ6" s="6">
         <v>23</v>
       </c>
-      <c r="AR3" s="4">
+      <c r="AR6" s="4">
         <v>24</v>
       </c>
-      <c r="AS3" s="4">
+      <c r="AS6" s="4">
         <v>25</v>
       </c>
-      <c r="AT3" s="4">
+      <c r="AT6" s="4">
         <v>26</v>
       </c>
-      <c r="AU3" s="4">
+      <c r="AU6" s="4">
         <v>27</v>
       </c>
-      <c r="AV3" s="4">
+      <c r="AV6" s="4">
         <v>28</v>
       </c>
-      <c r="AW3" s="5">
+      <c r="AW6" s="5">
         <v>29</v>
       </c>
-      <c r="AX3" s="6">
+      <c r="AX6" s="6">
         <v>30</v>
       </c>
-      <c r="AY3" s="4">
+      <c r="AY6" s="4">
         <v>31</v>
       </c>
-      <c r="AZ3" s="71"/>
-    </row>
-    <row r="4" spans="2:52" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86"/>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="29"/>
-      <c r="AA4" s="29"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="29"/>
-      <c r="AF4" s="29"/>
-      <c r="AG4" s="29"/>
-      <c r="AH4" s="29"/>
-      <c r="AI4" s="30"/>
-      <c r="AJ4" s="45"/>
-      <c r="AK4" s="29"/>
-      <c r="AL4" s="29"/>
-      <c r="AM4" s="29"/>
-      <c r="AN4" s="29"/>
-      <c r="AO4" s="29"/>
-      <c r="AP4" s="30"/>
-      <c r="AQ4" s="45"/>
-      <c r="AR4" s="29"/>
-      <c r="AS4" s="29"/>
-      <c r="AT4" s="29"/>
-      <c r="AU4" s="29"/>
-      <c r="AV4" s="29"/>
-      <c r="AW4" s="30"/>
-      <c r="AX4" s="3"/>
-      <c r="AY4" s="2"/>
-      <c r="AZ4" s="54"/>
-    </row>
-    <row r="5" spans="2:52" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="80" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="87">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="P5" s="92">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="Q5" s="96">
-        <v>1</v>
-      </c>
-      <c r="R5" s="22">
-        <v>2</v>
-      </c>
-      <c r="S5" s="31"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="32"/>
-      <c r="AC5" s="47"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="32"/>
-      <c r="AJ5" s="47"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
-      <c r="AN5" s="2"/>
-      <c r="AO5" s="2"/>
-      <c r="AP5" s="32"/>
-      <c r="AQ5" s="47"/>
-      <c r="AR5" s="2"/>
-      <c r="AS5" s="2"/>
-      <c r="AT5" s="2"/>
-      <c r="AU5" s="2"/>
-      <c r="AV5" s="2"/>
-      <c r="AW5" s="32"/>
-      <c r="AX5" s="3"/>
-      <c r="AY5" s="2"/>
-      <c r="AZ5" s="55"/>
-    </row>
-    <row r="6" spans="2:52" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="80" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="88" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="88">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="P6" s="93">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="Q6" s="97">
-        <v>1</v>
-      </c>
-      <c r="R6" s="23">
-        <v>2</v>
-      </c>
-      <c r="S6" s="33"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="32"/>
-      <c r="AC6" s="47"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="32"/>
-      <c r="AJ6" s="47"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
-      <c r="AM6" s="2"/>
-      <c r="AN6" s="2"/>
-      <c r="AO6" s="2"/>
-      <c r="AP6" s="32"/>
-      <c r="AQ6" s="47"/>
-      <c r="AR6" s="2"/>
-      <c r="AS6" s="2"/>
-      <c r="AT6" s="2"/>
-      <c r="AU6" s="2"/>
-      <c r="AV6" s="2"/>
-      <c r="AW6" s="32"/>
-      <c r="AX6" s="3"/>
-      <c r="AY6" s="2"/>
-      <c r="AZ6" s="55"/>
+      <c r="AZ6" s="89"/>
     </row>
     <row r="7" spans="2:52" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="45"/>
+      <c r="AD7" s="46"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="45"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="29"/>
+      <c r="AM7" s="29"/>
+      <c r="AN7" s="29"/>
+      <c r="AO7" s="29"/>
+      <c r="AP7" s="30"/>
+      <c r="AQ7" s="45"/>
+      <c r="AR7" s="29"/>
+      <c r="AS7" s="29"/>
+      <c r="AT7" s="29"/>
+      <c r="AU7" s="29"/>
+      <c r="AV7" s="29"/>
+      <c r="AW7" s="30"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="2"/>
+      <c r="AZ7" s="54"/>
+    </row>
+    <row r="8" spans="2:52" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="65">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="P8" s="70">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="Q8" s="74">
+        <v>1</v>
+      </c>
+      <c r="R8" s="22">
+        <v>2</v>
+      </c>
+      <c r="S8" s="31"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="32"/>
+      <c r="AC8" s="47"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="32"/>
+      <c r="AJ8" s="47"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="32"/>
+      <c r="AQ8" s="47"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="32"/>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="2"/>
+      <c r="AZ8" s="55"/>
+    </row>
+    <row r="9" spans="2:52" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="66">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="P9" s="71">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="Q9" s="75">
+        <v>1</v>
+      </c>
+      <c r="R9" s="23">
+        <v>2</v>
+      </c>
+      <c r="S9" s="33"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="47"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="32"/>
+      <c r="AJ9" s="47"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="32"/>
+      <c r="AQ9" s="47"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="2"/>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="32"/>
+      <c r="AX9" s="3"/>
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="55"/>
+    </row>
+    <row r="10" spans="2:52" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="81" t="s">
+      <c r="D10" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="88" t="s">
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="88">
+      <c r="O10" s="66">
         <v>10.039999999999999</v>
       </c>
-      <c r="P7" s="93">
+      <c r="P10" s="71">
         <v>10.06</v>
       </c>
-      <c r="Q7" s="97"/>
-      <c r="R7" s="23">
+      <c r="Q10" s="75"/>
+      <c r="R10" s="23">
         <v>1</v>
       </c>
-      <c r="S7" s="34"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="47"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="47"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="47"/>
-      <c r="AK7" s="2"/>
-      <c r="AL7" s="2"/>
-      <c r="AM7" s="2"/>
-      <c r="AN7" s="2"/>
-      <c r="AO7" s="2"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="47"/>
-      <c r="AR7" s="2"/>
-      <c r="AS7" s="2"/>
-      <c r="AT7" s="2"/>
-      <c r="AU7" s="2"/>
-      <c r="AV7" s="2"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="3"/>
-      <c r="AY7" s="57"/>
-      <c r="AZ7" s="55"/>
-    </row>
-    <row r="8" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B8" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="84"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="36"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="48"/>
-      <c r="AD8" s="36"/>
-      <c r="AE8" s="36"/>
-      <c r="AF8" s="36"/>
-      <c r="AG8" s="36"/>
-      <c r="AH8" s="36"/>
-      <c r="AI8" s="37"/>
-      <c r="AJ8" s="48"/>
-      <c r="AK8" s="36"/>
-      <c r="AL8" s="36"/>
-      <c r="AM8" s="36"/>
-      <c r="AN8" s="36"/>
-      <c r="AO8" s="36"/>
-      <c r="AP8" s="37"/>
-      <c r="AQ8" s="48"/>
-      <c r="AR8" s="36"/>
-      <c r="AS8" s="36"/>
-      <c r="AT8" s="36"/>
-      <c r="AU8" s="36"/>
-      <c r="AV8" s="36"/>
-      <c r="AW8" s="37"/>
-      <c r="AX8" s="48"/>
-      <c r="AY8" s="56"/>
-      <c r="AZ8" s="52"/>
-    </row>
-    <row r="9" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="90" t="s">
-        <v>11</v>
-      </c>
-      <c r="O9" s="90">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="P9" s="94">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="Q9" s="98">
-        <v>1</v>
-      </c>
-      <c r="R9" s="24">
-        <v>1</v>
-      </c>
-      <c r="S9" s="38"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="36"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="48"/>
-      <c r="AD9" s="36"/>
-      <c r="AE9" s="36"/>
-      <c r="AF9" s="36"/>
-      <c r="AG9" s="36"/>
-      <c r="AH9" s="36"/>
-      <c r="AI9" s="37"/>
-      <c r="AJ9" s="48"/>
-      <c r="AK9" s="36"/>
-      <c r="AL9" s="36"/>
-      <c r="AM9" s="36"/>
-      <c r="AN9" s="36"/>
-      <c r="AO9" s="36"/>
-      <c r="AP9" s="37"/>
-      <c r="AQ9" s="48"/>
-      <c r="AR9" s="36"/>
-      <c r="AS9" s="36"/>
-      <c r="AT9" s="36"/>
-      <c r="AU9" s="36"/>
-      <c r="AV9" s="36"/>
-      <c r="AW9" s="37"/>
-      <c r="AX9" s="36"/>
-      <c r="AY9" s="56"/>
-      <c r="AZ9" s="52"/>
-    </row>
-    <row r="10" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B10" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="91" t="s">
-        <v>39</v>
-      </c>
-      <c r="O10" s="91">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="P10" s="95">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="Q10" s="99">
-        <v>1</v>
-      </c>
-      <c r="R10" s="25">
-        <v>1</v>
-      </c>
-      <c r="S10" s="41"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="36"/>
-      <c r="AB10" s="37"/>
-      <c r="AC10" s="48"/>
-      <c r="AD10" s="36"/>
-      <c r="AE10" s="36"/>
-      <c r="AF10" s="36"/>
-      <c r="AG10" s="36"/>
-      <c r="AH10" s="36"/>
-      <c r="AI10" s="37"/>
-      <c r="AJ10" s="48"/>
-      <c r="AK10" s="36"/>
-      <c r="AL10" s="36"/>
-      <c r="AM10" s="36"/>
-      <c r="AN10" s="36"/>
-      <c r="AO10" s="36"/>
-      <c r="AP10" s="37"/>
-      <c r="AQ10" s="48"/>
-      <c r="AR10" s="36"/>
-      <c r="AS10" s="36"/>
-      <c r="AT10" s="36"/>
-      <c r="AU10" s="36"/>
-      <c r="AV10" s="36"/>
-      <c r="AW10" s="37"/>
-      <c r="AX10" s="36"/>
-      <c r="AY10" s="56"/>
-      <c r="AZ10" s="52"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="47"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="32"/>
+      <c r="AJ10" s="47"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="32"/>
+      <c r="AQ10" s="47"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="2"/>
+      <c r="AW10" s="32"/>
+      <c r="AX10" s="3"/>
+      <c r="AY10" s="57"/>
+      <c r="AZ10" s="55"/>
     </row>
     <row r="11" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B11" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="O11" s="91">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="P11" s="95">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="Q11" s="99">
-        <v>1</v>
-      </c>
-      <c r="R11" s="25">
-        <v>2</v>
-      </c>
+      <c r="B11" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="63"/>
       <c r="S11" s="35"/>
       <c r="T11" s="36"/>
       <c r="U11" s="37"/>
       <c r="V11" s="48"/>
       <c r="W11" s="36"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="39"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36"/>
       <c r="Z11" s="36"/>
       <c r="AA11" s="36"/>
       <c r="AB11" s="37"/>
@@ -2606,51 +2712,53 @@
       <c r="AU11" s="36"/>
       <c r="AV11" s="36"/>
       <c r="AW11" s="37"/>
-      <c r="AX11" s="36"/>
+      <c r="AX11" s="48"/>
       <c r="AY11" s="56"/>
       <c r="AZ11" s="52"/>
     </row>
     <row r="12" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B12" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="91" t="s">
-        <v>41</v>
-      </c>
-      <c r="O12" s="91">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="P12" s="95">
-        <v>10.06</v>
-      </c>
-      <c r="Q12" s="91"/>
-      <c r="R12" s="25">
+        <v>19</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="O12" s="68">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="P12" s="72">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="Q12" s="76">
         <v>1</v>
       </c>
-      <c r="S12" s="35"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="36"/>
+      <c r="R12" s="24">
+        <v>1</v>
+      </c>
+      <c r="S12" s="38"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="39"/>
       <c r="X12" s="36"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="39"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="36"/>
       <c r="AB12" s="37"/>
       <c r="AC12" s="48"/>
       <c r="AD12" s="36"/>
@@ -2679,44 +2787,46 @@
     </row>
     <row r="13" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B13" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="91" t="s">
-        <v>42</v>
-      </c>
-      <c r="O13" s="91">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="P13" s="95">
-        <v>10.06</v>
-      </c>
-      <c r="Q13" s="91"/>
+        <v>18</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13" s="69">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="P13" s="73">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="Q13" s="77">
+        <v>1</v>
+      </c>
       <c r="R13" s="25">
-        <v>2</v>
-      </c>
-      <c r="S13" s="35"/>
+        <v>1</v>
+      </c>
+      <c r="S13" s="41"/>
       <c r="T13" s="36"/>
       <c r="U13" s="37"/>
       <c r="V13" s="48"/>
       <c r="W13" s="36"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="50"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
       <c r="AA13" s="36"/>
       <c r="AB13" s="37"/>
       <c r="AC13" s="48"/>
@@ -2746,33 +2856,33 @@
     </row>
     <row r="14" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B14" s="27" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="91" t="s">
-        <v>45</v>
-      </c>
-      <c r="O14" s="91">
+      <c r="D14" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" s="69">
         <v>10.039999999999999</v>
       </c>
-      <c r="P14" s="95">
+      <c r="P14" s="73">
         <v>10.050000000000001</v>
       </c>
-      <c r="Q14" s="99">
+      <c r="Q14" s="77">
         <v>1</v>
       </c>
       <c r="R14" s="25">
@@ -2814,36 +2924,46 @@
       <c r="AZ14" s="52"/>
     </row>
     <row r="15" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B15" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="89"/>
-      <c r="R15" s="84"/>
+      <c r="B15" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="O15" s="69">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="P15" s="73">
+        <v>10.06</v>
+      </c>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="25">
+        <v>1</v>
+      </c>
       <c r="S15" s="35"/>
       <c r="T15" s="36"/>
       <c r="U15" s="37"/>
       <c r="V15" s="48"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
-      <c r="Y15" s="36"/>
-      <c r="Z15" s="36"/>
-      <c r="AA15" s="36"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="39"/>
+      <c r="AA15" s="39"/>
       <c r="AB15" s="37"/>
       <c r="AC15" s="48"/>
       <c r="AD15" s="36"/>
@@ -2866,50 +2986,50 @@
       <c r="AU15" s="36"/>
       <c r="AV15" s="36"/>
       <c r="AW15" s="37"/>
-      <c r="AX15" s="48"/>
+      <c r="AX15" s="36"/>
       <c r="AY15" s="56"/>
       <c r="AZ15" s="52"/>
     </row>
     <row r="16" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B16" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="65" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="O16" s="91">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="P16" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q16" s="99"/>
+      <c r="D16" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="O16" s="69">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="P16" s="73">
+        <v>10.06</v>
+      </c>
+      <c r="Q16" s="69"/>
       <c r="R16" s="25">
-        <v>1</v>
-      </c>
-      <c r="S16" s="42"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="51"/>
-      <c r="W16" s="43"/>
-      <c r="X16" s="43"/>
-      <c r="Y16" s="43"/>
-      <c r="Z16" s="43"/>
+        <v>2</v>
+      </c>
+      <c r="S16" s="35"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="50"/>
+      <c r="Z16" s="50"/>
       <c r="AA16" s="36"/>
       <c r="AB16" s="37"/>
       <c r="AC16" s="48"/>
@@ -2933,37 +3053,41 @@
       <c r="AU16" s="36"/>
       <c r="AV16" s="36"/>
       <c r="AW16" s="37"/>
+      <c r="AX16" s="36"/>
+      <c r="AY16" s="56"/>
       <c r="AZ16" s="52"/>
     </row>
     <row r="17" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B17" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="91" t="s">
-        <v>11</v>
-      </c>
-      <c r="O17" s="91">
+        <v>43</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="O17" s="69">
         <v>10.039999999999999</v>
       </c>
-      <c r="P17" s="95" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q17" s="99"/>
+      <c r="P17" s="73">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="Q17" s="77">
+        <v>1</v>
+      </c>
       <c r="R17" s="25">
         <v>2</v>
       </c>
@@ -2972,10 +3096,10 @@
       <c r="U17" s="37"/>
       <c r="V17" s="48"/>
       <c r="W17" s="36"/>
-      <c r="X17" s="43"/>
-      <c r="Y17" s="43"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="60"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="36"/>
       <c r="AB17" s="37"/>
       <c r="AC17" s="48"/>
       <c r="AD17" s="36"/>
@@ -2998,48 +3122,38 @@
       <c r="AU17" s="36"/>
       <c r="AV17" s="36"/>
       <c r="AW17" s="37"/>
+      <c r="AX17" s="36"/>
+      <c r="AY17" s="56"/>
       <c r="AZ17" s="52"/>
     </row>
     <row r="18" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B18" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="91" t="s">
-        <v>11</v>
-      </c>
-      <c r="O18" s="91">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="P18" s="95" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q18" s="99">
-        <v>1</v>
-      </c>
-      <c r="R18" s="25">
-        <v>2</v>
-      </c>
+      <c r="B18" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="63"/>
       <c r="S18" s="35"/>
       <c r="T18" s="36"/>
       <c r="U18" s="37"/>
       <c r="V18" s="48"/>
       <c r="W18" s="36"/>
-      <c r="X18" s="43"/>
+      <c r="X18" s="36"/>
       <c r="Y18" s="36"/>
       <c r="Z18" s="36"/>
       <c r="AA18" s="36"/>
@@ -3065,121 +3179,320 @@
       <c r="AU18" s="36"/>
       <c r="AV18" s="36"/>
       <c r="AW18" s="37"/>
+      <c r="AX18" s="48"/>
+      <c r="AY18" s="56"/>
       <c r="AZ18" s="52"/>
     </row>
     <row r="19" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B19" s="21"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="AZ19" s="36"/>
+      <c r="B19" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="O19" s="69">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="P19" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="25">
+        <v>1</v>
+      </c>
+      <c r="S19" s="42"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="51"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="37"/>
+      <c r="AC19" s="48"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="36"/>
+      <c r="AF19" s="36"/>
+      <c r="AG19" s="36"/>
+      <c r="AH19" s="36"/>
+      <c r="AI19" s="37"/>
+      <c r="AJ19" s="48"/>
+      <c r="AK19" s="36"/>
+      <c r="AL19" s="36"/>
+      <c r="AM19" s="36"/>
+      <c r="AN19" s="36"/>
+      <c r="AO19" s="36"/>
+      <c r="AP19" s="37"/>
+      <c r="AQ19" s="48"/>
+      <c r="AR19" s="36"/>
+      <c r="AS19" s="36"/>
+      <c r="AT19" s="36"/>
+      <c r="AU19" s="36"/>
+      <c r="AV19" s="36"/>
+      <c r="AW19" s="37"/>
+      <c r="AZ19" s="52"/>
     </row>
     <row r="20" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="73"/>
+      <c r="B20" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="O20" s="69">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="P20" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="25">
+        <v>2</v>
+      </c>
+      <c r="S20" s="35"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="60"/>
+      <c r="AA20" s="60"/>
+      <c r="AB20" s="37"/>
+      <c r="AC20" s="48"/>
+      <c r="AD20" s="36"/>
+      <c r="AE20" s="36"/>
+      <c r="AF20" s="36"/>
+      <c r="AG20" s="36"/>
+      <c r="AH20" s="36"/>
+      <c r="AI20" s="37"/>
+      <c r="AJ20" s="48"/>
+      <c r="AK20" s="36"/>
+      <c r="AL20" s="36"/>
+      <c r="AM20" s="36"/>
+      <c r="AN20" s="36"/>
+      <c r="AO20" s="36"/>
+      <c r="AP20" s="37"/>
+      <c r="AQ20" s="48"/>
+      <c r="AR20" s="36"/>
+      <c r="AS20" s="36"/>
+      <c r="AT20" s="36"/>
+      <c r="AU20" s="36"/>
+      <c r="AV20" s="36"/>
+      <c r="AW20" s="37"/>
+      <c r="AZ20" s="52"/>
     </row>
     <row r="21" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="C21" s="18"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
-      <c r="Q21" s="8"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
+      <c r="B21" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="O21" s="69">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="P21" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q21" s="77">
+        <v>1</v>
+      </c>
+      <c r="R21" s="25">
+        <v>2</v>
+      </c>
+      <c r="S21" s="35"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="36"/>
+      <c r="AB21" s="37"/>
+      <c r="AC21" s="48"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="36"/>
+      <c r="AF21" s="36"/>
+      <c r="AG21" s="36"/>
+      <c r="AH21" s="36"/>
+      <c r="AI21" s="37"/>
+      <c r="AJ21" s="48"/>
+      <c r="AK21" s="36"/>
+      <c r="AL21" s="36"/>
+      <c r="AM21" s="36"/>
+      <c r="AN21" s="36"/>
+      <c r="AO21" s="36"/>
+      <c r="AP21" s="37"/>
+      <c r="AQ21" s="48"/>
+      <c r="AR21" s="36"/>
+      <c r="AS21" s="36"/>
+      <c r="AT21" s="36"/>
+      <c r="AU21" s="36"/>
+      <c r="AV21" s="36"/>
+      <c r="AW21" s="37"/>
+      <c r="AZ21" s="52"/>
     </row>
     <row r="22" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="P22" s="1"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="AZ22" s="36"/>
     </row>
-    <row r="26" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="K26" s="9"/>
+    <row r="23" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="91"/>
+      <c r="N23" s="91"/>
+      <c r="O23" s="91"/>
+      <c r="P23" s="91"/>
+      <c r="Q23" s="91"/>
+      <c r="R23" s="91"/>
+    </row>
+    <row r="24" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="C24" s="18"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="90"/>
+      <c r="Q24" s="8"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+    </row>
+    <row r="25" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="29" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="K29" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="U5:AY5"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="C23:R23"/>
+    <mergeCell ref="D19:M19"/>
+    <mergeCell ref="D20:M20"/>
+    <mergeCell ref="D21:M21"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="D16:M16"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="C7:M7"/>
+    <mergeCell ref="C11:M11"/>
+    <mergeCell ref="C18:M18"/>
+    <mergeCell ref="D10:M10"/>
+    <mergeCell ref="D9:M9"/>
     <mergeCell ref="D12:M12"/>
-    <mergeCell ref="C4:M4"/>
-    <mergeCell ref="C8:M8"/>
-    <mergeCell ref="C15:M15"/>
-    <mergeCell ref="D7:M7"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="D10:M10"/>
-    <mergeCell ref="D11:M11"/>
+    <mergeCell ref="D13:M13"/>
     <mergeCell ref="D14:M14"/>
-    <mergeCell ref="U2:AY2"/>
-    <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="D21:M21"/>
-    <mergeCell ref="C20:R20"/>
-    <mergeCell ref="D16:M16"/>
     <mergeCell ref="D17:M17"/>
-    <mergeCell ref="D18:M18"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="D13:M13"/>
-    <mergeCell ref="D5:M5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B4 B8 B15 P16:P18" numberStoredAsText="1"/>
+    <ignoredError sqref="B7 B11 B18 P19:P21" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/일정관리/WBS&Gantt.xlsx
+++ b/일정관리/WBS&Gantt.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -257,15 +257,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>제안서(컨셉 기획서) 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>목표 일정 기간</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>실제 진행 기간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제안서 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨셉 기획서 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.07</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김호진</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -383,7 +403,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -844,13 +864,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1085,9 +1114,66 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1103,64 +1189,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1376,15 +1411,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>190499</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>85397</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>11361</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>22411</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1393,8 +1428,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12317016" y="2204710"/>
-          <a:ext cx="445939" cy="57477"/>
+          <a:off x="12304058" y="2886868"/>
+          <a:ext cx="683559" cy="60279"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1563,13 +1598,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>202181</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>91333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>10026</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>155408</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1829,6 +1864,254 @@
         <a:xfrm>
           <a:off x="11247341" y="545030"/>
           <a:ext cx="236801" cy="50533"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>16393</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>145760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="직사각형 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11166246" y="3955677"/>
+          <a:ext cx="2112725" cy="56112"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>208429</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>92121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>29290</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>149598</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="직사각형 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12534900" y="3106503"/>
+          <a:ext cx="459596" cy="57477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>2085</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>67765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>235324</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="직사각형 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12541467" y="3295059"/>
+          <a:ext cx="1566739" cy="55500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>3399</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>77202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>201706</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="직사각형 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12329870" y="2027026"/>
+          <a:ext cx="837042" cy="57268"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2135,10 +2418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AZ29"/>
+  <dimension ref="B1:AZ30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+      <selection activeCell="AH14" sqref="AH14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2180,11 +2463,11 @@
       <c r="K2" s="61"/>
       <c r="L2" s="61"/>
       <c r="M2" s="61"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="102"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="79"/>
       <c r="W2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="2:52" x14ac:dyDescent="0.3">
@@ -2199,103 +2482,103 @@
       <c r="L3" s="61"/>
       <c r="M3" s="61"/>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:52" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:52" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="95" t="s">
+      <c r="C5" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="95" t="s">
+      <c r="D5" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95" t="s">
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="95" t="s">
+      <c r="O5" s="83" t="s">
         <v>4</v>
       </c>
       <c r="P5" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="95" t="s">
+      <c r="Q5" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="97" t="s">
+      <c r="R5" s="95" t="s">
         <v>6</v>
       </c>
       <c r="S5" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="T5" s="86"/>
-      <c r="U5" s="86" t="s">
+      <c r="T5" s="85"/>
+      <c r="U5" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="86"/>
-      <c r="W5" s="86"/>
-      <c r="X5" s="86"/>
-      <c r="Y5" s="86"/>
-      <c r="Z5" s="86"/>
-      <c r="AA5" s="86"/>
-      <c r="AB5" s="86"/>
-      <c r="AC5" s="86"/>
-      <c r="AD5" s="86"/>
-      <c r="AE5" s="86"/>
-      <c r="AF5" s="86"/>
-      <c r="AG5" s="86"/>
-      <c r="AH5" s="86"/>
-      <c r="AI5" s="86"/>
-      <c r="AJ5" s="86"/>
-      <c r="AK5" s="86"/>
-      <c r="AL5" s="86"/>
-      <c r="AM5" s="86"/>
-      <c r="AN5" s="86"/>
-      <c r="AO5" s="86"/>
-      <c r="AP5" s="86"/>
-      <c r="AQ5" s="86"/>
-      <c r="AR5" s="86"/>
-      <c r="AS5" s="86"/>
-      <c r="AT5" s="86"/>
-      <c r="AU5" s="86"/>
-      <c r="AV5" s="86"/>
-      <c r="AW5" s="86"/>
-      <c r="AX5" s="86"/>
-      <c r="AY5" s="87"/>
-      <c r="AZ5" s="88" t="s">
+      <c r="V5" s="85"/>
+      <c r="W5" s="85"/>
+      <c r="X5" s="85"/>
+      <c r="Y5" s="85"/>
+      <c r="Z5" s="85"/>
+      <c r="AA5" s="85"/>
+      <c r="AB5" s="85"/>
+      <c r="AC5" s="85"/>
+      <c r="AD5" s="85"/>
+      <c r="AE5" s="85"/>
+      <c r="AF5" s="85"/>
+      <c r="AG5" s="85"/>
+      <c r="AH5" s="85"/>
+      <c r="AI5" s="85"/>
+      <c r="AJ5" s="85"/>
+      <c r="AK5" s="85"/>
+      <c r="AL5" s="85"/>
+      <c r="AM5" s="85"/>
+      <c r="AN5" s="85"/>
+      <c r="AO5" s="85"/>
+      <c r="AP5" s="85"/>
+      <c r="AQ5" s="85"/>
+      <c r="AR5" s="85"/>
+      <c r="AS5" s="85"/>
+      <c r="AT5" s="85"/>
+      <c r="AU5" s="85"/>
+      <c r="AV5" s="85"/>
+      <c r="AW5" s="85"/>
+      <c r="AX5" s="85"/>
+      <c r="AY5" s="86"/>
+      <c r="AZ5" s="87" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:52" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="100"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
-      <c r="N6" s="96"/>
-      <c r="O6" s="96"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
       <c r="P6" s="94"/>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="98"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="96"/>
       <c r="S6" s="4">
         <v>29</v>
       </c>
@@ -2395,25 +2678,25 @@
       <c r="AY6" s="4">
         <v>31</v>
       </c>
-      <c r="AZ6" s="89"/>
+      <c r="AZ6" s="88"/>
     </row>
     <row r="7" spans="2:52" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
       <c r="N7" s="64"/>
       <c r="O7" s="64"/>
       <c r="P7" s="64"/>
@@ -2461,18 +2744,18 @@
       <c r="C8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="97"/>
       <c r="N8" s="65" t="s">
         <v>27</v>
       </c>
@@ -2530,18 +2813,18 @@
       <c r="C9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
       <c r="N9" s="66" t="s">
         <v>33</v>
       </c>
@@ -2599,18 +2882,18 @@
       <c r="C10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
       <c r="N10" s="66" t="s">
         <v>30</v>
       </c>
@@ -2663,19 +2946,19 @@
       <c r="B11" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="101"/>
       <c r="N11" s="67"/>
       <c r="O11" s="67"/>
       <c r="P11" s="67"/>
@@ -2723,18 +3006,18 @@
       <c r="C12" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="85" t="s">
+      <c r="D12" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="85"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="103"/>
       <c r="N12" s="68" t="s">
         <v>11</v>
       </c>
@@ -2792,18 +3075,18 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="78" t="s">
+      <c r="D13" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
       <c r="N13" s="69" t="s">
         <v>39</v>
       </c>
@@ -2861,18 +3144,18 @@
       <c r="C14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="78" t="s">
+      <c r="D14" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
       <c r="N14" s="69" t="s">
         <v>40</v>
       </c>
@@ -2930,18 +3213,18 @@
       <c r="C15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
+      <c r="D15" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
       <c r="N15" s="69" t="s">
         <v>41</v>
       </c>
@@ -2951,7 +3234,9 @@
       <c r="P15" s="73">
         <v>10.06</v>
       </c>
-      <c r="Q15" s="69"/>
+      <c r="Q15" s="77">
+        <v>1</v>
+      </c>
       <c r="R15" s="25">
         <v>1</v>
       </c>
@@ -2963,7 +3248,7 @@
       <c r="X15" s="36"/>
       <c r="Y15" s="39"/>
       <c r="Z15" s="39"/>
-      <c r="AA15" s="39"/>
+      <c r="AA15" s="60"/>
       <c r="AB15" s="37"/>
       <c r="AC15" s="48"/>
       <c r="AD15" s="36"/>
@@ -2997,18 +3282,18 @@
       <c r="C16" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="78" t="s">
+      <c r="D16" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="91"/>
       <c r="N16" s="69" t="s">
         <v>42</v>
       </c>
@@ -3064,18 +3349,18 @@
       <c r="C17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="78" t="s">
+      <c r="D17" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="78"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="91"/>
       <c r="N17" s="69" t="s">
         <v>45</v>
       </c>
@@ -3127,35 +3412,45 @@
       <c r="AZ17" s="52"/>
     </row>
     <row r="18" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B18" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="81" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="63"/>
+      <c r="B18" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="104"/>
+      <c r="N18" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="O18" s="69">
+        <v>10.06</v>
+      </c>
+      <c r="P18" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q18" s="77"/>
+      <c r="R18" s="25">
+        <v>1</v>
+      </c>
       <c r="S18" s="35"/>
       <c r="T18" s="36"/>
       <c r="U18" s="37"/>
       <c r="V18" s="48"/>
       <c r="W18" s="36"/>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="36"/>
-      <c r="Z18" s="36"/>
+      <c r="X18" s="60"/>
+      <c r="Y18" s="105"/>
+      <c r="Z18" s="105"/>
       <c r="AA18" s="36"/>
       <c r="AB18" s="37"/>
       <c r="AC18" s="48"/>
@@ -3179,50 +3474,40 @@
       <c r="AU18" s="36"/>
       <c r="AV18" s="36"/>
       <c r="AW18" s="37"/>
-      <c r="AX18" s="48"/>
+      <c r="AX18" s="36"/>
       <c r="AY18" s="56"/>
       <c r="AZ18" s="52"/>
     </row>
     <row r="19" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B19" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="78"/>
-      <c r="N19" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="O19" s="69">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="P19" s="73" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="25">
-        <v>1</v>
-      </c>
-      <c r="S19" s="42"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="44"/>
-      <c r="V19" s="51"/>
-      <c r="W19" s="43"/>
-      <c r="X19" s="43"/>
-      <c r="Y19" s="43"/>
-      <c r="Z19" s="43"/>
+      <c r="B19" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="100" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="101"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="63"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
       <c r="AA19" s="36"/>
       <c r="AB19" s="37"/>
       <c r="AC19" s="48"/>
@@ -3246,49 +3531,51 @@
       <c r="AU19" s="36"/>
       <c r="AV19" s="36"/>
       <c r="AW19" s="37"/>
+      <c r="AX19" s="48"/>
+      <c r="AY19" s="56"/>
       <c r="AZ19" s="52"/>
     </row>
     <row r="20" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B20" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
+        <v>48</v>
+      </c>
+      <c r="D20" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="91"/>
       <c r="N20" s="69" t="s">
         <v>11</v>
       </c>
       <c r="O20" s="69">
-        <v>10.039999999999999</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="P20" s="73" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q20" s="77"/>
       <c r="R20" s="25">
-        <v>2</v>
-      </c>
-      <c r="S20" s="35"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="36"/>
+        <v>1</v>
+      </c>
+      <c r="S20" s="42"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="51"/>
+      <c r="W20" s="43"/>
       <c r="X20" s="43"/>
       <c r="Y20" s="43"/>
-      <c r="Z20" s="60"/>
-      <c r="AA20" s="60"/>
+      <c r="Z20" s="43"/>
+      <c r="AA20" s="36"/>
       <c r="AB20" s="37"/>
       <c r="AC20" s="48"/>
       <c r="AD20" s="36"/>
@@ -3315,23 +3602,23 @@
     </row>
     <row r="21" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B21" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="78" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="78"/>
+        <v>50</v>
+      </c>
+      <c r="D21" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
       <c r="N21" s="69" t="s">
         <v>11</v>
       </c>
@@ -3339,11 +3626,9 @@
         <v>10.039999999999999</v>
       </c>
       <c r="P21" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q21" s="77">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="Q21" s="77"/>
       <c r="R21" s="25">
         <v>2</v>
       </c>
@@ -3353,9 +3638,9 @@
       <c r="V21" s="48"/>
       <c r="W21" s="36"/>
       <c r="X21" s="43"/>
-      <c r="Y21" s="36"/>
-      <c r="Z21" s="36"/>
-      <c r="AA21" s="36"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="60"/>
+      <c r="AA21" s="60"/>
       <c r="AB21" s="37"/>
       <c r="AC21" s="48"/>
       <c r="AD21" s="36"/>
@@ -3381,45 +3666,94 @@
       <c r="AZ21" s="52"/>
     </row>
     <row r="22" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B22" s="21"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="AZ22" s="36"/>
+      <c r="B22" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="91"/>
+      <c r="N22" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="O22" s="69">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="P22" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q22" s="77">
+        <v>1</v>
+      </c>
+      <c r="R22" s="25">
+        <v>2</v>
+      </c>
+      <c r="S22" s="35"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="37"/>
+      <c r="AC22" s="48"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="36"/>
+      <c r="AF22" s="36"/>
+      <c r="AG22" s="36"/>
+      <c r="AH22" s="36"/>
+      <c r="AI22" s="37"/>
+      <c r="AJ22" s="48"/>
+      <c r="AK22" s="36"/>
+      <c r="AL22" s="36"/>
+      <c r="AM22" s="36"/>
+      <c r="AN22" s="36"/>
+      <c r="AO22" s="36"/>
+      <c r="AP22" s="37"/>
+      <c r="AQ22" s="48"/>
+      <c r="AR22" s="36"/>
+      <c r="AS22" s="36"/>
+      <c r="AT22" s="36"/>
+      <c r="AU22" s="36"/>
+      <c r="AV22" s="36"/>
+      <c r="AW22" s="37"/>
+      <c r="AZ22" s="52"/>
     </row>
     <row r="23" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="91"/>
-      <c r="N23" s="91"/>
-      <c r="O23" s="91"/>
-      <c r="P23" s="91"/>
-      <c r="Q23" s="91"/>
-      <c r="R23" s="91"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="AZ23" s="36"/>
     </row>
     <row r="24" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="C24" s="18"/>
+      <c r="C24" s="90"/>
       <c r="D24" s="90"/>
       <c r="E24" s="90"/>
       <c r="F24" s="90"/>
@@ -3430,47 +3764,68 @@
       <c r="K24" s="90"/>
       <c r="L24" s="90"/>
       <c r="M24" s="90"/>
-      <c r="Q24" s="8"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="90"/>
+      <c r="Q24" s="90"/>
+      <c r="R24" s="90"/>
     </row>
     <row r="25" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="P25" s="1"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="89"/>
+      <c r="Q25" s="8"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
     </row>
-    <row r="29" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="K29" s="9"/>
+    <row r="26" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="30" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="K30" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
+  <mergeCells count="29">
+    <mergeCell ref="C19:M19"/>
+    <mergeCell ref="D10:M10"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="D12:M12"/>
+    <mergeCell ref="D13:M13"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="D17:M17"/>
+    <mergeCell ref="D18:M18"/>
     <mergeCell ref="U5:AY5"/>
     <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="D24:M24"/>
-    <mergeCell ref="C23:R23"/>
-    <mergeCell ref="D19:M19"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="C24:R24"/>
     <mergeCell ref="D20:M20"/>
     <mergeCell ref="D21:M21"/>
+    <mergeCell ref="D22:M22"/>
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="Q5:Q6"/>
@@ -3480,19 +3835,17 @@
     <mergeCell ref="D15:M15"/>
     <mergeCell ref="C7:M7"/>
     <mergeCell ref="C11:M11"/>
-    <mergeCell ref="C18:M18"/>
-    <mergeCell ref="D10:M10"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="D12:M12"/>
-    <mergeCell ref="D13:M13"/>
-    <mergeCell ref="D14:M14"/>
-    <mergeCell ref="D17:M17"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B7 B11 B18 P19:P21" numberStoredAsText="1"/>
+    <ignoredError sqref="B7 B11 B19 P20:P22 P18" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/일정관리/WBS&Gantt.xlsx
+++ b/일정관리/WBS&Gantt.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="135">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -149,11 +149,223 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>GitHub 사용 규칙 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박도일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR 기본 개념 공부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원유훈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김효진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원유훈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김동열</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR 레퍼런스 수집</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김효진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발 R&amp;D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발 스펙 정리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>샘플 APP 이용해 다이어그램 만들기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구글 AR기술 R&amp;D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨셉을 바탕으로 세부 컨텐츠 기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표 일정 기간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제 진행 기간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제안서 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨셉 기획서 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.07</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김동열</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이트 시스템</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경로 시스템 기획서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박수현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김효진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박도일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김재성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김동열</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 디자인(에셋, 모션)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>1-3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>GitHub 사용 규칙 설정</t>
+    <t>개발</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -161,15 +373,131 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2-4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-5</t>
+    <t>경로 시스템 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박수현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 메인 스토리(1차 프로토)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김재성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신혁진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 애니메이션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김재성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별 이벤트 기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김효진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별 이벤트 실행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재혁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용 가게&amp;상호작용 리스트 정리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -177,7 +505,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>AR 기본 개념 공부</t>
+    <t>상호작용 연출 리스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 박스 R&amp;D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이트 시스템 기획서</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -185,107 +545,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>김효진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원유훈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김동열</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AR 레퍼런스 수집</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김효진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발 R&amp;D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.06</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발 스펙 정리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.05</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>샘플 APP 이용해 다이어그램 만들기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.04</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구글 AR기술 R&amp;D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>컨셉을 바탕으로 세부 컨텐츠 기획</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>목표 일정 기간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>실제 진행 기간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제안서 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>컨셉 기획서 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.07</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김호진</t>
+    <t>캐릭터 구현 (AR 하나쨩)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 컨셉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박수현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VPS 연출 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 박도일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -403,40 +679,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="52">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -458,171 +705,6 @@
       <bottom style="thin">
         <color theme="0"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -667,51 +749,6 @@
       </top>
       <bottom style="thin">
         <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,58 +811,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="dotted">
         <color indexed="64"/>
       </left>
@@ -873,13 +858,451 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -892,310 +1315,385 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="50" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1603,9 +2101,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>10026</xdr:colOff>
+      <xdr:colOff>44824</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>155408</xdr:rowOff>
+      <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1614,8 +2112,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12354076" y="3700807"/>
-          <a:ext cx="228950" cy="64075"/>
+          <a:off x="12315740" y="4596098"/>
+          <a:ext cx="268466" cy="54343"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1720,14 +2218,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>20875</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>265804</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>126933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>257676</xdr:colOff>
+      <xdr:colOff>230462</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>177466</xdr:rowOff>
     </xdr:to>
@@ -1738,7 +2236,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11485967" y="548038"/>
+          <a:off x="11396447" y="535147"/>
           <a:ext cx="236801" cy="50533"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1845,13 +2343,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>47946</xdr:colOff>
+      <xdr:colOff>20732</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>123925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>263979</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>174458</xdr:rowOff>
     </xdr:to>
@@ -1862,8 +2360,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11247341" y="545030"/>
-          <a:ext cx="236801" cy="50533"/>
+          <a:off x="11151375" y="532139"/>
+          <a:ext cx="243247" cy="50533"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1913,9 +2411,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>100853</xdr:colOff>
+      <xdr:colOff>201706</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>145760</xdr:rowOff>
+      <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1924,8 +2422,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11166246" y="3955677"/>
-          <a:ext cx="2112725" cy="56112"/>
+          <a:off x="11166246" y="4168589"/>
+          <a:ext cx="2213578" cy="56029"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2036,8 +2534,8 @@
       <xdr:rowOff>67765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>235324</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
@@ -2049,7 +2547,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12541467" y="3295059"/>
-          <a:ext cx="1566739" cy="55500"/>
+          <a:ext cx="1600357" cy="55500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2112,6 +2610,192 @@
         <a:xfrm>
           <a:off x="12329870" y="2027026"/>
           <a:ext cx="837042" cy="57268"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1471</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88951</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>246530</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="직사각형 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12753765" y="3742069"/>
+          <a:ext cx="1365647" cy="56725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>4796</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>86850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="직사각형 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12331267" y="4378703"/>
+          <a:ext cx="544292" cy="58826"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>887</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>24847</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>157368</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="직사각형 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13882539" y="6746610"/>
+          <a:ext cx="289004" cy="61693"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2418,21 +3102,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AZ30"/>
+  <dimension ref="B1:AZ40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH14" sqref="AH14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="6" style="10" customWidth="1"/>
+    <col min="2" max="2" width="6" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="13" width="9" style="7"/>
+    <col min="4" max="13" width="9" style="4"/>
     <col min="14" max="14" width="7.125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.375" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9" style="1"/>
     <col min="19" max="20" width="3.5" bestFit="1" customWidth="1"/>
@@ -2441,1388 +3126,2518 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="79"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="27"/>
       <c r="W2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
       <c r="W3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="2:52" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:52" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83" t="s">
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="83" t="s">
+      <c r="O5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="93" t="s">
+      <c r="P5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="83" t="s">
+      <c r="Q5" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="95" t="s">
+      <c r="R5" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="92" t="s">
-        <v>55</v>
-      </c>
-      <c r="T5" s="85"/>
-      <c r="U5" s="85" t="s">
+      <c r="S5" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="85"/>
-      <c r="W5" s="85"/>
-      <c r="X5" s="85"/>
-      <c r="Y5" s="85"/>
-      <c r="Z5" s="85"/>
-      <c r="AA5" s="85"/>
-      <c r="AB5" s="85"/>
-      <c r="AC5" s="85"/>
-      <c r="AD5" s="85"/>
-      <c r="AE5" s="85"/>
-      <c r="AF5" s="85"/>
-      <c r="AG5" s="85"/>
-      <c r="AH5" s="85"/>
-      <c r="AI5" s="85"/>
-      <c r="AJ5" s="85"/>
-      <c r="AK5" s="85"/>
-      <c r="AL5" s="85"/>
-      <c r="AM5" s="85"/>
-      <c r="AN5" s="85"/>
-      <c r="AO5" s="85"/>
-      <c r="AP5" s="85"/>
-      <c r="AQ5" s="85"/>
-      <c r="AR5" s="85"/>
-      <c r="AS5" s="85"/>
-      <c r="AT5" s="85"/>
-      <c r="AU5" s="85"/>
-      <c r="AV5" s="85"/>
-      <c r="AW5" s="85"/>
-      <c r="AX5" s="85"/>
-      <c r="AY5" s="86"/>
-      <c r="AZ5" s="87" t="s">
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="36"/>
+      <c r="AI5" s="36"/>
+      <c r="AJ5" s="36"/>
+      <c r="AK5" s="36"/>
+      <c r="AL5" s="36"/>
+      <c r="AM5" s="36"/>
+      <c r="AN5" s="36"/>
+      <c r="AO5" s="36"/>
+      <c r="AP5" s="36"/>
+      <c r="AQ5" s="36"/>
+      <c r="AR5" s="36"/>
+      <c r="AS5" s="36"/>
+      <c r="AT5" s="36"/>
+      <c r="AU5" s="36"/>
+      <c r="AV5" s="36"/>
+      <c r="AW5" s="36"/>
+      <c r="AX5" s="36"/>
+      <c r="AY5" s="37"/>
+      <c r="AZ5" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:52" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="82"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="96"/>
-      <c r="S6" s="4">
+      <c r="B6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="2">
         <v>29</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="2">
         <v>30</v>
       </c>
-      <c r="U6" s="5">
+      <c r="U6" s="3">
         <v>1</v>
       </c>
-      <c r="V6" s="6">
+      <c r="V6" s="72">
         <v>2</v>
       </c>
-      <c r="W6" s="5">
+      <c r="W6" s="3">
         <v>3</v>
       </c>
-      <c r="X6" s="4">
+      <c r="X6" s="2">
         <v>4</v>
       </c>
-      <c r="Y6" s="4">
+      <c r="Y6" s="2">
         <v>5</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="Z6" s="2">
         <v>6</v>
       </c>
-      <c r="AA6" s="4">
+      <c r="AA6" s="2">
         <v>7</v>
       </c>
-      <c r="AB6" s="5">
+      <c r="AB6" s="3">
         <v>8</v>
       </c>
-      <c r="AC6" s="6">
+      <c r="AC6" s="72">
         <v>9</v>
       </c>
-      <c r="AD6" s="5">
+      <c r="AD6" s="3">
         <v>10</v>
       </c>
-      <c r="AE6" s="4">
+      <c r="AE6" s="2">
         <v>11</v>
       </c>
-      <c r="AF6" s="4">
+      <c r="AF6" s="2">
         <v>12</v>
       </c>
-      <c r="AG6" s="4">
+      <c r="AG6" s="2">
         <v>13</v>
       </c>
-      <c r="AH6" s="4">
+      <c r="AH6" s="2">
         <v>14</v>
       </c>
-      <c r="AI6" s="5">
+      <c r="AI6" s="3">
         <v>15</v>
       </c>
-      <c r="AJ6" s="6">
+      <c r="AJ6" s="72">
         <v>16</v>
       </c>
-      <c r="AK6" s="4">
+      <c r="AK6" s="2">
         <v>17</v>
       </c>
-      <c r="AL6" s="4">
+      <c r="AL6" s="2">
         <v>18</v>
       </c>
-      <c r="AM6" s="4">
+      <c r="AM6" s="2">
         <v>19</v>
       </c>
-      <c r="AN6" s="4">
+      <c r="AN6" s="2">
         <v>20</v>
       </c>
-      <c r="AO6" s="4">
+      <c r="AO6" s="2">
         <v>21</v>
       </c>
-      <c r="AP6" s="5">
+      <c r="AP6" s="3">
         <v>22</v>
       </c>
-      <c r="AQ6" s="6">
+      <c r="AQ6" s="72">
         <v>23</v>
       </c>
-      <c r="AR6" s="4">
+      <c r="AR6" s="2">
         <v>24</v>
       </c>
-      <c r="AS6" s="4">
+      <c r="AS6" s="2">
         <v>25</v>
       </c>
-      <c r="AT6" s="4">
+      <c r="AT6" s="2">
         <v>26</v>
       </c>
-      <c r="AU6" s="4">
+      <c r="AU6" s="2">
         <v>27</v>
       </c>
-      <c r="AV6" s="4">
+      <c r="AV6" s="2">
         <v>28</v>
       </c>
-      <c r="AW6" s="5">
+      <c r="AW6" s="3">
         <v>29</v>
       </c>
-      <c r="AX6" s="6">
+      <c r="AX6" s="72">
         <v>30</v>
       </c>
-      <c r="AY6" s="4">
+      <c r="AY6" s="2">
         <v>31</v>
       </c>
-      <c r="AZ6" s="88"/>
+      <c r="AZ6" s="82"/>
     </row>
     <row r="7" spans="2:52" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="98" t="s">
+      <c r="C7" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="46"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="30"/>
-      <c r="AC7" s="45"/>
-      <c r="AD7" s="46"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="29"/>
-      <c r="AG7" s="29"/>
-      <c r="AH7" s="29"/>
-      <c r="AI7" s="30"/>
-      <c r="AJ7" s="45"/>
-      <c r="AK7" s="29"/>
-      <c r="AL7" s="29"/>
-      <c r="AM7" s="29"/>
-      <c r="AN7" s="29"/>
-      <c r="AO7" s="29"/>
-      <c r="AP7" s="30"/>
-      <c r="AQ7" s="45"/>
-      <c r="AR7" s="29"/>
-      <c r="AS7" s="29"/>
-      <c r="AT7" s="29"/>
-      <c r="AU7" s="29"/>
-      <c r="AV7" s="29"/>
-      <c r="AW7" s="30"/>
-      <c r="AX7" s="3"/>
-      <c r="AY7" s="2"/>
-      <c r="AZ7" s="54"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="115"/>
+      <c r="V7" s="122"/>
+      <c r="W7" s="75"/>
+      <c r="X7" s="74"/>
+      <c r="Y7" s="74"/>
+      <c r="Z7" s="74"/>
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="115"/>
+      <c r="AC7" s="122"/>
+      <c r="AD7" s="75"/>
+      <c r="AE7" s="74"/>
+      <c r="AF7" s="74"/>
+      <c r="AG7" s="74"/>
+      <c r="AH7" s="74"/>
+      <c r="AI7" s="115"/>
+      <c r="AJ7" s="122"/>
+      <c r="AK7" s="74"/>
+      <c r="AL7" s="74"/>
+      <c r="AM7" s="74"/>
+      <c r="AN7" s="74"/>
+      <c r="AO7" s="74"/>
+      <c r="AP7" s="115"/>
+      <c r="AQ7" s="122"/>
+      <c r="AR7" s="74"/>
+      <c r="AS7" s="74"/>
+      <c r="AT7" s="74"/>
+      <c r="AU7" s="74"/>
+      <c r="AV7" s="74"/>
+      <c r="AW7" s="115"/>
+      <c r="AX7" s="75"/>
+      <c r="AY7" s="76"/>
+      <c r="AZ7" s="83"/>
     </row>
     <row r="8" spans="2:52" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="97" t="s">
+      <c r="D8" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="65" t="s">
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="65">
+      <c r="O8" s="13">
         <v>9.2899999999999991</v>
       </c>
-      <c r="P8" s="70">
+      <c r="P8" s="18">
         <v>9.2899999999999991</v>
       </c>
-      <c r="Q8" s="74">
+      <c r="Q8" s="22">
         <v>1</v>
       </c>
-      <c r="R8" s="22">
+      <c r="R8" s="69">
         <v>2</v>
       </c>
-      <c r="S8" s="31"/>
+      <c r="S8" s="77"/>
       <c r="T8" s="2"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="47"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="123"/>
       <c r="W8" s="3"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
-      <c r="AB8" s="32"/>
-      <c r="AC8" s="47"/>
+      <c r="AB8" s="116"/>
+      <c r="AC8" s="123"/>
       <c r="AD8" s="3"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
-      <c r="AI8" s="32"/>
-      <c r="AJ8" s="47"/>
+      <c r="AI8" s="116"/>
+      <c r="AJ8" s="123"/>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
-      <c r="AP8" s="32"/>
-      <c r="AQ8" s="47"/>
+      <c r="AP8" s="116"/>
+      <c r="AQ8" s="123"/>
       <c r="AR8" s="2"/>
       <c r="AS8" s="2"/>
       <c r="AT8" s="2"/>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
-      <c r="AW8" s="32"/>
+      <c r="AW8" s="116"/>
       <c r="AX8" s="3"/>
-      <c r="AY8" s="2"/>
-      <c r="AZ8" s="55"/>
+      <c r="AY8" s="78"/>
+      <c r="AZ8" s="84"/>
     </row>
     <row r="9" spans="2:52" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="97" t="s">
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="97"/>
-      <c r="N9" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" s="66">
+      <c r="O9" s="14">
         <v>9.2899999999999991</v>
       </c>
-      <c r="P9" s="71">
+      <c r="P9" s="19">
         <v>9.2899999999999991</v>
       </c>
-      <c r="Q9" s="75">
+      <c r="Q9" s="23">
         <v>1</v>
       </c>
-      <c r="R9" s="23">
+      <c r="R9" s="70">
         <v>2</v>
       </c>
-      <c r="S9" s="33"/>
+      <c r="S9" s="79"/>
       <c r="T9" s="2"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="47"/>
+      <c r="U9" s="116"/>
+      <c r="V9" s="123"/>
       <c r="W9" s="3"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
-      <c r="AB9" s="32"/>
-      <c r="AC9" s="47"/>
+      <c r="AB9" s="116"/>
+      <c r="AC9" s="123"/>
       <c r="AD9" s="3"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
-      <c r="AI9" s="32"/>
-      <c r="AJ9" s="47"/>
+      <c r="AI9" s="116"/>
+      <c r="AJ9" s="123"/>
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" s="2"/>
       <c r="AO9" s="2"/>
-      <c r="AP9" s="32"/>
-      <c r="AQ9" s="47"/>
+      <c r="AP9" s="116"/>
+      <c r="AQ9" s="123"/>
       <c r="AR9" s="2"/>
       <c r="AS9" s="2"/>
       <c r="AT9" s="2"/>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2"/>
-      <c r="AW9" s="32"/>
+      <c r="AW9" s="116"/>
       <c r="AX9" s="3"/>
-      <c r="AY9" s="2"/>
-      <c r="AZ9" s="55"/>
+      <c r="AY9" s="78"/>
+      <c r="AZ9" s="84"/>
     </row>
     <row r="10" spans="2:52" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="14" t="s">
+      <c r="B10" s="86" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="102" t="s">
+      <c r="D10" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="66" t="s">
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="O10" s="66">
+      <c r="O10" s="14">
         <v>10.039999999999999</v>
       </c>
-      <c r="P10" s="71">
+      <c r="P10" s="19">
         <v>10.06</v>
       </c>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="23">
+      <c r="Q10" s="23">
         <v>1</v>
       </c>
-      <c r="S10" s="34"/>
+      <c r="R10" s="70">
+        <v>1</v>
+      </c>
+      <c r="S10" s="80"/>
       <c r="T10" s="2"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="47"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="123"/>
       <c r="W10" s="3"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
       <c r="AA10" s="2"/>
-      <c r="AB10" s="32"/>
-      <c r="AC10" s="47"/>
+      <c r="AB10" s="116"/>
+      <c r="AC10" s="123"/>
       <c r="AD10" s="3"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
-      <c r="AI10" s="32"/>
-      <c r="AJ10" s="47"/>
+      <c r="AI10" s="116"/>
+      <c r="AJ10" s="123"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" s="2"/>
       <c r="AO10" s="2"/>
-      <c r="AP10" s="32"/>
-      <c r="AQ10" s="47"/>
+      <c r="AP10" s="116"/>
+      <c r="AQ10" s="123"/>
       <c r="AR10" s="2"/>
       <c r="AS10" s="2"/>
       <c r="AT10" s="2"/>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
-      <c r="AW10" s="32"/>
+      <c r="AW10" s="116"/>
       <c r="AX10" s="3"/>
-      <c r="AY10" s="57"/>
-      <c r="AZ10" s="55"/>
+      <c r="AY10" s="78"/>
+      <c r="AZ10" s="84"/>
     </row>
     <row r="11" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="100" t="s">
+      <c r="C11" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="36"/>
-      <c r="AB11" s="37"/>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="36"/>
-      <c r="AE11" s="36"/>
-      <c r="AF11" s="36"/>
-      <c r="AG11" s="36"/>
-      <c r="AH11" s="36"/>
-      <c r="AI11" s="37"/>
-      <c r="AJ11" s="48"/>
-      <c r="AK11" s="36"/>
-      <c r="AL11" s="36"/>
-      <c r="AM11" s="36"/>
-      <c r="AN11" s="36"/>
-      <c r="AO11" s="36"/>
-      <c r="AP11" s="37"/>
-      <c r="AQ11" s="48"/>
-      <c r="AR11" s="36"/>
-      <c r="AS11" s="36"/>
-      <c r="AT11" s="36"/>
-      <c r="AU11" s="36"/>
-      <c r="AV11" s="36"/>
-      <c r="AW11" s="37"/>
-      <c r="AX11" s="48"/>
-      <c r="AY11" s="56"/>
-      <c r="AZ11" s="52"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="117"/>
+      <c r="V11" s="124"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="117"/>
+      <c r="AC11" s="124"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="117"/>
+      <c r="AJ11" s="124"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="7"/>
+      <c r="AP11" s="117"/>
+      <c r="AQ11" s="124"/>
+      <c r="AR11" s="7"/>
+      <c r="AS11" s="7"/>
+      <c r="AT11" s="7"/>
+      <c r="AU11" s="7"/>
+      <c r="AV11" s="7"/>
+      <c r="AW11" s="117"/>
+      <c r="AX11" s="7"/>
+      <c r="AY11" s="53"/>
+      <c r="AZ11" s="60"/>
     </row>
     <row r="12" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="103" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="103"/>
-      <c r="M12" s="103"/>
-      <c r="N12" s="68" t="s">
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="101"/>
+      <c r="N12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="O12" s="68">
+      <c r="O12" s="16">
         <v>9.2899999999999991</v>
       </c>
-      <c r="P12" s="72">
+      <c r="P12" s="20">
         <v>9.2899999999999991</v>
       </c>
-      <c r="Q12" s="76">
+      <c r="Q12" s="24">
         <v>1</v>
       </c>
-      <c r="R12" s="24">
+      <c r="R12" s="71">
         <v>1</v>
       </c>
-      <c r="S12" s="38"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="48"/>
-      <c r="AD12" s="36"/>
-      <c r="AE12" s="36"/>
-      <c r="AF12" s="36"/>
-      <c r="AG12" s="36"/>
-      <c r="AH12" s="36"/>
-      <c r="AI12" s="37"/>
-      <c r="AJ12" s="48"/>
-      <c r="AK12" s="36"/>
-      <c r="AL12" s="36"/>
-      <c r="AM12" s="36"/>
-      <c r="AN12" s="36"/>
-      <c r="AO12" s="36"/>
-      <c r="AP12" s="37"/>
-      <c r="AQ12" s="48"/>
-      <c r="AR12" s="36"/>
-      <c r="AS12" s="36"/>
-      <c r="AT12" s="36"/>
-      <c r="AU12" s="36"/>
-      <c r="AV12" s="36"/>
-      <c r="AW12" s="37"/>
-      <c r="AX12" s="36"/>
-      <c r="AY12" s="56"/>
-      <c r="AZ12" s="52"/>
+      <c r="S12" s="81"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="118"/>
+      <c r="V12" s="125"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="117"/>
+      <c r="AC12" s="124"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="117"/>
+      <c r="AJ12" s="124"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
+      <c r="AP12" s="117"/>
+      <c r="AQ12" s="124"/>
+      <c r="AR12" s="7"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="7"/>
+      <c r="AU12" s="7"/>
+      <c r="AV12" s="7"/>
+      <c r="AW12" s="117"/>
+      <c r="AX12" s="7"/>
+      <c r="AY12" s="53"/>
+      <c r="AZ12" s="60"/>
     </row>
     <row r="13" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="91" t="s">
+      <c r="D13" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="O13" s="69">
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13" s="17">
         <v>10.039999999999999</v>
       </c>
-      <c r="P13" s="73">
+      <c r="P13" s="21">
         <v>10.039999999999999</v>
       </c>
-      <c r="Q13" s="77">
+      <c r="Q13" s="25">
         <v>1</v>
       </c>
-      <c r="R13" s="25">
+      <c r="R13" s="46">
         <v>1</v>
       </c>
-      <c r="S13" s="41"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="36"/>
-      <c r="Z13" s="36"/>
-      <c r="AA13" s="36"/>
-      <c r="AB13" s="37"/>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="36"/>
-      <c r="AE13" s="36"/>
-      <c r="AF13" s="36"/>
-      <c r="AG13" s="36"/>
-      <c r="AH13" s="36"/>
-      <c r="AI13" s="37"/>
-      <c r="AJ13" s="48"/>
-      <c r="AK13" s="36"/>
-      <c r="AL13" s="36"/>
-      <c r="AM13" s="36"/>
-      <c r="AN13" s="36"/>
-      <c r="AO13" s="36"/>
-      <c r="AP13" s="37"/>
-      <c r="AQ13" s="48"/>
-      <c r="AR13" s="36"/>
-      <c r="AS13" s="36"/>
-      <c r="AT13" s="36"/>
-      <c r="AU13" s="36"/>
-      <c r="AV13" s="36"/>
-      <c r="AW13" s="37"/>
-      <c r="AX13" s="36"/>
-      <c r="AY13" s="56"/>
-      <c r="AZ13" s="52"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="117"/>
+      <c r="V13" s="124"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="117"/>
+      <c r="AC13" s="124"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="117"/>
+      <c r="AJ13" s="124"/>
+      <c r="AK13" s="7"/>
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7"/>
+      <c r="AO13" s="7"/>
+      <c r="AP13" s="117"/>
+      <c r="AQ13" s="124"/>
+      <c r="AR13" s="7"/>
+      <c r="AS13" s="7"/>
+      <c r="AT13" s="7"/>
+      <c r="AU13" s="7"/>
+      <c r="AV13" s="7"/>
+      <c r="AW13" s="117"/>
+      <c r="AX13" s="7"/>
+      <c r="AY13" s="53"/>
+      <c r="AZ13" s="60"/>
     </row>
     <row r="14" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B14" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="16" t="s">
+      <c r="B14" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="91" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="69" t="s">
-        <v>40</v>
-      </c>
-      <c r="O14" s="69">
+      <c r="D14" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="17">
         <v>10.039999999999999</v>
       </c>
-      <c r="P14" s="73">
+      <c r="P14" s="21">
         <v>10.050000000000001</v>
       </c>
-      <c r="Q14" s="77">
+      <c r="Q14" s="25">
         <v>1</v>
       </c>
-      <c r="R14" s="25">
+      <c r="R14" s="46">
         <v>2</v>
       </c>
-      <c r="S14" s="35"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="36"/>
-      <c r="AA14" s="36"/>
-      <c r="AB14" s="37"/>
-      <c r="AC14" s="48"/>
-      <c r="AD14" s="36"/>
-      <c r="AE14" s="36"/>
-      <c r="AF14" s="36"/>
-      <c r="AG14" s="36"/>
-      <c r="AH14" s="36"/>
-      <c r="AI14" s="37"/>
-      <c r="AJ14" s="48"/>
-      <c r="AK14" s="36"/>
-      <c r="AL14" s="36"/>
-      <c r="AM14" s="36"/>
-      <c r="AN14" s="36"/>
-      <c r="AO14" s="36"/>
-      <c r="AP14" s="37"/>
-      <c r="AQ14" s="48"/>
-      <c r="AR14" s="36"/>
-      <c r="AS14" s="36"/>
-      <c r="AT14" s="36"/>
-      <c r="AU14" s="36"/>
-      <c r="AV14" s="36"/>
-      <c r="AW14" s="37"/>
-      <c r="AX14" s="36"/>
-      <c r="AY14" s="56"/>
-      <c r="AZ14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="117"/>
+      <c r="V14" s="124"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="117"/>
+      <c r="AC14" s="124"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="117"/>
+      <c r="AJ14" s="124"/>
+      <c r="AK14" s="7"/>
+      <c r="AL14" s="7"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="7"/>
+      <c r="AO14" s="7"/>
+      <c r="AP14" s="117"/>
+      <c r="AQ14" s="124"/>
+      <c r="AR14" s="7"/>
+      <c r="AS14" s="7"/>
+      <c r="AT14" s="7"/>
+      <c r="AU14" s="7"/>
+      <c r="AV14" s="7"/>
+      <c r="AW14" s="117"/>
+      <c r="AX14" s="7"/>
+      <c r="AY14" s="53"/>
+      <c r="AZ14" s="60"/>
     </row>
     <row r="15" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B15" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="16" t="s">
+      <c r="B15" s="88" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="91" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="O15" s="69">
+      <c r="D15" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" s="17">
         <v>10.050000000000001</v>
       </c>
-      <c r="P15" s="73">
+      <c r="P15" s="21">
         <v>10.06</v>
       </c>
-      <c r="Q15" s="77">
+      <c r="Q15" s="25">
         <v>1</v>
       </c>
-      <c r="R15" s="25">
+      <c r="R15" s="46">
         <v>1</v>
       </c>
-      <c r="S15" s="35"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="36"/>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="39"/>
-      <c r="AA15" s="60"/>
-      <c r="AB15" s="37"/>
-      <c r="AC15" s="48"/>
-      <c r="AD15" s="36"/>
-      <c r="AE15" s="36"/>
-      <c r="AF15" s="36"/>
-      <c r="AG15" s="36"/>
-      <c r="AH15" s="36"/>
-      <c r="AI15" s="37"/>
-      <c r="AJ15" s="48"/>
-      <c r="AK15" s="36"/>
-      <c r="AL15" s="36"/>
-      <c r="AM15" s="36"/>
-      <c r="AN15" s="36"/>
-      <c r="AO15" s="36"/>
-      <c r="AP15" s="37"/>
-      <c r="AQ15" s="48"/>
-      <c r="AR15" s="36"/>
-      <c r="AS15" s="36"/>
-      <c r="AT15" s="36"/>
-      <c r="AU15" s="36"/>
-      <c r="AV15" s="36"/>
-      <c r="AW15" s="37"/>
-      <c r="AX15" s="36"/>
-      <c r="AY15" s="56"/>
-      <c r="AZ15" s="52"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="117"/>
+      <c r="V15" s="124"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="117"/>
+      <c r="AC15" s="124"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="117"/>
+      <c r="AJ15" s="124"/>
+      <c r="AK15" s="7"/>
+      <c r="AL15" s="7"/>
+      <c r="AM15" s="7"/>
+      <c r="AN15" s="7"/>
+      <c r="AO15" s="7"/>
+      <c r="AP15" s="117"/>
+      <c r="AQ15" s="124"/>
+      <c r="AR15" s="7"/>
+      <c r="AS15" s="7"/>
+      <c r="AT15" s="7"/>
+      <c r="AU15" s="7"/>
+      <c r="AV15" s="7"/>
+      <c r="AW15" s="117"/>
+      <c r="AX15" s="7"/>
+      <c r="AY15" s="53"/>
+      <c r="AZ15" s="60"/>
     </row>
     <row r="16" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B16" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="13" t="s">
+      <c r="B16" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="91" t="s">
+      <c r="D16" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="91"/>
-      <c r="N16" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="O16" s="69">
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="O16" s="17">
         <v>10.050000000000001</v>
       </c>
-      <c r="P16" s="73">
+      <c r="P16" s="21">
         <v>10.06</v>
       </c>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="25">
+      <c r="Q16" s="25">
+        <v>1</v>
+      </c>
+      <c r="R16" s="46">
         <v>2</v>
       </c>
-      <c r="S16" s="35"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="50"/>
-      <c r="Z16" s="50"/>
-      <c r="AA16" s="36"/>
-      <c r="AB16" s="37"/>
-      <c r="AC16" s="48"/>
-      <c r="AD16" s="36"/>
-      <c r="AE16" s="36"/>
-      <c r="AF16" s="36"/>
-      <c r="AG16" s="36"/>
-      <c r="AH16" s="36"/>
-      <c r="AI16" s="37"/>
-      <c r="AJ16" s="48"/>
-      <c r="AK16" s="36"/>
-      <c r="AL16" s="36"/>
-      <c r="AM16" s="36"/>
-      <c r="AN16" s="36"/>
-      <c r="AO16" s="36"/>
-      <c r="AP16" s="37"/>
-      <c r="AQ16" s="48"/>
-      <c r="AR16" s="36"/>
-      <c r="AS16" s="36"/>
-      <c r="AT16" s="36"/>
-      <c r="AU16" s="36"/>
-      <c r="AV16" s="36"/>
-      <c r="AW16" s="37"/>
-      <c r="AX16" s="36"/>
-      <c r="AY16" s="56"/>
-      <c r="AZ16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="117"/>
+      <c r="V16" s="124"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="117"/>
+      <c r="AC16" s="124"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="117"/>
+      <c r="AJ16" s="124"/>
+      <c r="AK16" s="7"/>
+      <c r="AL16" s="7"/>
+      <c r="AM16" s="7"/>
+      <c r="AN16" s="7"/>
+      <c r="AO16" s="7"/>
+      <c r="AP16" s="117"/>
+      <c r="AQ16" s="124"/>
+      <c r="AR16" s="7"/>
+      <c r="AS16" s="7"/>
+      <c r="AT16" s="7"/>
+      <c r="AU16" s="7"/>
+      <c r="AV16" s="7"/>
+      <c r="AW16" s="117"/>
+      <c r="AX16" s="7"/>
+      <c r="AY16" s="53"/>
+      <c r="AZ16" s="60"/>
     </row>
     <row r="17" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="102" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="91" t="s">
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="69" t="s">
-        <v>45</v>
-      </c>
-      <c r="O17" s="69">
+      <c r="O17" s="17">
         <v>10.039999999999999</v>
       </c>
-      <c r="P17" s="73">
+      <c r="P17" s="21">
         <v>10.050000000000001</v>
       </c>
-      <c r="Q17" s="77">
+      <c r="Q17" s="25">
         <v>1</v>
       </c>
-      <c r="R17" s="25">
+      <c r="R17" s="46">
         <v>2</v>
       </c>
-      <c r="S17" s="35"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="36"/>
-      <c r="AA17" s="36"/>
-      <c r="AB17" s="37"/>
-      <c r="AC17" s="48"/>
-      <c r="AD17" s="36"/>
-      <c r="AE17" s="36"/>
-      <c r="AF17" s="36"/>
-      <c r="AG17" s="36"/>
-      <c r="AH17" s="36"/>
-      <c r="AI17" s="37"/>
-      <c r="AJ17" s="48"/>
-      <c r="AK17" s="36"/>
-      <c r="AL17" s="36"/>
-      <c r="AM17" s="36"/>
-      <c r="AN17" s="36"/>
-      <c r="AO17" s="36"/>
-      <c r="AP17" s="37"/>
-      <c r="AQ17" s="48"/>
-      <c r="AR17" s="36"/>
-      <c r="AS17" s="36"/>
-      <c r="AT17" s="36"/>
-      <c r="AU17" s="36"/>
-      <c r="AV17" s="36"/>
-      <c r="AW17" s="37"/>
-      <c r="AX17" s="36"/>
-      <c r="AY17" s="56"/>
-      <c r="AZ17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="117"/>
+      <c r="V17" s="124"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="117"/>
+      <c r="AC17" s="124"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="117"/>
+      <c r="AJ17" s="124"/>
+      <c r="AK17" s="7"/>
+      <c r="AL17" s="7"/>
+      <c r="AM17" s="7"/>
+      <c r="AN17" s="7"/>
+      <c r="AO17" s="7"/>
+      <c r="AP17" s="117"/>
+      <c r="AQ17" s="124"/>
+      <c r="AR17" s="7"/>
+      <c r="AS17" s="7"/>
+      <c r="AT17" s="7"/>
+      <c r="AU17" s="7"/>
+      <c r="AV17" s="7"/>
+      <c r="AW17" s="117"/>
+      <c r="AX17" s="7"/>
+      <c r="AY17" s="53"/>
+      <c r="AZ17" s="60"/>
     </row>
     <row r="18" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="102" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="D18" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="91" t="s">
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="O18" s="17">
+        <v>10.06</v>
+      </c>
+      <c r="P18" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="104"/>
-      <c r="N18" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="O18" s="69">
-        <v>10.06</v>
-      </c>
-      <c r="P18" s="73" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="25">
+      <c r="Q18" s="25">
         <v>1</v>
       </c>
-      <c r="S18" s="35"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="60"/>
-      <c r="Y18" s="105"/>
-      <c r="Z18" s="105"/>
-      <c r="AA18" s="36"/>
-      <c r="AB18" s="37"/>
-      <c r="AC18" s="48"/>
-      <c r="AD18" s="36"/>
-      <c r="AE18" s="36"/>
-      <c r="AF18" s="36"/>
-      <c r="AG18" s="36"/>
-      <c r="AH18" s="36"/>
-      <c r="AI18" s="37"/>
-      <c r="AJ18" s="48"/>
-      <c r="AK18" s="36"/>
-      <c r="AL18" s="36"/>
-      <c r="AM18" s="36"/>
-      <c r="AN18" s="36"/>
-      <c r="AO18" s="36"/>
-      <c r="AP18" s="37"/>
-      <c r="AQ18" s="48"/>
-      <c r="AR18" s="36"/>
-      <c r="AS18" s="36"/>
-      <c r="AT18" s="36"/>
-      <c r="AU18" s="36"/>
-      <c r="AV18" s="36"/>
-      <c r="AW18" s="37"/>
-      <c r="AX18" s="36"/>
-      <c r="AY18" s="56"/>
-      <c r="AZ18" s="52"/>
+      <c r="R18" s="46">
+        <v>1</v>
+      </c>
+      <c r="S18" s="52"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="117"/>
+      <c r="V18" s="124"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="117"/>
+      <c r="AC18" s="124"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="7"/>
+      <c r="AI18" s="117"/>
+      <c r="AJ18" s="124"/>
+      <c r="AK18" s="7"/>
+      <c r="AL18" s="7"/>
+      <c r="AM18" s="7"/>
+      <c r="AN18" s="7"/>
+      <c r="AO18" s="7"/>
+      <c r="AP18" s="117"/>
+      <c r="AQ18" s="124"/>
+      <c r="AR18" s="7"/>
+      <c r="AS18" s="7"/>
+      <c r="AT18" s="7"/>
+      <c r="AU18" s="7"/>
+      <c r="AV18" s="7"/>
+      <c r="AW18" s="117"/>
+      <c r="AX18" s="7"/>
+      <c r="AY18" s="53"/>
+      <c r="AZ18" s="60"/>
     </row>
     <row r="19" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="100" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="63"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="36"/>
-      <c r="Y19" s="36"/>
-      <c r="Z19" s="36"/>
-      <c r="AA19" s="36"/>
-      <c r="AB19" s="37"/>
-      <c r="AC19" s="48"/>
-      <c r="AD19" s="36"/>
-      <c r="AE19" s="36"/>
-      <c r="AF19" s="36"/>
-      <c r="AG19" s="36"/>
-      <c r="AH19" s="36"/>
-      <c r="AI19" s="37"/>
-      <c r="AJ19" s="48"/>
-      <c r="AK19" s="36"/>
-      <c r="AL19" s="36"/>
-      <c r="AM19" s="36"/>
-      <c r="AN19" s="36"/>
-      <c r="AO19" s="36"/>
-      <c r="AP19" s="37"/>
-      <c r="AQ19" s="48"/>
-      <c r="AR19" s="36"/>
-      <c r="AS19" s="36"/>
-      <c r="AT19" s="36"/>
-      <c r="AU19" s="36"/>
-      <c r="AV19" s="36"/>
-      <c r="AW19" s="37"/>
-      <c r="AX19" s="48"/>
-      <c r="AY19" s="56"/>
-      <c r="AZ19" s="52"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="117"/>
+      <c r="V19" s="124"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="117"/>
+      <c r="AC19" s="124"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="117"/>
+      <c r="AJ19" s="124"/>
+      <c r="AK19" s="7"/>
+      <c r="AL19" s="7"/>
+      <c r="AM19" s="7"/>
+      <c r="AN19" s="7"/>
+      <c r="AO19" s="7"/>
+      <c r="AP19" s="117"/>
+      <c r="AQ19" s="124"/>
+      <c r="AR19" s="7"/>
+      <c r="AS19" s="7"/>
+      <c r="AT19" s="7"/>
+      <c r="AU19" s="7"/>
+      <c r="AV19" s="7"/>
+      <c r="AW19" s="117"/>
+      <c r="AX19" s="7"/>
+      <c r="AY19" s="53"/>
+      <c r="AZ19" s="60"/>
     </row>
     <row r="20" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="104" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="O20" s="17">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="P20" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="91" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="91"/>
-      <c r="N20" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="O20" s="69">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="P20" s="73" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="25">
+      <c r="Q20" s="25">
         <v>1</v>
       </c>
-      <c r="S20" s="42"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="51"/>
-      <c r="W20" s="43"/>
-      <c r="X20" s="43"/>
-      <c r="Y20" s="43"/>
-      <c r="Z20" s="43"/>
-      <c r="AA20" s="36"/>
-      <c r="AB20" s="37"/>
-      <c r="AC20" s="48"/>
-      <c r="AD20" s="36"/>
-      <c r="AE20" s="36"/>
-      <c r="AF20" s="36"/>
-      <c r="AG20" s="36"/>
-      <c r="AH20" s="36"/>
-      <c r="AI20" s="37"/>
-      <c r="AJ20" s="48"/>
-      <c r="AK20" s="36"/>
-      <c r="AL20" s="36"/>
-      <c r="AM20" s="36"/>
-      <c r="AN20" s="36"/>
-      <c r="AO20" s="36"/>
-      <c r="AP20" s="37"/>
-      <c r="AQ20" s="48"/>
-      <c r="AR20" s="36"/>
-      <c r="AS20" s="36"/>
-      <c r="AT20" s="36"/>
-      <c r="AU20" s="36"/>
-      <c r="AV20" s="36"/>
-      <c r="AW20" s="37"/>
-      <c r="AZ20" s="52"/>
+      <c r="R20" s="46">
+        <v>1</v>
+      </c>
+      <c r="S20" s="54"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="119"/>
+      <c r="V20" s="126"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="117"/>
+      <c r="AC20" s="124"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="117"/>
+      <c r="AJ20" s="124"/>
+      <c r="AK20" s="7"/>
+      <c r="AL20" s="7"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="7"/>
+      <c r="AO20" s="7"/>
+      <c r="AP20" s="117"/>
+      <c r="AQ20" s="124"/>
+      <c r="AR20" s="7"/>
+      <c r="AS20" s="7"/>
+      <c r="AT20" s="7"/>
+      <c r="AU20" s="7"/>
+      <c r="AV20" s="7"/>
+      <c r="AW20" s="117"/>
+      <c r="AX20" s="7"/>
+      <c r="AY20" s="53"/>
+      <c r="AZ20" s="60"/>
     </row>
     <row r="21" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="104" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="91" t="s">
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="O21" s="17">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="P21" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
-      <c r="N21" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="O21" s="69">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="P21" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="25">
+      <c r="Q21" s="25">
+        <v>1</v>
+      </c>
+      <c r="R21" s="46">
         <v>2</v>
       </c>
-      <c r="S21" s="35"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="43"/>
-      <c r="Y21" s="43"/>
-      <c r="Z21" s="60"/>
-      <c r="AA21" s="60"/>
-      <c r="AB21" s="37"/>
-      <c r="AC21" s="48"/>
-      <c r="AD21" s="36"/>
-      <c r="AE21" s="36"/>
-      <c r="AF21" s="36"/>
-      <c r="AG21" s="36"/>
-      <c r="AH21" s="36"/>
-      <c r="AI21" s="37"/>
-      <c r="AJ21" s="48"/>
-      <c r="AK21" s="36"/>
-      <c r="AL21" s="36"/>
-      <c r="AM21" s="36"/>
-      <c r="AN21" s="36"/>
-      <c r="AO21" s="36"/>
-      <c r="AP21" s="37"/>
-      <c r="AQ21" s="48"/>
-      <c r="AR21" s="36"/>
-      <c r="AS21" s="36"/>
-      <c r="AT21" s="36"/>
-      <c r="AU21" s="36"/>
-      <c r="AV21" s="36"/>
-      <c r="AW21" s="37"/>
-      <c r="AZ21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="117"/>
+      <c r="V21" s="124"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="117"/>
+      <c r="AC21" s="124"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="117"/>
+      <c r="AJ21" s="124"/>
+      <c r="AK21" s="7"/>
+      <c r="AL21" s="7"/>
+      <c r="AM21" s="7"/>
+      <c r="AN21" s="7"/>
+      <c r="AO21" s="7"/>
+      <c r="AP21" s="117"/>
+      <c r="AQ21" s="124"/>
+      <c r="AR21" s="7"/>
+      <c r="AS21" s="7"/>
+      <c r="AT21" s="7"/>
+      <c r="AU21" s="7"/>
+      <c r="AV21" s="7"/>
+      <c r="AW21" s="117"/>
+      <c r="AX21" s="7"/>
+      <c r="AY21" s="53"/>
+      <c r="AZ21" s="60"/>
     </row>
     <row r="22" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="91" t="s">
+      <c r="D22" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="O22" s="17">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="P22" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="91"/>
-      <c r="N22" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="O22" s="69">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="P22" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q22" s="77">
+      <c r="Q22" s="25">
         <v>1</v>
       </c>
-      <c r="R22" s="25">
+      <c r="R22" s="46">
         <v>2</v>
       </c>
-      <c r="S22" s="35"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="43"/>
-      <c r="Y22" s="36"/>
-      <c r="Z22" s="36"/>
-      <c r="AA22" s="36"/>
-      <c r="AB22" s="37"/>
-      <c r="AC22" s="48"/>
-      <c r="AD22" s="36"/>
-      <c r="AE22" s="36"/>
-      <c r="AF22" s="36"/>
-      <c r="AG22" s="36"/>
-      <c r="AH22" s="36"/>
-      <c r="AI22" s="37"/>
-      <c r="AJ22" s="48"/>
-      <c r="AK22" s="36"/>
-      <c r="AL22" s="36"/>
-      <c r="AM22" s="36"/>
-      <c r="AN22" s="36"/>
-      <c r="AO22" s="36"/>
-      <c r="AP22" s="37"/>
-      <c r="AQ22" s="48"/>
-      <c r="AR22" s="36"/>
-      <c r="AS22" s="36"/>
-      <c r="AT22" s="36"/>
-      <c r="AU22" s="36"/>
-      <c r="AV22" s="36"/>
-      <c r="AW22" s="37"/>
-      <c r="AZ22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="117"/>
+      <c r="V22" s="124"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="117"/>
+      <c r="AC22" s="124"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="117"/>
+      <c r="AJ22" s="124"/>
+      <c r="AK22" s="7"/>
+      <c r="AL22" s="7"/>
+      <c r="AM22" s="7"/>
+      <c r="AN22" s="7"/>
+      <c r="AO22" s="7"/>
+      <c r="AP22" s="117"/>
+      <c r="AQ22" s="124"/>
+      <c r="AR22" s="7"/>
+      <c r="AS22" s="7"/>
+      <c r="AT22" s="7"/>
+      <c r="AU22" s="7"/>
+      <c r="AV22" s="7"/>
+      <c r="AW22" s="117"/>
+      <c r="AX22" s="7"/>
+      <c r="AY22" s="53"/>
+      <c r="AZ22" s="60"/>
     </row>
     <row r="23" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B23" s="21"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="AZ23" s="36"/>
+      <c r="B23" s="87" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="98" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="108"/>
+      <c r="O23" s="108"/>
+      <c r="P23" s="112"/>
+      <c r="Q23" s="108"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="117"/>
+      <c r="V23" s="124"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="117"/>
+      <c r="AC23" s="124"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7"/>
+      <c r="AI23" s="117"/>
+      <c r="AJ23" s="124"/>
+      <c r="AK23" s="7"/>
+      <c r="AL23" s="7"/>
+      <c r="AM23" s="7"/>
+      <c r="AN23" s="7"/>
+      <c r="AO23" s="7"/>
+      <c r="AP23" s="117"/>
+      <c r="AQ23" s="124"/>
+      <c r="AR23" s="7"/>
+      <c r="AS23" s="7"/>
+      <c r="AT23" s="7"/>
+      <c r="AU23" s="7"/>
+      <c r="AV23" s="7"/>
+      <c r="AW23" s="117"/>
+      <c r="AX23" s="7"/>
+      <c r="AY23" s="53"/>
+      <c r="AZ23" s="60"/>
     </row>
     <row r="24" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="90"/>
-      <c r="P24" s="90"/>
-      <c r="Q24" s="90"/>
-      <c r="R24" s="90"/>
+      <c r="B24" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="100" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="109" t="s">
+        <v>75</v>
+      </c>
+      <c r="O24" s="109">
+        <v>10.11</v>
+      </c>
+      <c r="P24" s="109">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="Q24" s="114"/>
+      <c r="R24" s="49">
+        <v>1</v>
+      </c>
+      <c r="S24" s="52"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="117"/>
+      <c r="V24" s="124"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="117"/>
+      <c r="AC24" s="124"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="7"/>
+      <c r="AH24" s="7"/>
+      <c r="AI24" s="117"/>
+      <c r="AJ24" s="124"/>
+      <c r="AK24" s="7"/>
+      <c r="AL24" s="7"/>
+      <c r="AM24" s="7"/>
+      <c r="AN24" s="7"/>
+      <c r="AO24" s="7"/>
+      <c r="AP24" s="117"/>
+      <c r="AQ24" s="124"/>
+      <c r="AR24" s="7"/>
+      <c r="AS24" s="7"/>
+      <c r="AT24" s="7"/>
+      <c r="AU24" s="7"/>
+      <c r="AV24" s="7"/>
+      <c r="AW24" s="117"/>
+      <c r="AX24" s="7"/>
+      <c r="AY24" s="53"/>
+      <c r="AZ24" s="60"/>
     </row>
     <row r="25" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="C25" s="18"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="Q25" s="8"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
+      <c r="B25" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="105"/>
+      <c r="N25" s="109" t="s">
+        <v>80</v>
+      </c>
+      <c r="O25" s="109">
+        <v>10.11</v>
+      </c>
+      <c r="P25" s="109">
+        <v>10.14</v>
+      </c>
+      <c r="Q25" s="114"/>
+      <c r="R25" s="49">
+        <v>1</v>
+      </c>
+      <c r="S25" s="52"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="117"/>
+      <c r="V25" s="124"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="117"/>
+      <c r="AC25" s="124"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="117"/>
+      <c r="AJ25" s="124"/>
+      <c r="AK25" s="7"/>
+      <c r="AL25" s="7"/>
+      <c r="AM25" s="7"/>
+      <c r="AN25" s="7"/>
+      <c r="AO25" s="7"/>
+      <c r="AP25" s="117"/>
+      <c r="AQ25" s="124"/>
+      <c r="AR25" s="7"/>
+      <c r="AS25" s="7"/>
+      <c r="AT25" s="7"/>
+      <c r="AU25" s="7"/>
+      <c r="AV25" s="7"/>
+      <c r="AW25" s="117"/>
+      <c r="AX25" s="7"/>
+      <c r="AY25" s="53"/>
+      <c r="AZ25" s="60"/>
     </row>
     <row r="26" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="P26" s="1"/>
+      <c r="B26" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="100" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="109" t="s">
+        <v>89</v>
+      </c>
+      <c r="O26" s="109">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="P26" s="109">
+        <v>10.18</v>
+      </c>
+      <c r="Q26" s="114"/>
+      <c r="R26" s="49">
+        <v>3</v>
+      </c>
+      <c r="S26" s="52"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="117"/>
+      <c r="V26" s="124"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="117"/>
+      <c r="AC26" s="124"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="11"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="118"/>
+      <c r="AJ26" s="125"/>
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="8"/>
+      <c r="AM26" s="7"/>
+      <c r="AN26" s="7"/>
+      <c r="AO26" s="7"/>
+      <c r="AP26" s="117"/>
+      <c r="AQ26" s="124"/>
+      <c r="AR26" s="7"/>
+      <c r="AS26" s="7"/>
+      <c r="AT26" s="7"/>
+      <c r="AU26" s="7"/>
+      <c r="AV26" s="7"/>
+      <c r="AW26" s="117"/>
+      <c r="AX26" s="7"/>
+      <c r="AY26" s="53"/>
+      <c r="AZ26" s="60"/>
+    </row>
+    <row r="27" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="B27" s="88" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="104" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="O27" s="17">
+        <v>10.17</v>
+      </c>
+      <c r="P27" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="46">
+        <v>1</v>
+      </c>
+      <c r="S27" s="55"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="120"/>
+      <c r="V27" s="127"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="117"/>
+      <c r="AC27" s="124"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="7"/>
+      <c r="AH27" s="7"/>
+      <c r="AI27" s="117"/>
+      <c r="AJ27" s="124"/>
+      <c r="AK27" s="9"/>
+      <c r="AL27" s="9"/>
+      <c r="AM27" s="7"/>
+      <c r="AN27" s="7"/>
+      <c r="AO27" s="7"/>
+      <c r="AP27" s="117"/>
+      <c r="AQ27" s="124"/>
+      <c r="AR27" s="7"/>
+      <c r="AS27" s="7"/>
+      <c r="AT27" s="7"/>
+      <c r="AU27" s="7"/>
+      <c r="AV27" s="7"/>
+      <c r="AW27" s="117"/>
+      <c r="AX27" s="7"/>
+      <c r="AY27" s="53"/>
+      <c r="AZ27" s="60"/>
+    </row>
+    <row r="28" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="B28" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="104" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="O28" s="17">
+        <v>10.17</v>
+      </c>
+      <c r="P28" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="46">
+        <v>1</v>
+      </c>
+      <c r="S28" s="55"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="120"/>
+      <c r="V28" s="127"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="117"/>
+      <c r="AC28" s="124"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7"/>
+      <c r="AG28" s="7"/>
+      <c r="AH28" s="7"/>
+      <c r="AI28" s="117"/>
+      <c r="AJ28" s="124"/>
+      <c r="AK28" s="9"/>
+      <c r="AL28" s="9"/>
+      <c r="AM28" s="9"/>
+      <c r="AN28" s="9"/>
+      <c r="AO28" s="9"/>
+      <c r="AP28" s="117"/>
+      <c r="AQ28" s="124"/>
+      <c r="AR28" s="7"/>
+      <c r="AS28" s="7"/>
+      <c r="AT28" s="7"/>
+      <c r="AU28" s="7"/>
+      <c r="AV28" s="7"/>
+      <c r="AW28" s="117"/>
+      <c r="AX28" s="7"/>
+      <c r="AY28" s="53"/>
+      <c r="AZ28" s="60"/>
+    </row>
+    <row r="29" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="B29" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="104" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="O29" s="17">
+        <v>10.19</v>
+      </c>
+      <c r="P29" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="46">
+        <v>1</v>
+      </c>
+      <c r="S29" s="55"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="120"/>
+      <c r="V29" s="127"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="117"/>
+      <c r="AC29" s="124"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="7"/>
+      <c r="AH29" s="7"/>
+      <c r="AI29" s="117"/>
+      <c r="AJ29" s="124"/>
+      <c r="AK29" s="7"/>
+      <c r="AL29" s="7"/>
+      <c r="AM29" s="9"/>
+      <c r="AN29" s="9"/>
+      <c r="AO29" s="9"/>
+      <c r="AP29" s="119"/>
+      <c r="AQ29" s="126"/>
+      <c r="AR29" s="9"/>
+      <c r="AS29" s="9"/>
+      <c r="AT29" s="7"/>
+      <c r="AU29" s="7"/>
+      <c r="AV29" s="7"/>
+      <c r="AW29" s="117"/>
+      <c r="AX29" s="7"/>
+      <c r="AY29" s="53"/>
+      <c r="AZ29" s="60"/>
     </row>
     <row r="30" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="K30" s="9"/>
+      <c r="B30" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="O30" s="17">
+        <v>10.19</v>
+      </c>
+      <c r="P30" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="46">
+        <v>2</v>
+      </c>
+      <c r="S30" s="55"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="120"/>
+      <c r="V30" s="127"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="117"/>
+      <c r="AC30" s="124"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="7"/>
+      <c r="AH30" s="7"/>
+      <c r="AI30" s="117"/>
+      <c r="AJ30" s="124"/>
+      <c r="AK30" s="7"/>
+      <c r="AL30" s="7"/>
+      <c r="AM30" s="8"/>
+      <c r="AN30" s="8"/>
+      <c r="AO30" s="8"/>
+      <c r="AP30" s="117"/>
+      <c r="AQ30" s="124"/>
+      <c r="AR30" s="7"/>
+      <c r="AS30" s="7"/>
+      <c r="AT30" s="7"/>
+      <c r="AU30" s="7"/>
+      <c r="AV30" s="7"/>
+      <c r="AW30" s="117"/>
+      <c r="AX30" s="7"/>
+      <c r="AY30" s="53"/>
+      <c r="AZ30" s="60"/>
+    </row>
+    <row r="31" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="B31" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="104" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="O31" s="17">
+        <v>10.24</v>
+      </c>
+      <c r="P31" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="46">
+        <v>2</v>
+      </c>
+      <c r="S31" s="55"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="120"/>
+      <c r="V31" s="127"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="117"/>
+      <c r="AC31" s="124"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="7"/>
+      <c r="AH31" s="7"/>
+      <c r="AI31" s="117"/>
+      <c r="AJ31" s="124"/>
+      <c r="AK31" s="7"/>
+      <c r="AL31" s="7"/>
+      <c r="AM31" s="11"/>
+      <c r="AN31" s="11"/>
+      <c r="AO31" s="11"/>
+      <c r="AP31" s="120"/>
+      <c r="AQ31" s="124"/>
+      <c r="AR31" s="9"/>
+      <c r="AS31" s="9"/>
+      <c r="AT31" s="9"/>
+      <c r="AU31" s="7"/>
+      <c r="AV31" s="7"/>
+      <c r="AW31" s="117"/>
+      <c r="AX31" s="7"/>
+      <c r="AY31" s="53"/>
+      <c r="AZ31" s="60"/>
+    </row>
+    <row r="32" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="B32" s="89">
+        <v>5</v>
+      </c>
+      <c r="C32" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="99"/>
+      <c r="N32" s="110"/>
+      <c r="O32" s="108"/>
+      <c r="P32" s="108"/>
+      <c r="Q32" s="108"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="52"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="117"/>
+      <c r="V32" s="124"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="117"/>
+      <c r="AC32" s="124"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="7"/>
+      <c r="AH32" s="7"/>
+      <c r="AI32" s="117"/>
+      <c r="AJ32" s="124"/>
+      <c r="AK32" s="7"/>
+      <c r="AL32" s="7"/>
+      <c r="AM32" s="7"/>
+      <c r="AN32" s="7"/>
+      <c r="AO32" s="7"/>
+      <c r="AP32" s="117"/>
+      <c r="AQ32" s="124"/>
+      <c r="AR32" s="7"/>
+      <c r="AS32" s="7"/>
+      <c r="AT32" s="7"/>
+      <c r="AU32" s="7"/>
+      <c r="AV32" s="7"/>
+      <c r="AW32" s="117"/>
+      <c r="AX32" s="7"/>
+      <c r="AY32" s="53"/>
+      <c r="AZ32" s="60"/>
+    </row>
+    <row r="33" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="B33" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="102" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="O33" s="17">
+        <v>10.11</v>
+      </c>
+      <c r="P33" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q33" s="25">
+        <v>1</v>
+      </c>
+      <c r="R33" s="46">
+        <v>1</v>
+      </c>
+      <c r="S33" s="52"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="117"/>
+      <c r="V33" s="124"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="117"/>
+      <c r="AC33" s="124"/>
+      <c r="AD33" s="7"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="11"/>
+      <c r="AG33" s="7"/>
+      <c r="AH33" s="7"/>
+      <c r="AI33" s="117"/>
+      <c r="AJ33" s="124"/>
+      <c r="AK33" s="7"/>
+      <c r="AL33" s="7"/>
+      <c r="AM33" s="7"/>
+      <c r="AN33" s="7"/>
+      <c r="AO33" s="7"/>
+      <c r="AP33" s="117"/>
+      <c r="AQ33" s="124"/>
+      <c r="AR33" s="7"/>
+      <c r="AS33" s="7"/>
+      <c r="AT33" s="7"/>
+      <c r="AU33" s="7"/>
+      <c r="AV33" s="7"/>
+      <c r="AW33" s="117"/>
+      <c r="AX33" s="7"/>
+      <c r="AY33" s="53"/>
+      <c r="AZ33" s="60"/>
+    </row>
+    <row r="34" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="B34" s="88" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="O34" s="17">
+        <v>10.11</v>
+      </c>
+      <c r="P34" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="46">
+        <v>1</v>
+      </c>
+      <c r="S34" s="52"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="117"/>
+      <c r="V34" s="124"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="117"/>
+      <c r="AC34" s="124"/>
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="7"/>
+      <c r="AI34" s="117"/>
+      <c r="AJ34" s="124"/>
+      <c r="AK34" s="7"/>
+      <c r="AL34" s="7"/>
+      <c r="AM34" s="7"/>
+      <c r="AN34" s="7"/>
+      <c r="AO34" s="7"/>
+      <c r="AP34" s="117"/>
+      <c r="AQ34" s="124"/>
+      <c r="AR34" s="7"/>
+      <c r="AS34" s="7"/>
+      <c r="AT34" s="7"/>
+      <c r="AU34" s="7"/>
+      <c r="AV34" s="7"/>
+      <c r="AW34" s="117"/>
+      <c r="AX34" s="7"/>
+      <c r="AY34" s="53"/>
+      <c r="AZ34" s="60"/>
+    </row>
+    <row r="35" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="B35" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="104" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="O35" s="17">
+        <v>10.11</v>
+      </c>
+      <c r="P35" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="46">
+        <v>2</v>
+      </c>
+      <c r="S35" s="52"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="117"/>
+      <c r="V35" s="124"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="7"/>
+      <c r="AB35" s="117"/>
+      <c r="AC35" s="124"/>
+      <c r="AD35" s="7"/>
+      <c r="AE35" s="9"/>
+      <c r="AF35" s="11"/>
+      <c r="AG35" s="7"/>
+      <c r="AH35" s="7"/>
+      <c r="AI35" s="117"/>
+      <c r="AJ35" s="124"/>
+      <c r="AK35" s="7"/>
+      <c r="AL35" s="7"/>
+      <c r="AM35" s="7"/>
+      <c r="AN35" s="7"/>
+      <c r="AO35" s="7"/>
+      <c r="AP35" s="117"/>
+      <c r="AQ35" s="124"/>
+      <c r="AR35" s="7"/>
+      <c r="AS35" s="7"/>
+      <c r="AT35" s="7"/>
+      <c r="AU35" s="7"/>
+      <c r="AV35" s="7"/>
+      <c r="AW35" s="117"/>
+      <c r="AX35" s="7"/>
+      <c r="AY35" s="53"/>
+      <c r="AZ35" s="60"/>
+    </row>
+    <row r="36" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="B36" s="88" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="104" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="O36" s="17">
+        <v>10.11</v>
+      </c>
+      <c r="P36" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="46">
+        <v>1</v>
+      </c>
+      <c r="S36" s="52"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="117"/>
+      <c r="V36" s="124"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="117"/>
+      <c r="AC36" s="124"/>
+      <c r="AD36" s="7"/>
+      <c r="AE36" s="9"/>
+      <c r="AF36" s="9"/>
+      <c r="AG36" s="9"/>
+      <c r="AH36" s="9"/>
+      <c r="AI36" s="119"/>
+      <c r="AJ36" s="126"/>
+      <c r="AK36" s="9"/>
+      <c r="AL36" s="9"/>
+      <c r="AM36" s="9"/>
+      <c r="AN36" s="9"/>
+      <c r="AO36" s="9"/>
+      <c r="AP36" s="119"/>
+      <c r="AQ36" s="126"/>
+      <c r="AR36" s="9"/>
+      <c r="AS36" s="9"/>
+      <c r="AT36" s="9"/>
+      <c r="AU36" s="7"/>
+      <c r="AV36" s="7"/>
+      <c r="AW36" s="117"/>
+      <c r="AX36" s="7"/>
+      <c r="AY36" s="53"/>
+      <c r="AZ36" s="60"/>
+    </row>
+    <row r="37" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="B37" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="99"/>
+      <c r="N37" s="108"/>
+      <c r="O37" s="108"/>
+      <c r="P37" s="112"/>
+      <c r="Q37" s="108"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="52"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="117"/>
+      <c r="V37" s="124"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="7"/>
+      <c r="AB37" s="117"/>
+      <c r="AC37" s="124"/>
+      <c r="AD37" s="7"/>
+      <c r="AE37" s="7"/>
+      <c r="AF37" s="7"/>
+      <c r="AG37" s="7"/>
+      <c r="AH37" s="7"/>
+      <c r="AI37" s="117"/>
+      <c r="AJ37" s="124"/>
+      <c r="AK37" s="7"/>
+      <c r="AL37" s="7"/>
+      <c r="AM37" s="7"/>
+      <c r="AN37" s="7"/>
+      <c r="AO37" s="7"/>
+      <c r="AP37" s="117"/>
+      <c r="AQ37" s="124"/>
+      <c r="AR37" s="7"/>
+      <c r="AS37" s="7"/>
+      <c r="AT37" s="7"/>
+      <c r="AU37" s="7"/>
+      <c r="AV37" s="7"/>
+      <c r="AW37" s="117"/>
+      <c r="AX37" s="7"/>
+      <c r="AY37" s="53"/>
+      <c r="AZ37" s="60"/>
+    </row>
+    <row r="38" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="B38" s="88" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" s="102" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="O38" s="17">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="P38" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="46">
+        <v>1</v>
+      </c>
+      <c r="S38" s="52"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="117"/>
+      <c r="V38" s="124"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="117"/>
+      <c r="AC38" s="124"/>
+      <c r="AD38" s="7"/>
+      <c r="AE38" s="11"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="7"/>
+      <c r="AI38" s="117"/>
+      <c r="AJ38" s="124"/>
+      <c r="AK38" s="7"/>
+      <c r="AL38" s="7"/>
+      <c r="AM38" s="7"/>
+      <c r="AN38" s="7"/>
+      <c r="AO38" s="7"/>
+      <c r="AP38" s="117"/>
+      <c r="AQ38" s="124"/>
+      <c r="AR38" s="7"/>
+      <c r="AS38" s="7"/>
+      <c r="AT38" s="7"/>
+      <c r="AU38" s="7"/>
+      <c r="AV38" s="7"/>
+      <c r="AW38" s="117"/>
+      <c r="AX38" s="7"/>
+      <c r="AY38" s="53"/>
+      <c r="AZ38" s="60"/>
+    </row>
+    <row r="39" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="B39" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="102" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="O39" s="17">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="P39" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="46">
+        <v>1</v>
+      </c>
+      <c r="S39" s="52"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="117"/>
+      <c r="V39" s="124"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="117"/>
+      <c r="AC39" s="124"/>
+      <c r="AD39" s="7"/>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="11"/>
+      <c r="AG39" s="8"/>
+      <c r="AH39" s="8"/>
+      <c r="AI39" s="117"/>
+      <c r="AJ39" s="124"/>
+      <c r="AK39" s="7"/>
+      <c r="AL39" s="7"/>
+      <c r="AM39" s="7"/>
+      <c r="AN39" s="7"/>
+      <c r="AO39" s="7"/>
+      <c r="AP39" s="117"/>
+      <c r="AQ39" s="124"/>
+      <c r="AR39" s="7"/>
+      <c r="AS39" s="7"/>
+      <c r="AT39" s="7"/>
+      <c r="AU39" s="7"/>
+      <c r="AV39" s="7"/>
+      <c r="AW39" s="117"/>
+      <c r="AX39" s="7"/>
+      <c r="AY39" s="53"/>
+      <c r="AZ39" s="60"/>
+    </row>
+    <row r="40" spans="2:52" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="90" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="106" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="107"/>
+      <c r="N40" s="111" t="s">
+        <v>134</v>
+      </c>
+      <c r="O40" s="111">
+        <v>10.14</v>
+      </c>
+      <c r="P40" s="113" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q40" s="111"/>
+      <c r="R40" s="51">
+        <v>1</v>
+      </c>
+      <c r="S40" s="56"/>
+      <c r="T40" s="57"/>
+      <c r="U40" s="121"/>
+      <c r="V40" s="128"/>
+      <c r="W40" s="57"/>
+      <c r="X40" s="57"/>
+      <c r="Y40" s="57"/>
+      <c r="Z40" s="57"/>
+      <c r="AA40" s="57"/>
+      <c r="AB40" s="121"/>
+      <c r="AC40" s="128"/>
+      <c r="AD40" s="57"/>
+      <c r="AE40" s="57"/>
+      <c r="AF40" s="57"/>
+      <c r="AG40" s="57"/>
+      <c r="AH40" s="58"/>
+      <c r="AI40" s="129"/>
+      <c r="AJ40" s="130"/>
+      <c r="AK40" s="58"/>
+      <c r="AL40" s="58"/>
+      <c r="AM40" s="58"/>
+      <c r="AN40" s="58"/>
+      <c r="AO40" s="58"/>
+      <c r="AP40" s="129"/>
+      <c r="AQ40" s="130"/>
+      <c r="AR40" s="58"/>
+      <c r="AS40" s="58"/>
+      <c r="AT40" s="58"/>
+      <c r="AU40" s="57"/>
+      <c r="AV40" s="57"/>
+      <c r="AW40" s="121"/>
+      <c r="AX40" s="57"/>
+      <c r="AY40" s="59"/>
+      <c r="AZ40" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="C19:M19"/>
-    <mergeCell ref="D10:M10"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="D12:M12"/>
-    <mergeCell ref="D13:M13"/>
-    <mergeCell ref="D14:M14"/>
-    <mergeCell ref="D17:M17"/>
-    <mergeCell ref="D18:M18"/>
+  <mergeCells count="45">
+    <mergeCell ref="D40:M40"/>
+    <mergeCell ref="D35:M35"/>
+    <mergeCell ref="D34:M34"/>
+    <mergeCell ref="C37:M37"/>
+    <mergeCell ref="D38:M38"/>
+    <mergeCell ref="D39:M39"/>
+    <mergeCell ref="D36:M36"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="C23:M23"/>
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="C32:M32"/>
+    <mergeCell ref="D33:M33"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
     <mergeCell ref="U5:AY5"/>
     <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="C24:R24"/>
     <mergeCell ref="D20:M20"/>
     <mergeCell ref="D21:M21"/>
     <mergeCell ref="D22:M22"/>
@@ -3835,17 +5650,20 @@
     <mergeCell ref="D15:M15"/>
     <mergeCell ref="C7:M7"/>
     <mergeCell ref="C11:M11"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="C19:M19"/>
+    <mergeCell ref="D10:M10"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="D12:M12"/>
+    <mergeCell ref="D13:M13"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="D17:M17"/>
+    <mergeCell ref="D18:M18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B7 B11 B19 P20:P22 P18" numberStoredAsText="1"/>
+    <ignoredError sqref="B7 B11 B19 P20:P22 P18 B23 P34:P35 P27:P31 P38:P40 P33 P36 B37" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/일정관리/WBS&Gantt.xlsx
+++ b/일정관리/WBS&Gantt.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="137">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -453,10 +453,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4-7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>특별 이벤트 기획</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -465,10 +461,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4-8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>개발</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -562,6 +554,22 @@
   </si>
   <si>
     <t xml:space="preserve"> 박도일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중단</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -679,7 +687,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -1296,13 +1304,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1393,307 +1412,319 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="50" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="50" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2778,13 +2809,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>887</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>95675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>24847</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>157368</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2802,6 +2833,68 @@
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>24210</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>98016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>8257</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>162161</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="직사각형 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13808246" y="7078480"/>
+          <a:ext cx="256190" cy="64145"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
             <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
@@ -3102,11 +3195,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AZ40"/>
+  <dimension ref="B1:AZ42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3172,98 +3265,98 @@
     </row>
     <row r="4" spans="2:52" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:52" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41" t="s">
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="41" t="s">
+      <c r="O5" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="40" t="s">
+      <c r="P5" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="41" t="s">
+      <c r="Q5" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="42" t="s">
+      <c r="R5" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="39" t="s">
+      <c r="S5" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36" t="s">
+      <c r="T5" s="110"/>
+      <c r="U5" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="36"/>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="36"/>
-      <c r="AJ5" s="36"/>
-      <c r="AK5" s="36"/>
-      <c r="AL5" s="36"/>
-      <c r="AM5" s="36"/>
-      <c r="AN5" s="36"/>
-      <c r="AO5" s="36"/>
-      <c r="AP5" s="36"/>
-      <c r="AQ5" s="36"/>
-      <c r="AR5" s="36"/>
-      <c r="AS5" s="36"/>
-      <c r="AT5" s="36"/>
-      <c r="AU5" s="36"/>
-      <c r="AV5" s="36"/>
-      <c r="AW5" s="36"/>
-      <c r="AX5" s="36"/>
-      <c r="AY5" s="37"/>
-      <c r="AZ5" s="38" t="s">
+      <c r="V5" s="110"/>
+      <c r="W5" s="110"/>
+      <c r="X5" s="110"/>
+      <c r="Y5" s="110"/>
+      <c r="Z5" s="110"/>
+      <c r="AA5" s="110"/>
+      <c r="AB5" s="110"/>
+      <c r="AC5" s="110"/>
+      <c r="AD5" s="110"/>
+      <c r="AE5" s="110"/>
+      <c r="AF5" s="110"/>
+      <c r="AG5" s="110"/>
+      <c r="AH5" s="110"/>
+      <c r="AI5" s="110"/>
+      <c r="AJ5" s="110"/>
+      <c r="AK5" s="110"/>
+      <c r="AL5" s="110"/>
+      <c r="AM5" s="110"/>
+      <c r="AN5" s="110"/>
+      <c r="AO5" s="110"/>
+      <c r="AP5" s="110"/>
+      <c r="AQ5" s="110"/>
+      <c r="AR5" s="110"/>
+      <c r="AS5" s="110"/>
+      <c r="AT5" s="110"/>
+      <c r="AU5" s="110"/>
+      <c r="AV5" s="110"/>
+      <c r="AW5" s="110"/>
+      <c r="AX5" s="110"/>
+      <c r="AY5" s="111"/>
+      <c r="AZ5" s="112" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:52" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="62"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="65"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="116"/>
+      <c r="Q6" s="109"/>
+      <c r="R6" s="118"/>
       <c r="S6" s="2">
         <v>29</v>
       </c>
@@ -3273,7 +3366,7 @@
       <c r="U6" s="3">
         <v>1</v>
       </c>
-      <c r="V6" s="72">
+      <c r="V6" s="50">
         <v>2</v>
       </c>
       <c r="W6" s="3">
@@ -3294,7 +3387,7 @@
       <c r="AB6" s="3">
         <v>8</v>
       </c>
-      <c r="AC6" s="72">
+      <c r="AC6" s="50">
         <v>9</v>
       </c>
       <c r="AD6" s="3">
@@ -3315,7 +3408,7 @@
       <c r="AI6" s="3">
         <v>15</v>
       </c>
-      <c r="AJ6" s="72">
+      <c r="AJ6" s="50">
         <v>16</v>
       </c>
       <c r="AK6" s="2">
@@ -3336,7 +3429,7 @@
       <c r="AP6" s="3">
         <v>22</v>
       </c>
-      <c r="AQ6" s="72">
+      <c r="AQ6" s="50">
         <v>23</v>
       </c>
       <c r="AR6" s="2">
@@ -3357,90 +3450,90 @@
       <c r="AW6" s="3">
         <v>29</v>
       </c>
-      <c r="AX6" s="72">
+      <c r="AX6" s="50">
         <v>30</v>
       </c>
       <c r="AY6" s="2">
         <v>31</v>
       </c>
-      <c r="AZ6" s="82"/>
+      <c r="AZ6" s="113"/>
     </row>
     <row r="7" spans="2:52" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="68"/>
-      <c r="S7" s="73"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="115"/>
-      <c r="V7" s="122"/>
-      <c r="W7" s="75"/>
-      <c r="X7" s="74"/>
-      <c r="Y7" s="74"/>
-      <c r="Z7" s="74"/>
-      <c r="AA7" s="74"/>
-      <c r="AB7" s="115"/>
-      <c r="AC7" s="122"/>
-      <c r="AD7" s="75"/>
-      <c r="AE7" s="74"/>
-      <c r="AF7" s="74"/>
-      <c r="AG7" s="74"/>
-      <c r="AH7" s="74"/>
-      <c r="AI7" s="115"/>
-      <c r="AJ7" s="122"/>
-      <c r="AK7" s="74"/>
-      <c r="AL7" s="74"/>
-      <c r="AM7" s="74"/>
-      <c r="AN7" s="74"/>
-      <c r="AO7" s="74"/>
-      <c r="AP7" s="115"/>
-      <c r="AQ7" s="122"/>
-      <c r="AR7" s="74"/>
-      <c r="AS7" s="74"/>
-      <c r="AT7" s="74"/>
-      <c r="AU7" s="74"/>
-      <c r="AV7" s="74"/>
-      <c r="AW7" s="115"/>
-      <c r="AX7" s="75"/>
-      <c r="AY7" s="76"/>
-      <c r="AZ7" s="83"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="123"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="83"/>
+      <c r="V7" s="90"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="52"/>
+      <c r="AB7" s="83"/>
+      <c r="AC7" s="90"/>
+      <c r="AD7" s="53"/>
+      <c r="AE7" s="52"/>
+      <c r="AF7" s="52"/>
+      <c r="AG7" s="52"/>
+      <c r="AH7" s="52"/>
+      <c r="AI7" s="83"/>
+      <c r="AJ7" s="90"/>
+      <c r="AK7" s="52"/>
+      <c r="AL7" s="52"/>
+      <c r="AM7" s="52"/>
+      <c r="AN7" s="52"/>
+      <c r="AO7" s="52"/>
+      <c r="AP7" s="83"/>
+      <c r="AQ7" s="90"/>
+      <c r="AR7" s="52"/>
+      <c r="AS7" s="52"/>
+      <c r="AT7" s="52"/>
+      <c r="AU7" s="52"/>
+      <c r="AV7" s="52"/>
+      <c r="AW7" s="83"/>
+      <c r="AX7" s="53"/>
+      <c r="AY7" s="54"/>
+      <c r="AZ7" s="60"/>
     </row>
     <row r="8" spans="2:52" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="93" t="s">
+      <c r="C8" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="94"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="119"/>
+      <c r="M8" s="120"/>
       <c r="N8" s="13" t="s">
         <v>27</v>
       </c>
@@ -3453,63 +3546,63 @@
       <c r="Q8" s="22">
         <v>1</v>
       </c>
-      <c r="R8" s="69">
+      <c r="R8" s="47">
         <v>2</v>
       </c>
-      <c r="S8" s="77"/>
+      <c r="S8" s="55"/>
       <c r="T8" s="2"/>
-      <c r="U8" s="116"/>
-      <c r="V8" s="123"/>
+      <c r="U8" s="84"/>
+      <c r="V8" s="91"/>
       <c r="W8" s="3"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
-      <c r="AB8" s="116"/>
-      <c r="AC8" s="123"/>
+      <c r="AB8" s="84"/>
+      <c r="AC8" s="91"/>
       <c r="AD8" s="3"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
-      <c r="AI8" s="116"/>
-      <c r="AJ8" s="123"/>
+      <c r="AI8" s="84"/>
+      <c r="AJ8" s="91"/>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
-      <c r="AP8" s="116"/>
-      <c r="AQ8" s="123"/>
+      <c r="AP8" s="84"/>
+      <c r="AQ8" s="91"/>
       <c r="AR8" s="2"/>
       <c r="AS8" s="2"/>
       <c r="AT8" s="2"/>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
-      <c r="AW8" s="116"/>
+      <c r="AW8" s="84"/>
       <c r="AX8" s="3"/>
-      <c r="AY8" s="78"/>
-      <c r="AZ8" s="84"/>
+      <c r="AY8" s="56"/>
+      <c r="AZ8" s="61"/>
     </row>
     <row r="9" spans="2:52" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="94"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="120"/>
       <c r="N9" s="14" t="s">
         <v>32</v>
       </c>
@@ -3522,63 +3615,63 @@
       <c r="Q9" s="23">
         <v>1</v>
       </c>
-      <c r="R9" s="70">
+      <c r="R9" s="48">
         <v>2</v>
       </c>
-      <c r="S9" s="79"/>
+      <c r="S9" s="57"/>
       <c r="T9" s="2"/>
-      <c r="U9" s="116"/>
-      <c r="V9" s="123"/>
+      <c r="U9" s="84"/>
+      <c r="V9" s="91"/>
       <c r="W9" s="3"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
-      <c r="AB9" s="116"/>
-      <c r="AC9" s="123"/>
+      <c r="AB9" s="84"/>
+      <c r="AC9" s="91"/>
       <c r="AD9" s="3"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
-      <c r="AI9" s="116"/>
-      <c r="AJ9" s="123"/>
+      <c r="AI9" s="84"/>
+      <c r="AJ9" s="91"/>
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" s="2"/>
       <c r="AO9" s="2"/>
-      <c r="AP9" s="116"/>
-      <c r="AQ9" s="123"/>
+      <c r="AP9" s="84"/>
+      <c r="AQ9" s="91"/>
       <c r="AR9" s="2"/>
       <c r="AS9" s="2"/>
       <c r="AT9" s="2"/>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2"/>
-      <c r="AW9" s="116"/>
+      <c r="AW9" s="84"/>
       <c r="AX9" s="3"/>
-      <c r="AY9" s="78"/>
-      <c r="AZ9" s="84"/>
+      <c r="AY9" s="56"/>
+      <c r="AZ9" s="61"/>
     </row>
     <row r="10" spans="2:52" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="96" t="s">
+      <c r="C10" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="97"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="124"/>
+      <c r="M10" s="125"/>
       <c r="N10" s="14" t="s">
         <v>30</v>
       </c>
@@ -3591,120 +3684,120 @@
       <c r="Q10" s="23">
         <v>1</v>
       </c>
-      <c r="R10" s="70">
+      <c r="R10" s="48">
         <v>1</v>
       </c>
-      <c r="S10" s="80"/>
+      <c r="S10" s="58"/>
       <c r="T10" s="2"/>
-      <c r="U10" s="116"/>
-      <c r="V10" s="123"/>
+      <c r="U10" s="84"/>
+      <c r="V10" s="91"/>
       <c r="W10" s="3"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="2"/>
-      <c r="AB10" s="116"/>
-      <c r="AC10" s="123"/>
+      <c r="AB10" s="84"/>
+      <c r="AC10" s="91"/>
       <c r="AD10" s="3"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
-      <c r="AI10" s="116"/>
-      <c r="AJ10" s="123"/>
+      <c r="AI10" s="84"/>
+      <c r="AJ10" s="91"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" s="2"/>
       <c r="AO10" s="2"/>
-      <c r="AP10" s="116"/>
-      <c r="AQ10" s="123"/>
+      <c r="AP10" s="84"/>
+      <c r="AQ10" s="91"/>
       <c r="AR10" s="2"/>
       <c r="AS10" s="2"/>
       <c r="AT10" s="2"/>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
-      <c r="AW10" s="116"/>
+      <c r="AW10" s="84"/>
       <c r="AX10" s="3"/>
-      <c r="AY10" s="78"/>
-      <c r="AZ10" s="84"/>
+      <c r="AY10" s="56"/>
+      <c r="AZ10" s="61"/>
     </row>
     <row r="11" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="98" t="s">
+      <c r="C11" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="99"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="103"/>
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="52"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="36"/>
       <c r="T11" s="7"/>
-      <c r="U11" s="117"/>
-      <c r="V11" s="124"/>
+      <c r="U11" s="85"/>
+      <c r="V11" s="92"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
-      <c r="AB11" s="117"/>
-      <c r="AC11" s="124"/>
+      <c r="AB11" s="85"/>
+      <c r="AC11" s="92"/>
       <c r="AD11" s="7"/>
       <c r="AE11" s="7"/>
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
       <c r="AH11" s="7"/>
-      <c r="AI11" s="117"/>
-      <c r="AJ11" s="124"/>
+      <c r="AI11" s="85"/>
+      <c r="AJ11" s="92"/>
       <c r="AK11" s="7"/>
       <c r="AL11" s="7"/>
       <c r="AM11" s="7"/>
       <c r="AN11" s="7"/>
       <c r="AO11" s="7"/>
-      <c r="AP11" s="117"/>
-      <c r="AQ11" s="124"/>
+      <c r="AP11" s="85"/>
+      <c r="AQ11" s="92"/>
       <c r="AR11" s="7"/>
       <c r="AS11" s="7"/>
       <c r="AT11" s="7"/>
       <c r="AU11" s="7"/>
       <c r="AV11" s="7"/>
-      <c r="AW11" s="117"/>
+      <c r="AW11" s="85"/>
       <c r="AX11" s="7"/>
-      <c r="AY11" s="53"/>
-      <c r="AZ11" s="60"/>
+      <c r="AY11" s="37"/>
+      <c r="AZ11" s="43"/>
     </row>
     <row r="12" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="100" t="s">
+      <c r="C12" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="101"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="126"/>
+      <c r="K12" s="126"/>
+      <c r="L12" s="126"/>
+      <c r="M12" s="127"/>
       <c r="N12" s="16" t="s">
         <v>11</v>
       </c>
@@ -3717,63 +3810,63 @@
       <c r="Q12" s="24">
         <v>1</v>
       </c>
-      <c r="R12" s="71">
+      <c r="R12" s="49">
         <v>1</v>
       </c>
-      <c r="S12" s="81"/>
+      <c r="S12" s="59"/>
       <c r="T12" s="8"/>
-      <c r="U12" s="118"/>
-      <c r="V12" s="125"/>
+      <c r="U12" s="86"/>
+      <c r="V12" s="93"/>
       <c r="W12" s="8"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
-      <c r="AB12" s="117"/>
-      <c r="AC12" s="124"/>
+      <c r="AB12" s="85"/>
+      <c r="AC12" s="92"/>
       <c r="AD12" s="7"/>
       <c r="AE12" s="7"/>
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
       <c r="AH12" s="7"/>
-      <c r="AI12" s="117"/>
-      <c r="AJ12" s="124"/>
+      <c r="AI12" s="85"/>
+      <c r="AJ12" s="92"/>
       <c r="AK12" s="7"/>
       <c r="AL12" s="7"/>
       <c r="AM12" s="7"/>
       <c r="AN12" s="7"/>
       <c r="AO12" s="7"/>
-      <c r="AP12" s="117"/>
-      <c r="AQ12" s="124"/>
+      <c r="AP12" s="85"/>
+      <c r="AQ12" s="92"/>
       <c r="AR12" s="7"/>
       <c r="AS12" s="7"/>
       <c r="AT12" s="7"/>
       <c r="AU12" s="7"/>
       <c r="AV12" s="7"/>
-      <c r="AW12" s="117"/>
+      <c r="AW12" s="85"/>
       <c r="AX12" s="7"/>
-      <c r="AY12" s="53"/>
-      <c r="AZ12" s="60"/>
+      <c r="AY12" s="37"/>
+      <c r="AZ12" s="43"/>
     </row>
     <row r="13" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="102" t="s">
+      <c r="C13" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="35"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="100"/>
       <c r="N13" s="17" t="s">
         <v>38</v>
       </c>
@@ -3786,63 +3879,63 @@
       <c r="Q13" s="25">
         <v>1</v>
       </c>
-      <c r="R13" s="46">
+      <c r="R13" s="31">
         <v>1</v>
       </c>
-      <c r="S13" s="55"/>
+      <c r="S13" s="39"/>
       <c r="T13" s="7"/>
-      <c r="U13" s="117"/>
-      <c r="V13" s="124"/>
+      <c r="U13" s="85"/>
+      <c r="V13" s="92"/>
       <c r="W13" s="7"/>
       <c r="X13" s="8"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
-      <c r="AB13" s="117"/>
-      <c r="AC13" s="124"/>
+      <c r="AB13" s="85"/>
+      <c r="AC13" s="92"/>
       <c r="AD13" s="7"/>
       <c r="AE13" s="7"/>
       <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
       <c r="AH13" s="7"/>
-      <c r="AI13" s="117"/>
-      <c r="AJ13" s="124"/>
+      <c r="AI13" s="85"/>
+      <c r="AJ13" s="92"/>
       <c r="AK13" s="7"/>
       <c r="AL13" s="7"/>
       <c r="AM13" s="7"/>
       <c r="AN13" s="7"/>
       <c r="AO13" s="7"/>
-      <c r="AP13" s="117"/>
-      <c r="AQ13" s="124"/>
+      <c r="AP13" s="85"/>
+      <c r="AQ13" s="92"/>
       <c r="AR13" s="7"/>
       <c r="AS13" s="7"/>
       <c r="AT13" s="7"/>
       <c r="AU13" s="7"/>
       <c r="AV13" s="7"/>
-      <c r="AW13" s="117"/>
+      <c r="AW13" s="85"/>
       <c r="AX13" s="7"/>
-      <c r="AY13" s="53"/>
-      <c r="AZ13" s="60"/>
+      <c r="AY13" s="37"/>
+      <c r="AZ13" s="43"/>
     </row>
     <row r="14" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="102" t="s">
+      <c r="C14" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="35"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="100"/>
       <c r="N14" s="17" t="s">
         <v>39</v>
       </c>
@@ -3855,63 +3948,63 @@
       <c r="Q14" s="25">
         <v>1</v>
       </c>
-      <c r="R14" s="46">
+      <c r="R14" s="31">
         <v>2</v>
       </c>
-      <c r="S14" s="52"/>
+      <c r="S14" s="36"/>
       <c r="T14" s="7"/>
-      <c r="U14" s="117"/>
-      <c r="V14" s="124"/>
+      <c r="U14" s="85"/>
+      <c r="V14" s="92"/>
       <c r="W14" s="7"/>
       <c r="X14" s="8"/>
       <c r="Y14" s="8"/>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
-      <c r="AB14" s="117"/>
-      <c r="AC14" s="124"/>
+      <c r="AB14" s="85"/>
+      <c r="AC14" s="92"/>
       <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
-      <c r="AI14" s="117"/>
-      <c r="AJ14" s="124"/>
+      <c r="AI14" s="85"/>
+      <c r="AJ14" s="92"/>
       <c r="AK14" s="7"/>
       <c r="AL14" s="7"/>
       <c r="AM14" s="7"/>
       <c r="AN14" s="7"/>
       <c r="AO14" s="7"/>
-      <c r="AP14" s="117"/>
-      <c r="AQ14" s="124"/>
+      <c r="AP14" s="85"/>
+      <c r="AQ14" s="92"/>
       <c r="AR14" s="7"/>
       <c r="AS14" s="7"/>
       <c r="AT14" s="7"/>
       <c r="AU14" s="7"/>
       <c r="AV14" s="7"/>
-      <c r="AW14" s="117"/>
+      <c r="AW14" s="85"/>
       <c r="AX14" s="7"/>
-      <c r="AY14" s="53"/>
-      <c r="AZ14" s="60"/>
+      <c r="AY14" s="37"/>
+      <c r="AZ14" s="43"/>
     </row>
     <row r="15" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="102" t="s">
+      <c r="C15" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="35"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="100"/>
       <c r="N15" s="17" t="s">
         <v>40</v>
       </c>
@@ -3924,63 +4017,63 @@
       <c r="Q15" s="25">
         <v>1</v>
       </c>
-      <c r="R15" s="46">
+      <c r="R15" s="31">
         <v>1</v>
       </c>
-      <c r="S15" s="52"/>
+      <c r="S15" s="36"/>
       <c r="T15" s="7"/>
-      <c r="U15" s="117"/>
-      <c r="V15" s="124"/>
+      <c r="U15" s="85"/>
+      <c r="V15" s="92"/>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
       <c r="AA15" s="11"/>
-      <c r="AB15" s="117"/>
-      <c r="AC15" s="124"/>
+      <c r="AB15" s="85"/>
+      <c r="AC15" s="92"/>
       <c r="AD15" s="7"/>
       <c r="AE15" s="7"/>
       <c r="AF15" s="7"/>
       <c r="AG15" s="7"/>
       <c r="AH15" s="7"/>
-      <c r="AI15" s="117"/>
-      <c r="AJ15" s="124"/>
+      <c r="AI15" s="85"/>
+      <c r="AJ15" s="92"/>
       <c r="AK15" s="7"/>
       <c r="AL15" s="7"/>
       <c r="AM15" s="7"/>
       <c r="AN15" s="7"/>
       <c r="AO15" s="7"/>
-      <c r="AP15" s="117"/>
-      <c r="AQ15" s="124"/>
+      <c r="AP15" s="85"/>
+      <c r="AQ15" s="92"/>
       <c r="AR15" s="7"/>
       <c r="AS15" s="7"/>
       <c r="AT15" s="7"/>
       <c r="AU15" s="7"/>
       <c r="AV15" s="7"/>
-      <c r="AW15" s="117"/>
+      <c r="AW15" s="85"/>
       <c r="AX15" s="7"/>
-      <c r="AY15" s="53"/>
-      <c r="AZ15" s="60"/>
+      <c r="AY15" s="37"/>
+      <c r="AZ15" s="43"/>
     </row>
     <row r="16" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="103" t="s">
+      <c r="C16" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="35"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="100"/>
       <c r="N16" s="17" t="s">
         <v>41</v>
       </c>
@@ -3993,63 +4086,63 @@
       <c r="Q16" s="25">
         <v>1</v>
       </c>
-      <c r="R16" s="46">
+      <c r="R16" s="31">
         <v>2</v>
       </c>
-      <c r="S16" s="52"/>
+      <c r="S16" s="36"/>
       <c r="T16" s="7"/>
-      <c r="U16" s="117"/>
-      <c r="V16" s="124"/>
+      <c r="U16" s="85"/>
+      <c r="V16" s="92"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
       <c r="AA16" s="7"/>
-      <c r="AB16" s="117"/>
-      <c r="AC16" s="124"/>
+      <c r="AB16" s="85"/>
+      <c r="AC16" s="92"/>
       <c r="AD16" s="7"/>
       <c r="AE16" s="7"/>
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
-      <c r="AI16" s="117"/>
-      <c r="AJ16" s="124"/>
+      <c r="AI16" s="85"/>
+      <c r="AJ16" s="92"/>
       <c r="AK16" s="7"/>
       <c r="AL16" s="7"/>
       <c r="AM16" s="7"/>
       <c r="AN16" s="7"/>
       <c r="AO16" s="7"/>
-      <c r="AP16" s="117"/>
-      <c r="AQ16" s="124"/>
+      <c r="AP16" s="85"/>
+      <c r="AQ16" s="92"/>
       <c r="AR16" s="7"/>
       <c r="AS16" s="7"/>
       <c r="AT16" s="7"/>
       <c r="AU16" s="7"/>
       <c r="AV16" s="7"/>
-      <c r="AW16" s="117"/>
+      <c r="AW16" s="85"/>
       <c r="AX16" s="7"/>
-      <c r="AY16" s="53"/>
-      <c r="AZ16" s="60"/>
+      <c r="AY16" s="37"/>
+      <c r="AZ16" s="43"/>
     </row>
     <row r="17" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B17" s="88" t="s">
+      <c r="B17" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="102" t="s">
+      <c r="C17" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="35"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="100"/>
       <c r="N17" s="17" t="s">
         <v>44</v>
       </c>
@@ -4062,65 +4155,65 @@
       <c r="Q17" s="25">
         <v>1</v>
       </c>
-      <c r="R17" s="46">
+      <c r="R17" s="31">
         <v>2</v>
       </c>
-      <c r="S17" s="52"/>
+      <c r="S17" s="36"/>
       <c r="T17" s="7"/>
-      <c r="U17" s="117"/>
-      <c r="V17" s="124"/>
+      <c r="U17" s="85"/>
+      <c r="V17" s="92"/>
       <c r="W17" s="7"/>
       <c r="X17" s="8"/>
       <c r="Y17" s="8"/>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
-      <c r="AB17" s="117"/>
-      <c r="AC17" s="124"/>
+      <c r="AB17" s="85"/>
+      <c r="AC17" s="92"/>
       <c r="AD17" s="7"/>
       <c r="AE17" s="7"/>
       <c r="AF17" s="7"/>
       <c r="AG17" s="7"/>
       <c r="AH17" s="7"/>
-      <c r="AI17" s="117"/>
-      <c r="AJ17" s="124"/>
+      <c r="AI17" s="85"/>
+      <c r="AJ17" s="92"/>
       <c r="AK17" s="7"/>
       <c r="AL17" s="7"/>
       <c r="AM17" s="7"/>
       <c r="AN17" s="7"/>
       <c r="AO17" s="7"/>
-      <c r="AP17" s="117"/>
-      <c r="AQ17" s="124"/>
+      <c r="AP17" s="85"/>
+      <c r="AQ17" s="92"/>
       <c r="AR17" s="7"/>
       <c r="AS17" s="7"/>
       <c r="AT17" s="7"/>
       <c r="AU17" s="7"/>
       <c r="AV17" s="7"/>
-      <c r="AW17" s="117"/>
+      <c r="AW17" s="85"/>
       <c r="AX17" s="7"/>
-      <c r="AY17" s="53"/>
-      <c r="AZ17" s="60"/>
+      <c r="AY17" s="37"/>
+      <c r="AZ17" s="43"/>
     </row>
     <row r="18" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="102" t="s">
+      <c r="C18" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="35"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="100"/>
       <c r="N18" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O18" s="17">
         <v>10.06</v>
@@ -4131,120 +4224,120 @@
       <c r="Q18" s="25">
         <v>1</v>
       </c>
-      <c r="R18" s="46">
+      <c r="R18" s="31">
         <v>1</v>
       </c>
-      <c r="S18" s="52"/>
+      <c r="S18" s="36"/>
       <c r="T18" s="7"/>
-      <c r="U18" s="117"/>
-      <c r="V18" s="124"/>
+      <c r="U18" s="85"/>
+      <c r="V18" s="92"/>
       <c r="W18" s="7"/>
       <c r="X18" s="11"/>
-      <c r="Y18" s="45"/>
+      <c r="Y18" s="30"/>
       <c r="Z18" s="29"/>
       <c r="AA18" s="8"/>
-      <c r="AB18" s="117"/>
-      <c r="AC18" s="124"/>
+      <c r="AB18" s="85"/>
+      <c r="AC18" s="92"/>
       <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
       <c r="AF18" s="7"/>
       <c r="AG18" s="7"/>
       <c r="AH18" s="7"/>
-      <c r="AI18" s="117"/>
-      <c r="AJ18" s="124"/>
+      <c r="AI18" s="85"/>
+      <c r="AJ18" s="92"/>
       <c r="AK18" s="7"/>
       <c r="AL18" s="7"/>
       <c r="AM18" s="7"/>
       <c r="AN18" s="7"/>
       <c r="AO18" s="7"/>
-      <c r="AP18" s="117"/>
-      <c r="AQ18" s="124"/>
+      <c r="AP18" s="85"/>
+      <c r="AQ18" s="92"/>
       <c r="AR18" s="7"/>
       <c r="AS18" s="7"/>
       <c r="AT18" s="7"/>
       <c r="AU18" s="7"/>
       <c r="AV18" s="7"/>
-      <c r="AW18" s="117"/>
+      <c r="AW18" s="85"/>
       <c r="AX18" s="7"/>
-      <c r="AY18" s="53"/>
-      <c r="AZ18" s="60"/>
+      <c r="AY18" s="37"/>
+      <c r="AZ18" s="43"/>
     </row>
     <row r="19" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B19" s="87" t="s">
+      <c r="B19" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="98" t="s">
+      <c r="C19" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="99"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="103"/>
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
       <c r="P19" s="15"/>
       <c r="Q19" s="15"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="52"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="36"/>
       <c r="T19" s="7"/>
-      <c r="U19" s="117"/>
-      <c r="V19" s="124"/>
+      <c r="U19" s="85"/>
+      <c r="V19" s="92"/>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
-      <c r="AB19" s="117"/>
-      <c r="AC19" s="124"/>
+      <c r="AB19" s="85"/>
+      <c r="AC19" s="92"/>
       <c r="AD19" s="7"/>
       <c r="AE19" s="7"/>
       <c r="AF19" s="7"/>
       <c r="AG19" s="7"/>
       <c r="AH19" s="7"/>
-      <c r="AI19" s="117"/>
-      <c r="AJ19" s="124"/>
+      <c r="AI19" s="85"/>
+      <c r="AJ19" s="92"/>
       <c r="AK19" s="7"/>
       <c r="AL19" s="7"/>
       <c r="AM19" s="7"/>
       <c r="AN19" s="7"/>
       <c r="AO19" s="7"/>
-      <c r="AP19" s="117"/>
-      <c r="AQ19" s="124"/>
+      <c r="AP19" s="85"/>
+      <c r="AQ19" s="92"/>
       <c r="AR19" s="7"/>
       <c r="AS19" s="7"/>
       <c r="AT19" s="7"/>
       <c r="AU19" s="7"/>
       <c r="AV19" s="7"/>
-      <c r="AW19" s="117"/>
+      <c r="AW19" s="85"/>
       <c r="AX19" s="7"/>
-      <c r="AY19" s="53"/>
-      <c r="AZ19" s="60"/>
+      <c r="AY19" s="37"/>
+      <c r="AZ19" s="43"/>
     </row>
     <row r="20" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="104" t="s">
+      <c r="C20" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="35"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="100"/>
       <c r="N20" s="17" t="s">
         <v>78</v>
       </c>
@@ -4257,63 +4350,63 @@
       <c r="Q20" s="25">
         <v>1</v>
       </c>
-      <c r="R20" s="46">
+      <c r="R20" s="31">
         <v>1</v>
       </c>
-      <c r="S20" s="54"/>
+      <c r="S20" s="38"/>
       <c r="T20" s="9"/>
-      <c r="U20" s="119"/>
-      <c r="V20" s="126"/>
+      <c r="U20" s="87"/>
+      <c r="V20" s="94"/>
       <c r="W20" s="9"/>
       <c r="X20" s="9"/>
       <c r="Y20" s="9"/>
       <c r="Z20" s="9"/>
       <c r="AA20" s="7"/>
-      <c r="AB20" s="117"/>
-      <c r="AC20" s="124"/>
+      <c r="AB20" s="85"/>
+      <c r="AC20" s="92"/>
       <c r="AD20" s="7"/>
       <c r="AE20" s="7"/>
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
       <c r="AH20" s="7"/>
-      <c r="AI20" s="117"/>
-      <c r="AJ20" s="124"/>
+      <c r="AI20" s="85"/>
+      <c r="AJ20" s="92"/>
       <c r="AK20" s="7"/>
       <c r="AL20" s="7"/>
       <c r="AM20" s="7"/>
       <c r="AN20" s="7"/>
       <c r="AO20" s="7"/>
-      <c r="AP20" s="117"/>
-      <c r="AQ20" s="124"/>
+      <c r="AP20" s="85"/>
+      <c r="AQ20" s="92"/>
       <c r="AR20" s="7"/>
       <c r="AS20" s="7"/>
       <c r="AT20" s="7"/>
       <c r="AU20" s="7"/>
       <c r="AV20" s="7"/>
-      <c r="AW20" s="117"/>
+      <c r="AW20" s="85"/>
       <c r="AX20" s="7"/>
-      <c r="AY20" s="53"/>
-      <c r="AZ20" s="60"/>
+      <c r="AY20" s="37"/>
+      <c r="AZ20" s="43"/>
     </row>
     <row r="21" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="104" t="s">
+      <c r="C21" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="35"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="100"/>
       <c r="N21" s="17" t="s">
         <v>79</v>
       </c>
@@ -4326,63 +4419,63 @@
       <c r="Q21" s="25">
         <v>1</v>
       </c>
-      <c r="R21" s="46">
+      <c r="R21" s="31">
         <v>2</v>
       </c>
-      <c r="S21" s="52"/>
+      <c r="S21" s="36"/>
       <c r="T21" s="7"/>
-      <c r="U21" s="117"/>
-      <c r="V21" s="124"/>
+      <c r="U21" s="85"/>
+      <c r="V21" s="92"/>
       <c r="W21" s="7"/>
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
       <c r="Z21" s="11"/>
       <c r="AA21" s="11"/>
-      <c r="AB21" s="117"/>
-      <c r="AC21" s="124"/>
+      <c r="AB21" s="85"/>
+      <c r="AC21" s="92"/>
       <c r="AD21" s="7"/>
       <c r="AE21" s="7"/>
       <c r="AF21" s="7"/>
       <c r="AG21" s="7"/>
       <c r="AH21" s="7"/>
-      <c r="AI21" s="117"/>
-      <c r="AJ21" s="124"/>
+      <c r="AI21" s="85"/>
+      <c r="AJ21" s="92"/>
       <c r="AK21" s="7"/>
       <c r="AL21" s="7"/>
       <c r="AM21" s="7"/>
       <c r="AN21" s="7"/>
       <c r="AO21" s="7"/>
-      <c r="AP21" s="117"/>
-      <c r="AQ21" s="124"/>
+      <c r="AP21" s="85"/>
+      <c r="AQ21" s="92"/>
       <c r="AR21" s="7"/>
       <c r="AS21" s="7"/>
       <c r="AT21" s="7"/>
       <c r="AU21" s="7"/>
       <c r="AV21" s="7"/>
-      <c r="AW21" s="117"/>
+      <c r="AW21" s="85"/>
       <c r="AX21" s="7"/>
-      <c r="AY21" s="53"/>
-      <c r="AZ21" s="60"/>
+      <c r="AY21" s="37"/>
+      <c r="AZ21" s="43"/>
     </row>
     <row r="22" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B22" s="88" t="s">
+      <c r="B22" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="104" t="s">
+      <c r="C22" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="35"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="100"/>
       <c r="N22" s="17" t="s">
         <v>11</v>
       </c>
@@ -4395,321 +4488,321 @@
       <c r="Q22" s="25">
         <v>1</v>
       </c>
-      <c r="R22" s="46">
+      <c r="R22" s="31">
         <v>2</v>
       </c>
-      <c r="S22" s="52"/>
+      <c r="S22" s="36"/>
       <c r="T22" s="7"/>
-      <c r="U22" s="117"/>
-      <c r="V22" s="124"/>
+      <c r="U22" s="85"/>
+      <c r="V22" s="92"/>
       <c r="W22" s="7"/>
       <c r="X22" s="9"/>
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
-      <c r="AB22" s="117"/>
-      <c r="AC22" s="124"/>
+      <c r="AB22" s="85"/>
+      <c r="AC22" s="92"/>
       <c r="AD22" s="7"/>
       <c r="AE22" s="7"/>
       <c r="AF22" s="7"/>
       <c r="AG22" s="7"/>
       <c r="AH22" s="7"/>
-      <c r="AI22" s="117"/>
-      <c r="AJ22" s="124"/>
+      <c r="AI22" s="85"/>
+      <c r="AJ22" s="92"/>
       <c r="AK22" s="7"/>
       <c r="AL22" s="7"/>
       <c r="AM22" s="7"/>
       <c r="AN22" s="7"/>
       <c r="AO22" s="7"/>
-      <c r="AP22" s="117"/>
-      <c r="AQ22" s="124"/>
+      <c r="AP22" s="85"/>
+      <c r="AQ22" s="92"/>
       <c r="AR22" s="7"/>
       <c r="AS22" s="7"/>
       <c r="AT22" s="7"/>
       <c r="AU22" s="7"/>
       <c r="AV22" s="7"/>
-      <c r="AW22" s="117"/>
+      <c r="AW22" s="85"/>
       <c r="AX22" s="7"/>
-      <c r="AY22" s="53"/>
-      <c r="AZ22" s="60"/>
+      <c r="AY22" s="37"/>
+      <c r="AZ22" s="43"/>
     </row>
     <row r="23" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="98" t="s">
-        <v>130</v>
-      </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="108"/>
-      <c r="O23" s="108"/>
-      <c r="P23" s="112"/>
-      <c r="Q23" s="108"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="52"/>
+      <c r="C23" s="101" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="102"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="103"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="76"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="76"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="36"/>
       <c r="T23" s="7"/>
-      <c r="U23" s="117"/>
-      <c r="V23" s="124"/>
+      <c r="U23" s="85"/>
+      <c r="V23" s="92"/>
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
       <c r="AA23" s="7"/>
-      <c r="AB23" s="117"/>
-      <c r="AC23" s="124"/>
+      <c r="AB23" s="85"/>
+      <c r="AC23" s="92"/>
       <c r="AD23" s="7"/>
       <c r="AE23" s="7"/>
       <c r="AF23" s="7"/>
       <c r="AG23" s="7"/>
       <c r="AH23" s="7"/>
-      <c r="AI23" s="117"/>
-      <c r="AJ23" s="124"/>
+      <c r="AI23" s="85"/>
+      <c r="AJ23" s="92"/>
       <c r="AK23" s="7"/>
       <c r="AL23" s="7"/>
       <c r="AM23" s="7"/>
       <c r="AN23" s="7"/>
       <c r="AO23" s="7"/>
-      <c r="AP23" s="117"/>
-      <c r="AQ23" s="124"/>
+      <c r="AP23" s="85"/>
+      <c r="AQ23" s="92"/>
       <c r="AR23" s="7"/>
       <c r="AS23" s="7"/>
       <c r="AT23" s="7"/>
       <c r="AU23" s="7"/>
       <c r="AV23" s="7"/>
-      <c r="AW23" s="117"/>
+      <c r="AW23" s="85"/>
       <c r="AX23" s="7"/>
-      <c r="AY23" s="53"/>
-      <c r="AZ23" s="60"/>
+      <c r="AY23" s="37"/>
+      <c r="AZ23" s="43"/>
     </row>
     <row r="24" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B24" s="88" t="s">
+      <c r="B24" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="100" t="s">
+      <c r="C24" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
+      <c r="D24" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="104"/>
+      <c r="K24" s="104"/>
+      <c r="L24" s="104"/>
       <c r="M24" s="105"/>
-      <c r="N24" s="109" t="s">
+      <c r="N24" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="O24" s="109">
+      <c r="O24" s="77">
         <v>10.11</v>
       </c>
-      <c r="P24" s="109">
+      <c r="P24" s="77">
         <v>10.119999999999999</v>
       </c>
-      <c r="Q24" s="114"/>
-      <c r="R24" s="49">
+      <c r="Q24" s="82"/>
+      <c r="R24" s="34">
         <v>1</v>
       </c>
-      <c r="S24" s="52"/>
+      <c r="S24" s="36"/>
       <c r="T24" s="7"/>
-      <c r="U24" s="117"/>
-      <c r="V24" s="124"/>
+      <c r="U24" s="85"/>
+      <c r="V24" s="92"/>
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
-      <c r="AB24" s="117"/>
-      <c r="AC24" s="124"/>
+      <c r="AB24" s="85"/>
+      <c r="AC24" s="92"/>
       <c r="AD24" s="7"/>
       <c r="AE24" s="8"/>
       <c r="AF24" s="8"/>
       <c r="AG24" s="7"/>
       <c r="AH24" s="7"/>
-      <c r="AI24" s="117"/>
-      <c r="AJ24" s="124"/>
+      <c r="AI24" s="85"/>
+      <c r="AJ24" s="92"/>
       <c r="AK24" s="7"/>
       <c r="AL24" s="7"/>
       <c r="AM24" s="7"/>
       <c r="AN24" s="7"/>
       <c r="AO24" s="7"/>
-      <c r="AP24" s="117"/>
-      <c r="AQ24" s="124"/>
+      <c r="AP24" s="85"/>
+      <c r="AQ24" s="92"/>
       <c r="AR24" s="7"/>
       <c r="AS24" s="7"/>
       <c r="AT24" s="7"/>
       <c r="AU24" s="7"/>
       <c r="AV24" s="7"/>
-      <c r="AW24" s="117"/>
+      <c r="AW24" s="85"/>
       <c r="AX24" s="7"/>
-      <c r="AY24" s="53"/>
-      <c r="AZ24" s="60"/>
+      <c r="AY24" s="37"/>
+      <c r="AZ24" s="43"/>
     </row>
     <row r="25" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B25" s="88" t="s">
+      <c r="B25" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="100" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="44" t="s">
+      <c r="C25" s="128" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="104"/>
+      <c r="K25" s="104"/>
+      <c r="L25" s="104"/>
       <c r="M25" s="105"/>
-      <c r="N25" s="109" t="s">
+      <c r="N25" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="O25" s="109">
+      <c r="O25" s="77">
         <v>10.11</v>
       </c>
-      <c r="P25" s="109">
+      <c r="P25" s="77">
         <v>10.14</v>
       </c>
-      <c r="Q25" s="114"/>
-      <c r="R25" s="49">
+      <c r="Q25" s="82"/>
+      <c r="R25" s="34">
         <v>1</v>
       </c>
-      <c r="S25" s="52"/>
+      <c r="S25" s="36"/>
       <c r="T25" s="7"/>
-      <c r="U25" s="117"/>
-      <c r="V25" s="124"/>
+      <c r="U25" s="85"/>
+      <c r="V25" s="92"/>
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
-      <c r="AB25" s="117"/>
-      <c r="AC25" s="124"/>
+      <c r="AB25" s="85"/>
+      <c r="AC25" s="92"/>
       <c r="AD25" s="7"/>
-      <c r="AE25" s="8"/>
-      <c r="AF25" s="8"/>
-      <c r="AG25" s="8"/>
-      <c r="AH25" s="8"/>
-      <c r="AI25" s="117"/>
-      <c r="AJ25" s="124"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="10"/>
+      <c r="AI25" s="85"/>
+      <c r="AJ25" s="92"/>
       <c r="AK25" s="7"/>
       <c r="AL25" s="7"/>
       <c r="AM25" s="7"/>
       <c r="AN25" s="7"/>
       <c r="AO25" s="7"/>
-      <c r="AP25" s="117"/>
-      <c r="AQ25" s="124"/>
+      <c r="AP25" s="85"/>
+      <c r="AQ25" s="92"/>
       <c r="AR25" s="7"/>
       <c r="AS25" s="7"/>
       <c r="AT25" s="7"/>
       <c r="AU25" s="7"/>
       <c r="AV25" s="7"/>
-      <c r="AW25" s="117"/>
+      <c r="AW25" s="85"/>
       <c r="AX25" s="7"/>
-      <c r="AY25" s="53"/>
-      <c r="AZ25" s="60"/>
+      <c r="AY25" s="37"/>
+      <c r="AZ25" s="43"/>
     </row>
     <row r="26" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B26" s="88" t="s">
+      <c r="B26" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="100" t="s">
+      <c r="C26" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="44" t="s">
+      <c r="D26" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="104"/>
       <c r="M26" s="105"/>
-      <c r="N26" s="109" t="s">
+      <c r="N26" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="O26" s="109">
+      <c r="O26" s="77">
         <v>10.130000000000001</v>
       </c>
-      <c r="P26" s="109">
+      <c r="P26" s="77">
         <v>10.18</v>
       </c>
-      <c r="Q26" s="114"/>
-      <c r="R26" s="49">
+      <c r="Q26" s="82"/>
+      <c r="R26" s="34">
         <v>3</v>
       </c>
-      <c r="S26" s="52"/>
+      <c r="S26" s="36"/>
       <c r="T26" s="7"/>
-      <c r="U26" s="117"/>
-      <c r="V26" s="124"/>
+      <c r="U26" s="85"/>
+      <c r="V26" s="92"/>
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
-      <c r="AB26" s="117"/>
-      <c r="AC26" s="124"/>
+      <c r="AB26" s="85"/>
+      <c r="AC26" s="92"/>
       <c r="AD26" s="7"/>
       <c r="AE26" s="11"/>
       <c r="AF26" s="11"/>
       <c r="AG26" s="8"/>
       <c r="AH26" s="8"/>
-      <c r="AI26" s="118"/>
-      <c r="AJ26" s="125"/>
+      <c r="AI26" s="86"/>
+      <c r="AJ26" s="93"/>
       <c r="AK26" s="8"/>
       <c r="AL26" s="8"/>
       <c r="AM26" s="7"/>
       <c r="AN26" s="7"/>
       <c r="AO26" s="7"/>
-      <c r="AP26" s="117"/>
-      <c r="AQ26" s="124"/>
+      <c r="AP26" s="85"/>
+      <c r="AQ26" s="92"/>
       <c r="AR26" s="7"/>
       <c r="AS26" s="7"/>
       <c r="AT26" s="7"/>
       <c r="AU26" s="7"/>
       <c r="AV26" s="7"/>
-      <c r="AW26" s="117"/>
+      <c r="AW26" s="85"/>
       <c r="AX26" s="7"/>
-      <c r="AY26" s="53"/>
-      <c r="AZ26" s="60"/>
+      <c r="AY26" s="37"/>
+      <c r="AZ26" s="43"/>
     </row>
     <row r="27" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B27" s="88" t="s">
+      <c r="B27" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="104" t="s">
+      <c r="C27" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="99" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="35"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="100"/>
       <c r="N27" s="17" t="s">
         <v>95</v>
       </c>
@@ -4720,63 +4813,63 @@
         <v>96</v>
       </c>
       <c r="Q27" s="25"/>
-      <c r="R27" s="46">
+      <c r="R27" s="31">
         <v>1</v>
       </c>
-      <c r="S27" s="55"/>
+      <c r="S27" s="39"/>
       <c r="T27" s="11"/>
-      <c r="U27" s="120"/>
-      <c r="V27" s="127"/>
+      <c r="U27" s="88"/>
+      <c r="V27" s="95"/>
       <c r="W27" s="11"/>
       <c r="X27" s="11"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
       <c r="AA27" s="7"/>
-      <c r="AB27" s="117"/>
-      <c r="AC27" s="124"/>
+      <c r="AB27" s="85"/>
+      <c r="AC27" s="92"/>
       <c r="AD27" s="7"/>
       <c r="AE27" s="7"/>
       <c r="AF27" s="7"/>
       <c r="AG27" s="7"/>
       <c r="AH27" s="7"/>
-      <c r="AI27" s="117"/>
-      <c r="AJ27" s="124"/>
+      <c r="AI27" s="85"/>
+      <c r="AJ27" s="92"/>
       <c r="AK27" s="9"/>
       <c r="AL27" s="9"/>
       <c r="AM27" s="7"/>
       <c r="AN27" s="7"/>
       <c r="AO27" s="7"/>
-      <c r="AP27" s="117"/>
-      <c r="AQ27" s="124"/>
+      <c r="AP27" s="85"/>
+      <c r="AQ27" s="92"/>
       <c r="AR27" s="7"/>
       <c r="AS27" s="7"/>
       <c r="AT27" s="7"/>
       <c r="AU27" s="7"/>
       <c r="AV27" s="7"/>
-      <c r="AW27" s="117"/>
+      <c r="AW27" s="85"/>
       <c r="AX27" s="7"/>
-      <c r="AY27" s="53"/>
-      <c r="AZ27" s="60"/>
+      <c r="AY27" s="37"/>
+      <c r="AZ27" s="43"/>
     </row>
     <row r="28" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="104" t="s">
+      <c r="C28" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="35"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="100"/>
       <c r="N28" s="17" t="s">
         <v>100</v>
       </c>
@@ -4787,63 +4880,63 @@
         <v>101</v>
       </c>
       <c r="Q28" s="25"/>
-      <c r="R28" s="46">
+      <c r="R28" s="31">
         <v>1</v>
       </c>
-      <c r="S28" s="55"/>
+      <c r="S28" s="39"/>
       <c r="T28" s="11"/>
-      <c r="U28" s="120"/>
-      <c r="V28" s="127"/>
+      <c r="U28" s="88"/>
+      <c r="V28" s="95"/>
       <c r="W28" s="11"/>
       <c r="X28" s="11"/>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
-      <c r="AB28" s="117"/>
-      <c r="AC28" s="124"/>
+      <c r="AB28" s="85"/>
+      <c r="AC28" s="92"/>
       <c r="AD28" s="7"/>
       <c r="AE28" s="7"/>
       <c r="AF28" s="7"/>
       <c r="AG28" s="7"/>
       <c r="AH28" s="7"/>
-      <c r="AI28" s="117"/>
-      <c r="AJ28" s="124"/>
+      <c r="AI28" s="85"/>
+      <c r="AJ28" s="92"/>
       <c r="AK28" s="9"/>
       <c r="AL28" s="9"/>
       <c r="AM28" s="9"/>
       <c r="AN28" s="9"/>
       <c r="AO28" s="9"/>
-      <c r="AP28" s="117"/>
-      <c r="AQ28" s="124"/>
+      <c r="AP28" s="85"/>
+      <c r="AQ28" s="92"/>
       <c r="AR28" s="7"/>
       <c r="AS28" s="7"/>
       <c r="AT28" s="7"/>
       <c r="AU28" s="7"/>
       <c r="AV28" s="7"/>
-      <c r="AW28" s="117"/>
+      <c r="AW28" s="85"/>
       <c r="AX28" s="7"/>
-      <c r="AY28" s="53"/>
-      <c r="AZ28" s="60"/>
+      <c r="AY28" s="37"/>
+      <c r="AZ28" s="43"/>
     </row>
     <row r="29" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="104" t="s">
+      <c r="C29" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="99" t="s">
         <v>104</v>
       </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="35"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="100"/>
       <c r="N29" s="17" t="s">
         <v>105</v>
       </c>
@@ -4854,256 +4947,258 @@
         <v>106</v>
       </c>
       <c r="Q29" s="25"/>
-      <c r="R29" s="46">
+      <c r="R29" s="31">
         <v>1</v>
       </c>
-      <c r="S29" s="55"/>
+      <c r="S29" s="39"/>
       <c r="T29" s="11"/>
-      <c r="U29" s="120"/>
-      <c r="V29" s="127"/>
+      <c r="U29" s="88"/>
+      <c r="V29" s="95"/>
       <c r="W29" s="11"/>
       <c r="X29" s="11"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
       <c r="AA29" s="7"/>
-      <c r="AB29" s="117"/>
-      <c r="AC29" s="124"/>
+      <c r="AB29" s="85"/>
+      <c r="AC29" s="92"/>
       <c r="AD29" s="7"/>
       <c r="AE29" s="7"/>
       <c r="AF29" s="7"/>
       <c r="AG29" s="7"/>
       <c r="AH29" s="7"/>
-      <c r="AI29" s="117"/>
-      <c r="AJ29" s="124"/>
+      <c r="AI29" s="85"/>
+      <c r="AJ29" s="92"/>
       <c r="AK29" s="7"/>
       <c r="AL29" s="7"/>
       <c r="AM29" s="9"/>
       <c r="AN29" s="9"/>
       <c r="AO29" s="9"/>
-      <c r="AP29" s="119"/>
-      <c r="AQ29" s="126"/>
+      <c r="AP29" s="87"/>
+      <c r="AQ29" s="94"/>
       <c r="AR29" s="9"/>
       <c r="AS29" s="9"/>
       <c r="AT29" s="7"/>
       <c r="AU29" s="7"/>
       <c r="AV29" s="7"/>
-      <c r="AW29" s="117"/>
+      <c r="AW29" s="85"/>
       <c r="AX29" s="7"/>
-      <c r="AY29" s="53"/>
-      <c r="AZ29" s="60"/>
+      <c r="AY29" s="37"/>
+      <c r="AZ29" s="43"/>
     </row>
     <row r="30" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B30" s="88" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="102" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="O30" s="17">
-        <v>10.19</v>
-      </c>
-      <c r="P30" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="46">
-        <v>2</v>
-      </c>
-      <c r="S30" s="55"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="120"/>
-      <c r="V30" s="127"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
+      <c r="B30" s="66">
+        <v>5</v>
+      </c>
+      <c r="C30" s="101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="102"/>
+      <c r="L30" s="102"/>
+      <c r="M30" s="103"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="76"/>
+      <c r="P30" s="76"/>
+      <c r="Q30" s="76"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="85"/>
+      <c r="V30" s="92"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
-      <c r="AB30" s="117"/>
-      <c r="AC30" s="124"/>
+      <c r="AB30" s="85"/>
+      <c r="AC30" s="92"/>
       <c r="AD30" s="7"/>
       <c r="AE30" s="7"/>
       <c r="AF30" s="7"/>
       <c r="AG30" s="7"/>
       <c r="AH30" s="7"/>
-      <c r="AI30" s="117"/>
-      <c r="AJ30" s="124"/>
+      <c r="AI30" s="85"/>
+      <c r="AJ30" s="92"/>
       <c r="AK30" s="7"/>
       <c r="AL30" s="7"/>
-      <c r="AM30" s="8"/>
-      <c r="AN30" s="8"/>
-      <c r="AO30" s="8"/>
-      <c r="AP30" s="117"/>
-      <c r="AQ30" s="124"/>
+      <c r="AM30" s="7"/>
+      <c r="AN30" s="7"/>
+      <c r="AO30" s="7"/>
+      <c r="AP30" s="85"/>
+      <c r="AQ30" s="92"/>
       <c r="AR30" s="7"/>
       <c r="AS30" s="7"/>
       <c r="AT30" s="7"/>
       <c r="AU30" s="7"/>
       <c r="AV30" s="7"/>
-      <c r="AW30" s="117"/>
+      <c r="AW30" s="85"/>
       <c r="AX30" s="7"/>
-      <c r="AY30" s="53"/>
-      <c r="AZ30" s="60"/>
+      <c r="AY30" s="37"/>
+      <c r="AZ30" s="43"/>
     </row>
     <row r="31" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B31" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="104" t="s">
-        <v>111</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="35"/>
+      <c r="B31" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="99" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="99"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="99"/>
+      <c r="M31" s="100"/>
       <c r="N31" s="17" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="O31" s="17">
-        <v>10.24</v>
+        <v>10.11</v>
       </c>
       <c r="P31" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="46">
-        <v>2</v>
-      </c>
-      <c r="S31" s="55"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="120"/>
-      <c r="V31" s="127"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
+        <v>76</v>
+      </c>
+      <c r="Q31" s="25">
+        <v>1</v>
+      </c>
+      <c r="R31" s="31">
+        <v>1</v>
+      </c>
+      <c r="S31" s="36"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="85"/>
+      <c r="V31" s="92"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
       <c r="AA31" s="7"/>
-      <c r="AB31" s="117"/>
-      <c r="AC31" s="124"/>
+      <c r="AB31" s="85"/>
+      <c r="AC31" s="92"/>
       <c r="AD31" s="7"/>
-      <c r="AE31" s="7"/>
-      <c r="AF31" s="7"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="11"/>
       <c r="AG31" s="7"/>
       <c r="AH31" s="7"/>
-      <c r="AI31" s="117"/>
-      <c r="AJ31" s="124"/>
+      <c r="AI31" s="85"/>
+      <c r="AJ31" s="92"/>
       <c r="AK31" s="7"/>
       <c r="AL31" s="7"/>
-      <c r="AM31" s="11"/>
-      <c r="AN31" s="11"/>
-      <c r="AO31" s="11"/>
-      <c r="AP31" s="120"/>
-      <c r="AQ31" s="124"/>
-      <c r="AR31" s="9"/>
-      <c r="AS31" s="9"/>
-      <c r="AT31" s="9"/>
+      <c r="AM31" s="7"/>
+      <c r="AN31" s="7"/>
+      <c r="AO31" s="7"/>
+      <c r="AP31" s="85"/>
+      <c r="AQ31" s="92"/>
+      <c r="AR31" s="7"/>
+      <c r="AS31" s="7"/>
+      <c r="AT31" s="7"/>
       <c r="AU31" s="7"/>
       <c r="AV31" s="7"/>
-      <c r="AW31" s="117"/>
+      <c r="AW31" s="85"/>
       <c r="AX31" s="7"/>
-      <c r="AY31" s="53"/>
-      <c r="AZ31" s="60"/>
+      <c r="AY31" s="37"/>
+      <c r="AZ31" s="43"/>
     </row>
     <row r="32" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B32" s="89">
-        <v>5</v>
-      </c>
-      <c r="C32" s="98" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="99"/>
-      <c r="N32" s="110"/>
-      <c r="O32" s="108"/>
-      <c r="P32" s="108"/>
-      <c r="Q32" s="108"/>
-      <c r="R32" s="48"/>
-      <c r="S32" s="52"/>
+      <c r="B32" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="99" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="99"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="100"/>
+      <c r="N32" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="O32" s="17">
+        <v>10.11</v>
+      </c>
+      <c r="P32" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="31">
+        <v>1</v>
+      </c>
+      <c r="S32" s="36"/>
       <c r="T32" s="7"/>
-      <c r="U32" s="117"/>
-      <c r="V32" s="124"/>
+      <c r="U32" s="85"/>
+      <c r="V32" s="92"/>
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
-      <c r="AB32" s="117"/>
-      <c r="AC32" s="124"/>
+      <c r="AB32" s="85"/>
+      <c r="AC32" s="92"/>
       <c r="AD32" s="7"/>
-      <c r="AE32" s="7"/>
-      <c r="AF32" s="7"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
       <c r="AG32" s="7"/>
       <c r="AH32" s="7"/>
-      <c r="AI32" s="117"/>
-      <c r="AJ32" s="124"/>
+      <c r="AI32" s="85"/>
+      <c r="AJ32" s="92"/>
       <c r="AK32" s="7"/>
       <c r="AL32" s="7"/>
       <c r="AM32" s="7"/>
       <c r="AN32" s="7"/>
       <c r="AO32" s="7"/>
-      <c r="AP32" s="117"/>
-      <c r="AQ32" s="124"/>
+      <c r="AP32" s="85"/>
+      <c r="AQ32" s="92"/>
       <c r="AR32" s="7"/>
       <c r="AS32" s="7"/>
       <c r="AT32" s="7"/>
       <c r="AU32" s="7"/>
       <c r="AV32" s="7"/>
-      <c r="AW32" s="117"/>
+      <c r="AW32" s="85"/>
       <c r="AX32" s="7"/>
-      <c r="AY32" s="53"/>
-      <c r="AZ32" s="60"/>
+      <c r="AY32" s="37"/>
+      <c r="AZ32" s="43"/>
     </row>
     <row r="33" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B33" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="102" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="35"/>
+      <c r="B33" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="99" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="99"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="99"/>
+      <c r="I33" s="99"/>
+      <c r="J33" s="99"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="100"/>
       <c r="N33" s="17" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="O33" s="17">
         <v>10.11</v>
@@ -5111,531 +5206,517 @@
       <c r="P33" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="Q33" s="25">
-        <v>1</v>
-      </c>
-      <c r="R33" s="46">
-        <v>1</v>
-      </c>
-      <c r="S33" s="52"/>
+      <c r="Q33" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="R33" s="31">
+        <v>2</v>
+      </c>
+      <c r="S33" s="36"/>
       <c r="T33" s="7"/>
-      <c r="U33" s="117"/>
-      <c r="V33" s="124"/>
+      <c r="U33" s="85"/>
+      <c r="V33" s="92"/>
       <c r="W33" s="7"/>
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="7"/>
       <c r="AA33" s="7"/>
-      <c r="AB33" s="117"/>
-      <c r="AC33" s="124"/>
+      <c r="AB33" s="85"/>
+      <c r="AC33" s="92"/>
       <c r="AD33" s="7"/>
-      <c r="AE33" s="8"/>
+      <c r="AE33" s="9"/>
       <c r="AF33" s="11"/>
       <c r="AG33" s="7"/>
       <c r="AH33" s="7"/>
-      <c r="AI33" s="117"/>
-      <c r="AJ33" s="124"/>
+      <c r="AI33" s="85"/>
+      <c r="AJ33" s="92"/>
       <c r="AK33" s="7"/>
       <c r="AL33" s="7"/>
       <c r="AM33" s="7"/>
       <c r="AN33" s="7"/>
       <c r="AO33" s="7"/>
-      <c r="AP33" s="117"/>
-      <c r="AQ33" s="124"/>
+      <c r="AP33" s="85"/>
+      <c r="AQ33" s="92"/>
       <c r="AR33" s="7"/>
       <c r="AS33" s="7"/>
       <c r="AT33" s="7"/>
       <c r="AU33" s="7"/>
       <c r="AV33" s="7"/>
-      <c r="AW33" s="117"/>
+      <c r="AW33" s="85"/>
       <c r="AX33" s="7"/>
-      <c r="AY33" s="53"/>
-      <c r="AZ33" s="60"/>
+      <c r="AY33" s="37"/>
+      <c r="AZ33" s="43"/>
     </row>
     <row r="34" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B34" s="88" t="s">
-        <v>127</v>
-      </c>
-      <c r="C34" s="102" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="35"/>
+      <c r="B34" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="99" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="99"/>
+      <c r="J34" s="99"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="100"/>
       <c r="N34" s="17" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="O34" s="17">
         <v>10.11</v>
       </c>
       <c r="P34" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="46">
+        <v>88</v>
+      </c>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="31">
         <v>1</v>
       </c>
-      <c r="S34" s="52"/>
+      <c r="S34" s="36"/>
       <c r="T34" s="7"/>
-      <c r="U34" s="117"/>
-      <c r="V34" s="124"/>
+      <c r="U34" s="85"/>
+      <c r="V34" s="92"/>
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
-      <c r="AB34" s="117"/>
-      <c r="AC34" s="124"/>
+      <c r="AB34" s="85"/>
+      <c r="AC34" s="92"/>
       <c r="AD34" s="7"/>
-      <c r="AE34" s="8"/>
-      <c r="AF34" s="8"/>
-      <c r="AG34" s="7"/>
-      <c r="AH34" s="7"/>
-      <c r="AI34" s="117"/>
-      <c r="AJ34" s="124"/>
-      <c r="AK34" s="7"/>
-      <c r="AL34" s="7"/>
-      <c r="AM34" s="7"/>
-      <c r="AN34" s="7"/>
-      <c r="AO34" s="7"/>
-      <c r="AP34" s="117"/>
-      <c r="AQ34" s="124"/>
-      <c r="AR34" s="7"/>
-      <c r="AS34" s="7"/>
-      <c r="AT34" s="7"/>
+      <c r="AE34" s="9"/>
+      <c r="AF34" s="9"/>
+      <c r="AG34" s="9"/>
+      <c r="AH34" s="9"/>
+      <c r="AI34" s="87"/>
+      <c r="AJ34" s="94"/>
+      <c r="AK34" s="9"/>
+      <c r="AL34" s="9"/>
+      <c r="AM34" s="9"/>
+      <c r="AN34" s="9"/>
+      <c r="AO34" s="9"/>
+      <c r="AP34" s="87"/>
+      <c r="AQ34" s="94"/>
+      <c r="AR34" s="9"/>
+      <c r="AS34" s="9"/>
+      <c r="AT34" s="9"/>
       <c r="AU34" s="7"/>
       <c r="AV34" s="7"/>
-      <c r="AW34" s="117"/>
+      <c r="AW34" s="85"/>
       <c r="AX34" s="7"/>
-      <c r="AY34" s="53"/>
-      <c r="AZ34" s="60"/>
+      <c r="AY34" s="37"/>
+      <c r="AZ34" s="43"/>
     </row>
     <row r="35" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B35" s="88" t="s">
-        <v>123</v>
-      </c>
-      <c r="C35" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="D35" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="O35" s="17">
-        <v>10.11</v>
-      </c>
-      <c r="P35" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="46">
-        <v>2</v>
-      </c>
-      <c r="S35" s="52"/>
+      <c r="B35" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="101" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="102"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="102"/>
+      <c r="I35" s="102"/>
+      <c r="J35" s="102"/>
+      <c r="K35" s="102"/>
+      <c r="L35" s="102"/>
+      <c r="M35" s="103"/>
+      <c r="N35" s="76"/>
+      <c r="O35" s="76"/>
+      <c r="P35" s="80"/>
+      <c r="Q35" s="76"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="36"/>
       <c r="T35" s="7"/>
-      <c r="U35" s="117"/>
-      <c r="V35" s="124"/>
+      <c r="U35" s="85"/>
+      <c r="V35" s="92"/>
       <c r="W35" s="7"/>
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
       <c r="AA35" s="7"/>
-      <c r="AB35" s="117"/>
-      <c r="AC35" s="124"/>
+      <c r="AB35" s="85"/>
+      <c r="AC35" s="92"/>
       <c r="AD35" s="7"/>
-      <c r="AE35" s="9"/>
-      <c r="AF35" s="11"/>
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="7"/>
       <c r="AG35" s="7"/>
       <c r="AH35" s="7"/>
-      <c r="AI35" s="117"/>
-      <c r="AJ35" s="124"/>
+      <c r="AI35" s="85"/>
+      <c r="AJ35" s="92"/>
       <c r="AK35" s="7"/>
       <c r="AL35" s="7"/>
       <c r="AM35" s="7"/>
       <c r="AN35" s="7"/>
       <c r="AO35" s="7"/>
-      <c r="AP35" s="117"/>
-      <c r="AQ35" s="124"/>
+      <c r="AP35" s="85"/>
+      <c r="AQ35" s="92"/>
       <c r="AR35" s="7"/>
       <c r="AS35" s="7"/>
       <c r="AT35" s="7"/>
       <c r="AU35" s="7"/>
       <c r="AV35" s="7"/>
-      <c r="AW35" s="117"/>
+      <c r="AW35" s="85"/>
       <c r="AX35" s="7"/>
-      <c r="AY35" s="53"/>
-      <c r="AZ35" s="60"/>
+      <c r="AY35" s="37"/>
+      <c r="AZ35" s="43"/>
     </row>
     <row r="36" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B36" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="C36" s="104" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="35"/>
+      <c r="B36" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="99" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="99"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="99"/>
+      <c r="M36" s="100"/>
       <c r="N36" s="17" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="O36" s="17">
-        <v>10.11</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="P36" s="21" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="Q36" s="17"/>
-      <c r="R36" s="46">
+      <c r="R36" s="31">
         <v>1</v>
       </c>
-      <c r="S36" s="52"/>
+      <c r="S36" s="36"/>
       <c r="T36" s="7"/>
-      <c r="U36" s="117"/>
-      <c r="V36" s="124"/>
+      <c r="U36" s="85"/>
+      <c r="V36" s="92"/>
       <c r="W36" s="7"/>
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
       <c r="Z36" s="7"/>
       <c r="AA36" s="7"/>
-      <c r="AB36" s="117"/>
-      <c r="AC36" s="124"/>
+      <c r="AB36" s="85"/>
+      <c r="AC36" s="92"/>
       <c r="AD36" s="7"/>
-      <c r="AE36" s="9"/>
-      <c r="AF36" s="9"/>
-      <c r="AG36" s="9"/>
-      <c r="AH36" s="9"/>
-      <c r="AI36" s="119"/>
-      <c r="AJ36" s="126"/>
-      <c r="AK36" s="9"/>
-      <c r="AL36" s="9"/>
-      <c r="AM36" s="9"/>
-      <c r="AN36" s="9"/>
-      <c r="AO36" s="9"/>
-      <c r="AP36" s="119"/>
-      <c r="AQ36" s="126"/>
-      <c r="AR36" s="9"/>
-      <c r="AS36" s="9"/>
-      <c r="AT36" s="9"/>
+      <c r="AE36" s="11"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="7"/>
+      <c r="AI36" s="85"/>
+      <c r="AJ36" s="92"/>
+      <c r="AK36" s="7"/>
+      <c r="AL36" s="7"/>
+      <c r="AM36" s="7"/>
+      <c r="AN36" s="7"/>
+      <c r="AO36" s="7"/>
+      <c r="AP36" s="85"/>
+      <c r="AQ36" s="92"/>
+      <c r="AR36" s="7"/>
+      <c r="AS36" s="7"/>
+      <c r="AT36" s="7"/>
       <c r="AU36" s="7"/>
       <c r="AV36" s="7"/>
-      <c r="AW36" s="117"/>
+      <c r="AW36" s="85"/>
       <c r="AX36" s="7"/>
-      <c r="AY36" s="53"/>
-      <c r="AZ36" s="60"/>
+      <c r="AY36" s="37"/>
+      <c r="AZ36" s="43"/>
     </row>
     <row r="37" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B37" s="87" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="98" t="s">
-        <v>116</v>
-      </c>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="99"/>
-      <c r="N37" s="108"/>
-      <c r="O37" s="108"/>
-      <c r="P37" s="112"/>
-      <c r="Q37" s="108"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="52"/>
+      <c r="B37" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="99" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="99"/>
+      <c r="J37" s="99"/>
+      <c r="K37" s="99"/>
+      <c r="L37" s="99"/>
+      <c r="M37" s="100"/>
+      <c r="N37" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="O37" s="17">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="P37" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="31">
+        <v>1</v>
+      </c>
+      <c r="S37" s="36"/>
       <c r="T37" s="7"/>
-      <c r="U37" s="117"/>
-      <c r="V37" s="124"/>
+      <c r="U37" s="85"/>
+      <c r="V37" s="92"/>
       <c r="W37" s="7"/>
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="7"/>
       <c r="AA37" s="7"/>
-      <c r="AB37" s="117"/>
-      <c r="AC37" s="124"/>
+      <c r="AB37" s="85"/>
+      <c r="AC37" s="92"/>
       <c r="AD37" s="7"/>
       <c r="AE37" s="7"/>
-      <c r="AF37" s="7"/>
-      <c r="AG37" s="7"/>
-      <c r="AH37" s="7"/>
-      <c r="AI37" s="117"/>
-      <c r="AJ37" s="124"/>
+      <c r="AF37" s="11"/>
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="85"/>
+      <c r="AJ37" s="92"/>
       <c r="AK37" s="7"/>
       <c r="AL37" s="7"/>
       <c r="AM37" s="7"/>
       <c r="AN37" s="7"/>
       <c r="AO37" s="7"/>
-      <c r="AP37" s="117"/>
-      <c r="AQ37" s="124"/>
+      <c r="AP37" s="85"/>
+      <c r="AQ37" s="92"/>
       <c r="AR37" s="7"/>
       <c r="AS37" s="7"/>
       <c r="AT37" s="7"/>
       <c r="AU37" s="7"/>
       <c r="AV37" s="7"/>
-      <c r="AW37" s="117"/>
+      <c r="AW37" s="85"/>
       <c r="AX37" s="7"/>
-      <c r="AY37" s="53"/>
-      <c r="AZ37" s="60"/>
+      <c r="AY37" s="37"/>
+      <c r="AZ37" s="43"/>
     </row>
     <row r="38" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B38" s="88" t="s">
-        <v>125</v>
-      </c>
-      <c r="C38" s="102" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="35"/>
+      <c r="B38" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="99" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="99"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="99"/>
+      <c r="J38" s="99"/>
+      <c r="K38" s="99"/>
+      <c r="L38" s="99"/>
+      <c r="M38" s="100"/>
       <c r="N38" s="17" t="s">
         <v>132</v>
       </c>
       <c r="O38" s="17">
-        <v>10.119999999999999</v>
+        <v>10.14</v>
       </c>
       <c r="P38" s="21" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="Q38" s="17"/>
-      <c r="R38" s="46">
+      <c r="R38" s="31">
         <v>1</v>
       </c>
-      <c r="S38" s="52"/>
+      <c r="S38" s="36"/>
       <c r="T38" s="7"/>
-      <c r="U38" s="117"/>
-      <c r="V38" s="124"/>
+      <c r="U38" s="85"/>
+      <c r="V38" s="92"/>
       <c r="W38" s="7"/>
       <c r="X38" s="7"/>
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
-      <c r="AB38" s="117"/>
-      <c r="AC38" s="124"/>
+      <c r="AB38" s="85"/>
+      <c r="AC38" s="92"/>
       <c r="AD38" s="7"/>
-      <c r="AE38" s="11"/>
-      <c r="AF38" s="8"/>
-      <c r="AG38" s="8"/>
-      <c r="AH38" s="7"/>
-      <c r="AI38" s="117"/>
-      <c r="AJ38" s="124"/>
-      <c r="AK38" s="7"/>
-      <c r="AL38" s="7"/>
-      <c r="AM38" s="7"/>
-      <c r="AN38" s="7"/>
-      <c r="AO38" s="7"/>
-      <c r="AP38" s="117"/>
-      <c r="AQ38" s="124"/>
-      <c r="AR38" s="7"/>
-      <c r="AS38" s="7"/>
-      <c r="AT38" s="7"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="7"/>
+      <c r="AG38" s="7"/>
+      <c r="AH38" s="9"/>
+      <c r="AI38" s="87"/>
+      <c r="AJ38" s="94"/>
+      <c r="AK38" s="9"/>
+      <c r="AL38" s="9"/>
+      <c r="AM38" s="9"/>
+      <c r="AN38" s="9"/>
+      <c r="AO38" s="9"/>
+      <c r="AP38" s="87"/>
+      <c r="AQ38" s="94"/>
+      <c r="AR38" s="9"/>
+      <c r="AS38" s="9"/>
+      <c r="AT38" s="9"/>
       <c r="AU38" s="7"/>
       <c r="AV38" s="7"/>
-      <c r="AW38" s="117"/>
+      <c r="AW38" s="85"/>
       <c r="AX38" s="7"/>
-      <c r="AY38" s="53"/>
-      <c r="AZ38" s="60"/>
+      <c r="AY38" s="37"/>
+      <c r="AZ38" s="43"/>
     </row>
     <row r="39" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B39" s="88" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" s="102" t="s">
-        <v>119</v>
-      </c>
-      <c r="D39" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="35"/>
+      <c r="B39" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="99" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="99"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="99"/>
+      <c r="I39" s="99"/>
+      <c r="J39" s="99"/>
+      <c r="K39" s="99"/>
+      <c r="L39" s="99"/>
+      <c r="M39" s="100"/>
       <c r="N39" s="17" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="O39" s="17">
-        <v>10.130000000000001</v>
+        <v>10.19</v>
       </c>
       <c r="P39" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="46">
-        <v>1</v>
-      </c>
-      <c r="S39" s="52"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="117"/>
-      <c r="V39" s="124"/>
-      <c r="W39" s="7"/>
-      <c r="X39" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="129">
+        <v>2</v>
+      </c>
+      <c r="S39" s="39"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="88"/>
+      <c r="V39" s="95"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
       <c r="AA39" s="7"/>
-      <c r="AB39" s="117"/>
-      <c r="AC39" s="124"/>
+      <c r="AB39" s="85"/>
+      <c r="AC39" s="92"/>
       <c r="AD39" s="7"/>
       <c r="AE39" s="7"/>
-      <c r="AF39" s="11"/>
-      <c r="AG39" s="8"/>
-      <c r="AH39" s="8"/>
-      <c r="AI39" s="117"/>
-      <c r="AJ39" s="124"/>
+      <c r="AF39" s="7"/>
+      <c r="AG39" s="7"/>
+      <c r="AH39" s="7"/>
+      <c r="AI39" s="85"/>
+      <c r="AJ39" s="92"/>
       <c r="AK39" s="7"/>
       <c r="AL39" s="7"/>
-      <c r="AM39" s="7"/>
-      <c r="AN39" s="7"/>
-      <c r="AO39" s="7"/>
-      <c r="AP39" s="117"/>
-      <c r="AQ39" s="124"/>
+      <c r="AM39" s="8"/>
+      <c r="AN39" s="8"/>
+      <c r="AO39" s="8"/>
+      <c r="AP39" s="85"/>
+      <c r="AQ39" s="92"/>
       <c r="AR39" s="7"/>
       <c r="AS39" s="7"/>
       <c r="AT39" s="7"/>
       <c r="AU39" s="7"/>
       <c r="AV39" s="7"/>
-      <c r="AW39" s="117"/>
+      <c r="AW39" s="85"/>
       <c r="AX39" s="7"/>
-      <c r="AY39" s="53"/>
-      <c r="AZ39" s="60"/>
+      <c r="AY39" s="37"/>
+      <c r="AZ39" s="43"/>
     </row>
     <row r="40" spans="2:52" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="90" t="s">
-        <v>126</v>
-      </c>
-      <c r="C40" s="106" t="s">
-        <v>121</v>
-      </c>
-      <c r="D40" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="107"/>
-      <c r="N40" s="111" t="s">
-        <v>134</v>
-      </c>
-      <c r="O40" s="111">
-        <v>10.14</v>
-      </c>
-      <c r="P40" s="113" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q40" s="111"/>
-      <c r="R40" s="51">
-        <v>1</v>
-      </c>
-      <c r="S40" s="56"/>
-      <c r="T40" s="57"/>
-      <c r="U40" s="121"/>
-      <c r="V40" s="128"/>
-      <c r="W40" s="57"/>
-      <c r="X40" s="57"/>
-      <c r="Y40" s="57"/>
-      <c r="Z40" s="57"/>
-      <c r="AA40" s="57"/>
-      <c r="AB40" s="121"/>
-      <c r="AC40" s="128"/>
-      <c r="AD40" s="57"/>
-      <c r="AE40" s="57"/>
-      <c r="AF40" s="57"/>
-      <c r="AG40" s="57"/>
-      <c r="AH40" s="58"/>
-      <c r="AI40" s="129"/>
-      <c r="AJ40" s="130"/>
-      <c r="AK40" s="58"/>
-      <c r="AL40" s="58"/>
-      <c r="AM40" s="58"/>
-      <c r="AN40" s="58"/>
-      <c r="AO40" s="58"/>
-      <c r="AP40" s="129"/>
-      <c r="AQ40" s="130"/>
-      <c r="AR40" s="58"/>
-      <c r="AS40" s="58"/>
-      <c r="AT40" s="58"/>
-      <c r="AU40" s="57"/>
-      <c r="AV40" s="57"/>
-      <c r="AW40" s="121"/>
-      <c r="AX40" s="57"/>
-      <c r="AY40" s="59"/>
-      <c r="AZ40" s="61"/>
+      <c r="B40" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="97" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" s="97"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="97"/>
+      <c r="I40" s="97"/>
+      <c r="J40" s="97"/>
+      <c r="K40" s="97"/>
+      <c r="L40" s="97"/>
+      <c r="M40" s="98"/>
+      <c r="N40" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="O40" s="79">
+        <v>10.24</v>
+      </c>
+      <c r="P40" s="81" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q40" s="130"/>
+      <c r="R40" s="35">
+        <v>2</v>
+      </c>
+      <c r="S40" s="131"/>
+      <c r="T40" s="132"/>
+      <c r="U40" s="133"/>
+      <c r="V40" s="134"/>
+      <c r="W40" s="132"/>
+      <c r="X40" s="132"/>
+      <c r="Y40" s="40"/>
+      <c r="Z40" s="40"/>
+      <c r="AA40" s="40"/>
+      <c r="AB40" s="89"/>
+      <c r="AC40" s="96"/>
+      <c r="AD40" s="40"/>
+      <c r="AE40" s="40"/>
+      <c r="AF40" s="40"/>
+      <c r="AG40" s="40"/>
+      <c r="AH40" s="40"/>
+      <c r="AI40" s="89"/>
+      <c r="AJ40" s="96"/>
+      <c r="AK40" s="40"/>
+      <c r="AL40" s="40"/>
+      <c r="AM40" s="132"/>
+      <c r="AN40" s="132"/>
+      <c r="AO40" s="132"/>
+      <c r="AP40" s="133"/>
+      <c r="AQ40" s="96"/>
+      <c r="AR40" s="41"/>
+      <c r="AS40" s="41"/>
+      <c r="AT40" s="41"/>
+      <c r="AU40" s="40"/>
+      <c r="AV40" s="40"/>
+      <c r="AW40" s="89"/>
+      <c r="AX40" s="40"/>
+      <c r="AY40" s="42"/>
+      <c r="AZ40" s="44"/>
+    </row>
+    <row r="42" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="G42" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="D40:M40"/>
-    <mergeCell ref="D35:M35"/>
-    <mergeCell ref="D34:M34"/>
-    <mergeCell ref="C37:M37"/>
-    <mergeCell ref="D38:M38"/>
-    <mergeCell ref="D39:M39"/>
-    <mergeCell ref="D36:M36"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="D30:M30"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="C23:M23"/>
-    <mergeCell ref="D24:M24"/>
-    <mergeCell ref="C32:M32"/>
-    <mergeCell ref="D33:M33"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="D18:M18"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="D12:M12"/>
+    <mergeCell ref="D13:M13"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="D17:M17"/>
     <mergeCell ref="U5:AY5"/>
     <mergeCell ref="AZ5:AZ6"/>
     <mergeCell ref="D20:M20"/>
@@ -5652,18 +5733,35 @@
     <mergeCell ref="C11:M11"/>
     <mergeCell ref="C19:M19"/>
     <mergeCell ref="D10:M10"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="D12:M12"/>
-    <mergeCell ref="D13:M13"/>
-    <mergeCell ref="D14:M14"/>
-    <mergeCell ref="D17:M17"/>
-    <mergeCell ref="D18:M18"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="D40:M40"/>
+    <mergeCell ref="C23:M23"/>
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="C30:M30"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="D39:M39"/>
+    <mergeCell ref="D38:M38"/>
+    <mergeCell ref="D33:M33"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="C35:M35"/>
+    <mergeCell ref="D36:M36"/>
+    <mergeCell ref="D37:M37"/>
+    <mergeCell ref="D34:M34"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B7 B11 B19 P20:P22 P18 B23 P34:P35 P27:P31 P38:P40 P33 P36 B37" numberStoredAsText="1"/>
+    <ignoredError sqref="B7 B11 B19 P20:P22 P18 B23 P32:P33 P27:P29 P36:P40 P31 P34 B35" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/일정관리/WBS&Gantt.xlsx
+++ b/일정관리/WBS&Gantt.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="10월" sheetId="1" r:id="rId1"/>
@@ -1613,119 +1613,119 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2686,13 +2686,13 @@
       <xdr:col>25</xdr:col>
       <xdr:colOff>1471</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>88951</xdr:rowOff>
+      <xdr:rowOff>75344</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>246530</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
+      <xdr:rowOff>132069</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2701,8 +2701,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12753765" y="3742069"/>
-          <a:ext cx="1365647" cy="56725"/>
+          <a:off x="12696935" y="3585987"/>
+          <a:ext cx="1333631" cy="56725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3199,7 +3199,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
+      <selection pane="bottomLeft" activeCell="BB31" sqref="BB31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3265,37 +3265,37 @@
     </row>
     <row r="4" spans="2:52" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:52" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="108" t="s">
+      <c r="D5" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108" t="s">
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="108" t="s">
+      <c r="O5" s="117" t="s">
         <v>4</v>
       </c>
       <c r="P5" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="108" t="s">
+      <c r="Q5" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="117" t="s">
+      <c r="R5" s="119" t="s">
         <v>6</v>
       </c>
       <c r="S5" s="114" t="s">
@@ -3340,23 +3340,23 @@
       </c>
     </row>
     <row r="6" spans="2:52" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="107"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="118"/>
+      <c r="M6" s="118"/>
+      <c r="N6" s="118"/>
+      <c r="O6" s="118"/>
       <c r="P6" s="116"/>
-      <c r="Q6" s="109"/>
-      <c r="R6" s="118"/>
+      <c r="Q6" s="118"/>
+      <c r="R6" s="120"/>
       <c r="S6" s="2">
         <v>29</v>
       </c>
@@ -3522,18 +3522,18 @@
       <c r="C8" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="119" t="s">
+      <c r="D8" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="120"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="107"/>
       <c r="N8" s="13" t="s">
         <v>27</v>
       </c>
@@ -3591,18 +3591,18 @@
       <c r="C9" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="119" t="s">
+      <c r="D9" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="120"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="107"/>
       <c r="N9" s="14" t="s">
         <v>32</v>
       </c>
@@ -3660,18 +3660,18 @@
       <c r="C10" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="124" t="s">
+      <c r="D10" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="124"/>
-      <c r="M10" s="125"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="127"/>
+      <c r="M10" s="128"/>
       <c r="N10" s="14" t="s">
         <v>30</v>
       </c>
@@ -3726,19 +3726,19 @@
       <c r="B11" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="101" t="s">
+      <c r="C11" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="103"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="125"/>
+      <c r="K11" s="125"/>
+      <c r="L11" s="125"/>
+      <c r="M11" s="126"/>
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
@@ -3786,18 +3786,18 @@
       <c r="C12" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="126" t="s">
+      <c r="D12" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="126"/>
-      <c r="K12" s="126"/>
-      <c r="L12" s="126"/>
-      <c r="M12" s="127"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="109"/>
       <c r="N12" s="16" t="s">
         <v>11</v>
       </c>
@@ -3855,18 +3855,18 @@
       <c r="C13" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="99" t="s">
+      <c r="D13" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="100"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="105"/>
       <c r="N13" s="17" t="s">
         <v>38</v>
       </c>
@@ -3924,18 +3924,18 @@
       <c r="C14" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="99" t="s">
+      <c r="D14" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="100"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="105"/>
       <c r="N14" s="17" t="s">
         <v>39</v>
       </c>
@@ -3993,18 +3993,18 @@
       <c r="C15" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="99" t="s">
+      <c r="D15" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="100"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="104"/>
+      <c r="M15" s="105"/>
       <c r="N15" s="17" t="s">
         <v>40</v>
       </c>
@@ -4062,18 +4062,18 @@
       <c r="C16" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="99" t="s">
+      <c r="D16" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="100"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="105"/>
       <c r="N16" s="17" t="s">
         <v>41</v>
       </c>
@@ -4131,18 +4131,18 @@
       <c r="C17" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="99" t="s">
+      <c r="D17" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="100"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="105"/>
       <c r="N17" s="17" t="s">
         <v>44</v>
       </c>
@@ -4200,18 +4200,18 @@
       <c r="C18" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="99" t="s">
+      <c r="D18" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="100"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="105"/>
       <c r="N18" s="17" t="s">
         <v>127</v>
       </c>
@@ -4266,19 +4266,19 @@
       <c r="B19" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="101" t="s">
+      <c r="C19" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="102"/>
-      <c r="K19" s="102"/>
-      <c r="L19" s="102"/>
-      <c r="M19" s="103"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="125"/>
+      <c r="K19" s="125"/>
+      <c r="L19" s="125"/>
+      <c r="M19" s="126"/>
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
       <c r="P19" s="15"/>
@@ -4326,18 +4326,18 @@
       <c r="C20" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="99" t="s">
+      <c r="D20" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="100"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="104"/>
+      <c r="M20" s="105"/>
       <c r="N20" s="17" t="s">
         <v>78</v>
       </c>
@@ -4395,18 +4395,18 @@
       <c r="C21" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="99" t="s">
+      <c r="D21" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="100"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="104"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="104"/>
+      <c r="M21" s="105"/>
       <c r="N21" s="17" t="s">
         <v>79</v>
       </c>
@@ -4464,18 +4464,18 @@
       <c r="C22" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="99" t="s">
+      <c r="D22" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="100"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="104"/>
+      <c r="M22" s="105"/>
       <c r="N22" s="17" t="s">
         <v>11</v>
       </c>
@@ -4530,19 +4530,19 @@
       <c r="B23" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="101" t="s">
+      <c r="C23" s="124" t="s">
         <v>128</v>
       </c>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="102"/>
-      <c r="K23" s="102"/>
-      <c r="L23" s="102"/>
-      <c r="M23" s="103"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="125"/>
+      <c r="I23" s="125"/>
+      <c r="J23" s="125"/>
+      <c r="K23" s="125"/>
+      <c r="L23" s="125"/>
+      <c r="M23" s="126"/>
       <c r="N23" s="76"/>
       <c r="O23" s="76"/>
       <c r="P23" s="80"/>
@@ -4590,18 +4590,18 @@
       <c r="C24" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="104" t="s">
+      <c r="D24" s="133" t="s">
         <v>129</v>
       </c>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="104"/>
-      <c r="K24" s="104"/>
-      <c r="L24" s="104"/>
-      <c r="M24" s="105"/>
+      <c r="E24" s="133"/>
+      <c r="F24" s="133"/>
+      <c r="G24" s="133"/>
+      <c r="H24" s="133"/>
+      <c r="I24" s="133"/>
+      <c r="J24" s="133"/>
+      <c r="K24" s="133"/>
+      <c r="L24" s="133"/>
+      <c r="M24" s="134"/>
       <c r="N24" s="77" t="s">
         <v>75</v>
       </c>
@@ -4654,21 +4654,21 @@
       <c r="B25" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="128" t="s">
+      <c r="C25" s="97" t="s">
         <v>134</v>
       </c>
-      <c r="D25" s="104" t="s">
+      <c r="D25" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="104"/>
-      <c r="J25" s="104"/>
-      <c r="K25" s="104"/>
-      <c r="L25" s="104"/>
-      <c r="M25" s="105"/>
+      <c r="E25" s="133"/>
+      <c r="F25" s="133"/>
+      <c r="G25" s="133"/>
+      <c r="H25" s="133"/>
+      <c r="I25" s="133"/>
+      <c r="J25" s="133"/>
+      <c r="K25" s="133"/>
+      <c r="L25" s="133"/>
+      <c r="M25" s="134"/>
       <c r="N25" s="77" t="s">
         <v>80</v>
       </c>
@@ -4724,18 +4724,18 @@
       <c r="C26" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="104" t="s">
+      <c r="D26" s="133" t="s">
         <v>90</v>
       </c>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="104"/>
-      <c r="K26" s="104"/>
-      <c r="L26" s="104"/>
-      <c r="M26" s="105"/>
+      <c r="E26" s="133"/>
+      <c r="F26" s="133"/>
+      <c r="G26" s="133"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="133"/>
+      <c r="J26" s="133"/>
+      <c r="K26" s="133"/>
+      <c r="L26" s="133"/>
+      <c r="M26" s="134"/>
       <c r="N26" s="77" t="s">
         <v>89</v>
       </c>
@@ -4791,18 +4791,18 @@
       <c r="C27" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="99" t="s">
+      <c r="D27" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="99"/>
-      <c r="M27" s="100"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="104"/>
+      <c r="L27" s="104"/>
+      <c r="M27" s="105"/>
       <c r="N27" s="17" t="s">
         <v>95</v>
       </c>
@@ -4858,18 +4858,18 @@
       <c r="C28" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="99" t="s">
+      <c r="D28" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="99"/>
-      <c r="L28" s="99"/>
-      <c r="M28" s="100"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="104"/>
+      <c r="J28" s="104"/>
+      <c r="K28" s="104"/>
+      <c r="L28" s="104"/>
+      <c r="M28" s="105"/>
       <c r="N28" s="17" t="s">
         <v>100</v>
       </c>
@@ -4925,18 +4925,18 @@
       <c r="C29" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="99" t="s">
+      <c r="D29" s="104" t="s">
         <v>104</v>
       </c>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="99"/>
-      <c r="M29" s="100"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="104"/>
+      <c r="J29" s="104"/>
+      <c r="K29" s="104"/>
+      <c r="L29" s="104"/>
+      <c r="M29" s="105"/>
       <c r="N29" s="17" t="s">
         <v>105</v>
       </c>
@@ -4989,19 +4989,19 @@
       <c r="B30" s="66">
         <v>5</v>
       </c>
-      <c r="C30" s="101" t="s">
+      <c r="C30" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="102"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="102"/>
-      <c r="I30" s="102"/>
-      <c r="J30" s="102"/>
-      <c r="K30" s="102"/>
-      <c r="L30" s="102"/>
-      <c r="M30" s="103"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="125"/>
+      <c r="H30" s="125"/>
+      <c r="I30" s="125"/>
+      <c r="J30" s="125"/>
+      <c r="K30" s="125"/>
+      <c r="L30" s="125"/>
+      <c r="M30" s="126"/>
       <c r="N30" s="78"/>
       <c r="O30" s="76"/>
       <c r="P30" s="76"/>
@@ -5049,18 +5049,18 @@
       <c r="C31" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="99" t="s">
+      <c r="D31" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="99"/>
-      <c r="K31" s="99"/>
-      <c r="L31" s="99"/>
-      <c r="M31" s="100"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="104"/>
+      <c r="L31" s="104"/>
+      <c r="M31" s="105"/>
       <c r="N31" s="17" t="s">
         <v>67</v>
       </c>
@@ -5118,18 +5118,18 @@
       <c r="C32" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="99" t="s">
+      <c r="D32" s="104" t="s">
         <v>126</v>
       </c>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="99"/>
-      <c r="L32" s="99"/>
-      <c r="M32" s="100"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="104"/>
+      <c r="L32" s="104"/>
+      <c r="M32" s="105"/>
       <c r="N32" s="17" t="s">
         <v>77</v>
       </c>
@@ -5185,18 +5185,18 @@
       <c r="C33" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="D33" s="99" t="s">
+      <c r="D33" s="104" t="s">
         <v>120</v>
       </c>
-      <c r="E33" s="99"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="99"/>
-      <c r="K33" s="99"/>
-      <c r="L33" s="99"/>
-      <c r="M33" s="100"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="104"/>
+      <c r="J33" s="104"/>
+      <c r="K33" s="104"/>
+      <c r="L33" s="104"/>
+      <c r="M33" s="105"/>
       <c r="N33" s="17" t="s">
         <v>86</v>
       </c>
@@ -5254,18 +5254,18 @@
       <c r="C34" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="99" t="s">
+      <c r="D34" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="99"/>
-      <c r="K34" s="99"/>
-      <c r="L34" s="99"/>
-      <c r="M34" s="100"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="104"/>
+      <c r="J34" s="104"/>
+      <c r="K34" s="104"/>
+      <c r="L34" s="104"/>
+      <c r="M34" s="105"/>
       <c r="N34" s="17" t="s">
         <v>86</v>
       </c>
@@ -5318,19 +5318,19 @@
       <c r="B35" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="101" t="s">
+      <c r="C35" s="124" t="s">
         <v>114</v>
       </c>
-      <c r="D35" s="102"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="102"/>
-      <c r="H35" s="102"/>
-      <c r="I35" s="102"/>
-      <c r="J35" s="102"/>
-      <c r="K35" s="102"/>
-      <c r="L35" s="102"/>
-      <c r="M35" s="103"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="125"/>
+      <c r="G35" s="125"/>
+      <c r="H35" s="125"/>
+      <c r="I35" s="125"/>
+      <c r="J35" s="125"/>
+      <c r="K35" s="125"/>
+      <c r="L35" s="125"/>
+      <c r="M35" s="126"/>
       <c r="N35" s="76"/>
       <c r="O35" s="76"/>
       <c r="P35" s="80"/>
@@ -5378,18 +5378,18 @@
       <c r="C36" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="99" t="s">
+      <c r="D36" s="104" t="s">
         <v>116</v>
       </c>
-      <c r="E36" s="99"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="99"/>
-      <c r="I36" s="99"/>
-      <c r="J36" s="99"/>
-      <c r="K36" s="99"/>
-      <c r="L36" s="99"/>
-      <c r="M36" s="100"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="104"/>
+      <c r="I36" s="104"/>
+      <c r="J36" s="104"/>
+      <c r="K36" s="104"/>
+      <c r="L36" s="104"/>
+      <c r="M36" s="105"/>
       <c r="N36" s="17" t="s">
         <v>130</v>
       </c>
@@ -5445,18 +5445,18 @@
       <c r="C37" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="99" t="s">
+      <c r="D37" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="99"/>
-      <c r="I37" s="99"/>
-      <c r="J37" s="99"/>
-      <c r="K37" s="99"/>
-      <c r="L37" s="99"/>
-      <c r="M37" s="100"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="104"/>
+      <c r="G37" s="104"/>
+      <c r="H37" s="104"/>
+      <c r="I37" s="104"/>
+      <c r="J37" s="104"/>
+      <c r="K37" s="104"/>
+      <c r="L37" s="104"/>
+      <c r="M37" s="105"/>
       <c r="N37" s="17" t="s">
         <v>77</v>
       </c>
@@ -5512,18 +5512,18 @@
       <c r="C38" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="D38" s="99" t="s">
+      <c r="D38" s="104" t="s">
         <v>131</v>
       </c>
-      <c r="E38" s="99"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="99"/>
-      <c r="H38" s="99"/>
-      <c r="I38" s="99"/>
-      <c r="J38" s="99"/>
-      <c r="K38" s="99"/>
-      <c r="L38" s="99"/>
-      <c r="M38" s="100"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="104"/>
+      <c r="K38" s="104"/>
+      <c r="L38" s="104"/>
+      <c r="M38" s="105"/>
       <c r="N38" s="17" t="s">
         <v>132</v>
       </c>
@@ -5579,18 +5579,18 @@
       <c r="C39" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="99" t="s">
+      <c r="D39" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="E39" s="99"/>
-      <c r="F39" s="99"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="99"/>
-      <c r="I39" s="99"/>
-      <c r="J39" s="99"/>
-      <c r="K39" s="99"/>
-      <c r="L39" s="99"/>
-      <c r="M39" s="100"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="104"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="104"/>
+      <c r="J39" s="104"/>
+      <c r="K39" s="104"/>
+      <c r="L39" s="104"/>
+      <c r="M39" s="105"/>
       <c r="N39" s="17" t="s">
         <v>108</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>101</v>
       </c>
       <c r="Q39" s="25"/>
-      <c r="R39" s="129">
+      <c r="R39" s="98">
         <v>2</v>
       </c>
       <c r="S39" s="39"/>
@@ -5646,18 +5646,18 @@
       <c r="C40" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="D40" s="97" t="s">
+      <c r="D40" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="E40" s="97"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="97"/>
-      <c r="I40" s="97"/>
-      <c r="J40" s="97"/>
-      <c r="K40" s="97"/>
-      <c r="L40" s="97"/>
-      <c r="M40" s="98"/>
+      <c r="E40" s="131"/>
+      <c r="F40" s="131"/>
+      <c r="G40" s="131"/>
+      <c r="H40" s="131"/>
+      <c r="I40" s="131"/>
+      <c r="J40" s="131"/>
+      <c r="K40" s="131"/>
+      <c r="L40" s="131"/>
+      <c r="M40" s="132"/>
       <c r="N40" s="79" t="s">
         <v>111</v>
       </c>
@@ -5667,16 +5667,16 @@
       <c r="P40" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="Q40" s="130"/>
+      <c r="Q40" s="99"/>
       <c r="R40" s="35">
         <v>2</v>
       </c>
-      <c r="S40" s="131"/>
-      <c r="T40" s="132"/>
-      <c r="U40" s="133"/>
-      <c r="V40" s="134"/>
-      <c r="W40" s="132"/>
-      <c r="X40" s="132"/>
+      <c r="S40" s="100"/>
+      <c r="T40" s="101"/>
+      <c r="U40" s="102"/>
+      <c r="V40" s="103"/>
+      <c r="W40" s="101"/>
+      <c r="X40" s="101"/>
       <c r="Y40" s="40"/>
       <c r="Z40" s="40"/>
       <c r="AA40" s="40"/>
@@ -5691,10 +5691,10 @@
       <c r="AJ40" s="96"/>
       <c r="AK40" s="40"/>
       <c r="AL40" s="40"/>
-      <c r="AM40" s="132"/>
-      <c r="AN40" s="132"/>
-      <c r="AO40" s="132"/>
-      <c r="AP40" s="133"/>
+      <c r="AM40" s="101"/>
+      <c r="AN40" s="101"/>
+      <c r="AO40" s="101"/>
+      <c r="AP40" s="102"/>
       <c r="AQ40" s="96"/>
       <c r="AR40" s="41"/>
       <c r="AS40" s="41"/>
@@ -5711,12 +5711,29 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="D18:M18"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="D12:M12"/>
-    <mergeCell ref="D13:M13"/>
-    <mergeCell ref="D14:M14"/>
-    <mergeCell ref="D17:M17"/>
+    <mergeCell ref="D37:M37"/>
+    <mergeCell ref="D34:M34"/>
+    <mergeCell ref="D40:M40"/>
+    <mergeCell ref="C23:M23"/>
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="C30:M30"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="D39:M39"/>
+    <mergeCell ref="D38:M38"/>
+    <mergeCell ref="D33:M33"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="C35:M35"/>
+    <mergeCell ref="D36:M36"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
     <mergeCell ref="U5:AY5"/>
     <mergeCell ref="AZ5:AZ6"/>
     <mergeCell ref="D20:M20"/>
@@ -5733,29 +5750,12 @@
     <mergeCell ref="C11:M11"/>
     <mergeCell ref="C19:M19"/>
     <mergeCell ref="D10:M10"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="D40:M40"/>
-    <mergeCell ref="C23:M23"/>
-    <mergeCell ref="D24:M24"/>
-    <mergeCell ref="C30:M30"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="D39:M39"/>
-    <mergeCell ref="D38:M38"/>
-    <mergeCell ref="D33:M33"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="C35:M35"/>
-    <mergeCell ref="D36:M36"/>
-    <mergeCell ref="D37:M37"/>
-    <mergeCell ref="D34:M34"/>
+    <mergeCell ref="D18:M18"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="D12:M12"/>
+    <mergeCell ref="D13:M13"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="D17:M17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/일정관리/WBS&Gantt.xlsx
+++ b/일정관리/WBS&Gantt.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="10월" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="144">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -405,15 +405,51 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>4-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신혁진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 애니메이션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>김재성</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-5</t>
+    <t>10.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별 이벤트 기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김효진</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -421,19 +457,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>캐릭터 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신혁진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-6</t>
+    <t>특별 이벤트 실행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재혁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용 가게&amp;상호작용 리스트 정리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용 연출 리스트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -441,7 +497,99 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>캐릭터 애니메이션</t>
+    <t>맵 박스 R&amp;D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이트 시스템 기획서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원유훈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 구현 (AR 하나쨩)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 컨셉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박수현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VPS 연출 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 박도일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중단</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이트 시스템 UI 기획서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김효진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재혁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 컨벤션 문서작성</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -449,127 +597,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>특별 이벤트 기획</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김효진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>특별 이벤트 실행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이재혁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.26</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상호작용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상호작용 가게&amp;상호작용 리스트 정리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상호작용 연출 리스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>맵 박스 R&amp;D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이트 시스템 기획서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원유훈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 구현 (AR 하나쨩)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 컨셉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>박수현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VPS 연출 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 박도일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>중단</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-5</t>
+    <t>10.11</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1321,7 +1349,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1640,92 +1668,119 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1879,13 +1934,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>14605</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>77203</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>22411</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1941,13 +1996,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>85397</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>22411</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2003,13 +2058,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>386</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>86711</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>12675</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>148889</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2065,13 +2120,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>5953</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>82227</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>1539</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>136920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2127,13 +2182,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>202181</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>91333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2437,13 +2492,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>16393</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>89648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>201706</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2499,13 +2554,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>208429</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>92121</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>29290</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>149598</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2561,13 +2616,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>2085</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>67765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2685,13 +2740,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>1471</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>75344</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>246530</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>132069</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2747,14 +2802,14 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>4796</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>86850</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>86849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>123265</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
+      <xdr:colOff>149679</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2763,8 +2818,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12331267" y="4378703"/>
-          <a:ext cx="544292" cy="58826"/>
+          <a:off x="12292046" y="4413920"/>
+          <a:ext cx="553097" cy="62829"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2809,13 +2864,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>887</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>95675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>24847</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>157368</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2871,13 +2926,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>24210</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>98016</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>8257</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>162161</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2888,6 +2943,68 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13808246" y="7078480"/>
+          <a:ext cx="256190" cy="64145"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>269139</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>84408</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>253186</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>148553</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="직사각형 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13781032" y="2166301"/>
           <a:ext cx="256190" cy="64145"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3195,11 +3312,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AZ42"/>
+  <dimension ref="B1:AZ44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BB31" sqref="BB31"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3265,98 +3382,98 @@
     </row>
     <row r="4" spans="2:52" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:52" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="117" t="s">
+      <c r="C5" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="117" t="s">
+      <c r="D5" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117" t="s">
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="117" t="s">
+      <c r="O5" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="115" t="s">
+      <c r="P5" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="117" t="s">
+      <c r="Q5" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="119" t="s">
+      <c r="R5" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="114" t="s">
+      <c r="S5" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="T5" s="110"/>
-      <c r="U5" s="110" t="s">
+      <c r="T5" s="117"/>
+      <c r="U5" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="110"/>
-      <c r="W5" s="110"/>
-      <c r="X5" s="110"/>
-      <c r="Y5" s="110"/>
-      <c r="Z5" s="110"/>
-      <c r="AA5" s="110"/>
-      <c r="AB5" s="110"/>
-      <c r="AC5" s="110"/>
-      <c r="AD5" s="110"/>
-      <c r="AE5" s="110"/>
-      <c r="AF5" s="110"/>
-      <c r="AG5" s="110"/>
-      <c r="AH5" s="110"/>
-      <c r="AI5" s="110"/>
-      <c r="AJ5" s="110"/>
-      <c r="AK5" s="110"/>
-      <c r="AL5" s="110"/>
-      <c r="AM5" s="110"/>
-      <c r="AN5" s="110"/>
-      <c r="AO5" s="110"/>
-      <c r="AP5" s="110"/>
-      <c r="AQ5" s="110"/>
-      <c r="AR5" s="110"/>
-      <c r="AS5" s="110"/>
-      <c r="AT5" s="110"/>
-      <c r="AU5" s="110"/>
-      <c r="AV5" s="110"/>
-      <c r="AW5" s="110"/>
-      <c r="AX5" s="110"/>
-      <c r="AY5" s="111"/>
-      <c r="AZ5" s="112" t="s">
+      <c r="V5" s="117"/>
+      <c r="W5" s="117"/>
+      <c r="X5" s="117"/>
+      <c r="Y5" s="117"/>
+      <c r="Z5" s="117"/>
+      <c r="AA5" s="117"/>
+      <c r="AB5" s="117"/>
+      <c r="AC5" s="117"/>
+      <c r="AD5" s="117"/>
+      <c r="AE5" s="117"/>
+      <c r="AF5" s="117"/>
+      <c r="AG5" s="117"/>
+      <c r="AH5" s="117"/>
+      <c r="AI5" s="117"/>
+      <c r="AJ5" s="117"/>
+      <c r="AK5" s="117"/>
+      <c r="AL5" s="117"/>
+      <c r="AM5" s="117"/>
+      <c r="AN5" s="117"/>
+      <c r="AO5" s="117"/>
+      <c r="AP5" s="117"/>
+      <c r="AQ5" s="117"/>
+      <c r="AR5" s="117"/>
+      <c r="AS5" s="117"/>
+      <c r="AT5" s="117"/>
+      <c r="AU5" s="117"/>
+      <c r="AV5" s="117"/>
+      <c r="AW5" s="117"/>
+      <c r="AX5" s="117"/>
+      <c r="AY5" s="118"/>
+      <c r="AZ5" s="119" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:52" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="130"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="118"/>
-      <c r="M6" s="118"/>
-      <c r="N6" s="118"/>
-      <c r="O6" s="118"/>
-      <c r="P6" s="116"/>
-      <c r="Q6" s="118"/>
-      <c r="R6" s="120"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="123"/>
+      <c r="Q6" s="116"/>
+      <c r="R6" s="125"/>
       <c r="S6" s="2">
         <v>29</v>
       </c>
@@ -3456,25 +3573,25 @@
       <c r="AY6" s="2">
         <v>31</v>
       </c>
-      <c r="AZ6" s="113"/>
+      <c r="AZ6" s="120"/>
     </row>
     <row r="7" spans="2:52" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="122"/>
-      <c r="M7" s="123"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
+      <c r="M7" s="130"/>
       <c r="N7" s="45"/>
       <c r="O7" s="45"/>
       <c r="P7" s="45"/>
@@ -3522,18 +3639,18 @@
       <c r="C8" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="106" t="s">
+      <c r="D8" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="107"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="127"/>
       <c r="N8" s="13" t="s">
         <v>27</v>
       </c>
@@ -3591,18 +3708,18 @@
       <c r="C9" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="106" t="s">
+      <c r="D9" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="107"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="126"/>
+      <c r="M9" s="127"/>
       <c r="N9" s="14" t="s">
         <v>32</v>
       </c>
@@ -3660,18 +3777,18 @@
       <c r="C10" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="127" t="s">
+      <c r="D10" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="127"/>
-      <c r="L10" s="127"/>
-      <c r="M10" s="128"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="131"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="131"/>
+      <c r="M10" s="132"/>
       <c r="N10" s="14" t="s">
         <v>30</v>
       </c>
@@ -3722,102 +3839,102 @@
       <c r="AY10" s="56"/>
       <c r="AZ10" s="61"/>
     </row>
-    <row r="11" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B11" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="124" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="125"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="126"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="85"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="85"/>
-      <c r="AC11" s="92"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="85"/>
-      <c r="AJ11" s="92"/>
-      <c r="AK11" s="7"/>
-      <c r="AL11" s="7"/>
-      <c r="AM11" s="7"/>
-      <c r="AN11" s="7"/>
-      <c r="AO11" s="7"/>
-      <c r="AP11" s="85"/>
-      <c r="AQ11" s="92"/>
-      <c r="AR11" s="7"/>
-      <c r="AS11" s="7"/>
-      <c r="AT11" s="7"/>
-      <c r="AU11" s="7"/>
-      <c r="AV11" s="7"/>
-      <c r="AW11" s="85"/>
-      <c r="AX11" s="7"/>
-      <c r="AY11" s="37"/>
-      <c r="AZ11" s="43"/>
+    <row r="11" spans="2:52" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="139" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="140" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="140"/>
+      <c r="K11" s="140"/>
+      <c r="L11" s="140"/>
+      <c r="M11" s="141"/>
+      <c r="N11" s="135" t="s">
+        <v>142</v>
+      </c>
+      <c r="O11" s="135">
+        <v>10.11</v>
+      </c>
+      <c r="P11" s="136" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q11" s="137">
+        <v>1</v>
+      </c>
+      <c r="R11" s="138">
+        <v>2</v>
+      </c>
+      <c r="S11" s="58"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="84"/>
+      <c r="V11" s="91"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="142"/>
+      <c r="Y11" s="142"/>
+      <c r="Z11" s="142"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="84"/>
+      <c r="AC11" s="91"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="143"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="84"/>
+      <c r="AJ11" s="91"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="2"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="84"/>
+      <c r="AQ11" s="91"/>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="2"/>
+      <c r="AU11" s="2"/>
+      <c r="AV11" s="2"/>
+      <c r="AW11" s="84"/>
+      <c r="AX11" s="3"/>
+      <c r="AY11" s="56"/>
+      <c r="AZ11" s="61"/>
     </row>
     <row r="12" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B12" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="108" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="O12" s="16">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="P12" s="20">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="Q12" s="24">
-        <v>1</v>
-      </c>
-      <c r="R12" s="49">
-        <v>1</v>
-      </c>
-      <c r="S12" s="59"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="86"/>
-      <c r="V12" s="93"/>
-      <c r="W12" s="8"/>
+      <c r="B12" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="108" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="110"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="85"/>
+      <c r="V12" s="92"/>
+      <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
@@ -3850,44 +3967,44 @@
     </row>
     <row r="13" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B13" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="104" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="104"/>
-      <c r="M13" s="105"/>
-      <c r="N13" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="O13" s="17">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="P13" s="21">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="Q13" s="25">
+        <v>19</v>
+      </c>
+      <c r="C13" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="133" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="133"/>
+      <c r="L13" s="133"/>
+      <c r="M13" s="134"/>
+      <c r="N13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13" s="16">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="P13" s="20">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="Q13" s="24">
         <v>1</v>
       </c>
-      <c r="R13" s="31">
+      <c r="R13" s="49">
         <v>1</v>
       </c>
-      <c r="S13" s="39"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="85"/>
-      <c r="V13" s="92"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="8"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="86"/>
+      <c r="V13" s="93"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
@@ -3919,13 +4036,13 @@
     </row>
     <row r="14" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B14" s="65" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C14" s="72" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D14" s="104" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="E14" s="104"/>
       <c r="F14" s="104"/>
@@ -3937,27 +4054,27 @@
       <c r="L14" s="104"/>
       <c r="M14" s="105"/>
       <c r="N14" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O14" s="17">
         <v>10.039999999999999</v>
       </c>
       <c r="P14" s="21">
-        <v>10.050000000000001</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="Q14" s="25">
         <v>1</v>
       </c>
       <c r="R14" s="31">
-        <v>2</v>
-      </c>
-      <c r="S14" s="36"/>
+        <v>1</v>
+      </c>
+      <c r="S14" s="39"/>
       <c r="T14" s="7"/>
       <c r="U14" s="85"/>
       <c r="V14" s="92"/>
       <c r="W14" s="7"/>
       <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
+      <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
       <c r="AB14" s="85"/>
@@ -3988,13 +4105,13 @@
     </row>
     <row r="15" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B15" s="65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="72" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D15" s="104" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E15" s="104"/>
       <c r="F15" s="104"/>
@@ -4006,29 +4123,29 @@
       <c r="L15" s="104"/>
       <c r="M15" s="105"/>
       <c r="N15" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O15" s="17">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="P15" s="21">
         <v>10.050000000000001</v>
-      </c>
-      <c r="P15" s="21">
-        <v>10.06</v>
       </c>
       <c r="Q15" s="25">
         <v>1</v>
       </c>
       <c r="R15" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S15" s="36"/>
       <c r="T15" s="7"/>
       <c r="U15" s="85"/>
       <c r="V15" s="92"/>
       <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
+      <c r="X15" s="8"/>
       <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="11"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
       <c r="AB15" s="85"/>
       <c r="AC15" s="92"/>
       <c r="AD15" s="7"/>
@@ -4057,13 +4174,13 @@
     </row>
     <row r="16" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B16" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="73" t="s">
-        <v>11</v>
+        <v>33</v>
+      </c>
+      <c r="C16" s="72" t="s">
+        <v>16</v>
       </c>
       <c r="D16" s="104" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="E16" s="104"/>
       <c r="F16" s="104"/>
@@ -4075,7 +4192,7 @@
       <c r="L16" s="104"/>
       <c r="M16" s="105"/>
       <c r="N16" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O16" s="17">
         <v>10.050000000000001</v>
@@ -4087,7 +4204,7 @@
         <v>1</v>
       </c>
       <c r="R16" s="31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S16" s="36"/>
       <c r="T16" s="7"/>
@@ -4095,9 +4212,9 @@
       <c r="V16" s="92"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="7"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="11"/>
       <c r="AB16" s="85"/>
       <c r="AC16" s="92"/>
       <c r="AD16" s="7"/>
@@ -4126,13 +4243,13 @@
     </row>
     <row r="17" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B17" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="72" t="s">
-        <v>12</v>
+        <v>35</v>
+      </c>
+      <c r="C17" s="73" t="s">
+        <v>11</v>
       </c>
       <c r="D17" s="104" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E17" s="104"/>
       <c r="F17" s="104"/>
@@ -4144,13 +4261,13 @@
       <c r="L17" s="104"/>
       <c r="M17" s="105"/>
       <c r="N17" s="17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O17" s="17">
-        <v>10.039999999999999</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="P17" s="21">
-        <v>10.050000000000001</v>
+        <v>10.06</v>
       </c>
       <c r="Q17" s="25">
         <v>1</v>
@@ -4163,9 +4280,9 @@
       <c r="U17" s="85"/>
       <c r="V17" s="92"/>
       <c r="W17" s="7"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="85"/>
       <c r="AC17" s="92"/>
@@ -4195,13 +4312,13 @@
     </row>
     <row r="18" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B18" s="65" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C18" s="72" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D18" s="104" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="E18" s="104"/>
       <c r="F18" s="104"/>
@@ -4213,29 +4330,29 @@
       <c r="L18" s="104"/>
       <c r="M18" s="105"/>
       <c r="N18" s="17" t="s">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="O18" s="17">
-        <v>10.06</v>
-      </c>
-      <c r="P18" s="21" t="s">
-        <v>63</v>
+        <v>10.039999999999999</v>
+      </c>
+      <c r="P18" s="21">
+        <v>10.050000000000001</v>
       </c>
       <c r="Q18" s="25">
         <v>1</v>
       </c>
       <c r="R18" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S18" s="36"/>
       <c r="T18" s="7"/>
       <c r="U18" s="85"/>
       <c r="V18" s="92"/>
       <c r="W18" s="7"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
       <c r="AB18" s="85"/>
       <c r="AC18" s="92"/>
       <c r="AD18" s="7"/>
@@ -4263,36 +4380,48 @@
       <c r="AZ18" s="43"/>
     </row>
     <row r="19" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B19" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="124" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="125"/>
-      <c r="K19" s="125"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="126"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="32"/>
+      <c r="B19" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="104"/>
+      <c r="M19" s="105"/>
+      <c r="N19" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="O19" s="17">
+        <v>10.06</v>
+      </c>
+      <c r="P19" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q19" s="25">
+        <v>1</v>
+      </c>
+      <c r="R19" s="31">
+        <v>1</v>
+      </c>
       <c r="S19" s="36"/>
       <c r="T19" s="7"/>
       <c r="U19" s="85"/>
       <c r="V19" s="92"/>
       <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="8"/>
       <c r="AB19" s="85"/>
       <c r="AC19" s="92"/>
       <c r="AD19" s="7"/>
@@ -4320,47 +4449,35 @@
       <c r="AZ19" s="43"/>
     </row>
     <row r="20" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B20" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="74" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="104" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="104"/>
-      <c r="K20" s="104"/>
-      <c r="L20" s="104"/>
-      <c r="M20" s="105"/>
-      <c r="N20" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="O20" s="17">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="P20" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q20" s="25">
-        <v>1</v>
-      </c>
-      <c r="R20" s="31">
-        <v>1</v>
-      </c>
-      <c r="S20" s="38"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="87"/>
-      <c r="V20" s="94"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
+      <c r="B20" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="108" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="109"/>
+      <c r="J20" s="109"/>
+      <c r="K20" s="109"/>
+      <c r="L20" s="109"/>
+      <c r="M20" s="110"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="85"/>
+      <c r="V20" s="92"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
       <c r="AB20" s="85"/>
       <c r="AC20" s="92"/>
@@ -4390,13 +4507,13 @@
     </row>
     <row r="21" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B21" s="65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="74" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D21" s="104" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E21" s="104"/>
       <c r="F21" s="104"/>
@@ -4408,29 +4525,29 @@
       <c r="L21" s="104"/>
       <c r="M21" s="105"/>
       <c r="N21" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O21" s="17">
-        <v>10.039999999999999</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="P21" s="21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q21" s="25">
         <v>1</v>
       </c>
       <c r="R21" s="31">
-        <v>2</v>
-      </c>
-      <c r="S21" s="36"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="85"/>
-      <c r="V21" s="92"/>
-      <c r="W21" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="S21" s="38"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="87"/>
+      <c r="V21" s="94"/>
+      <c r="W21" s="9"/>
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="7"/>
       <c r="AB21" s="85"/>
       <c r="AC21" s="92"/>
       <c r="AD21" s="7"/>
@@ -4459,13 +4576,13 @@
     </row>
     <row r="22" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B22" s="65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="74" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D22" s="104" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E22" s="104"/>
       <c r="F22" s="104"/>
@@ -4477,13 +4594,13 @@
       <c r="L22" s="104"/>
       <c r="M22" s="105"/>
       <c r="N22" s="17" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="O22" s="17">
         <v>10.039999999999999</v>
       </c>
       <c r="P22" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q22" s="25">
         <v>1</v>
@@ -4497,9 +4614,9 @@
       <c r="V22" s="92"/>
       <c r="W22" s="7"/>
       <c r="X22" s="9"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
       <c r="AB22" s="85"/>
       <c r="AC22" s="92"/>
       <c r="AD22" s="7"/>
@@ -4527,33 +4644,45 @@
       <c r="AZ22" s="43"/>
     </row>
     <row r="23" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B23" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="124" t="s">
-        <v>128</v>
-      </c>
-      <c r="D23" s="125"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="125"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="125"/>
-      <c r="J23" s="125"/>
-      <c r="K23" s="125"/>
-      <c r="L23" s="125"/>
-      <c r="M23" s="126"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="76"/>
-      <c r="P23" s="80"/>
-      <c r="Q23" s="76"/>
-      <c r="R23" s="33"/>
+      <c r="B23" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="104" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="104"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="104"/>
+      <c r="M23" s="105"/>
+      <c r="N23" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="O23" s="17">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="P23" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q23" s="25">
+        <v>1</v>
+      </c>
+      <c r="R23" s="31">
+        <v>2</v>
+      </c>
       <c r="S23" s="36"/>
       <c r="T23" s="7"/>
       <c r="U23" s="85"/>
       <c r="V23" s="92"/>
       <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
+      <c r="X23" s="9"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
       <c r="AA23" s="7"/>
@@ -4584,37 +4713,27 @@
       <c r="AZ23" s="43"/>
     </row>
     <row r="24" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B24" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="133" t="s">
-        <v>129</v>
-      </c>
-      <c r="E24" s="133"/>
-      <c r="F24" s="133"/>
-      <c r="G24" s="133"/>
-      <c r="H24" s="133"/>
-      <c r="I24" s="133"/>
-      <c r="J24" s="133"/>
-      <c r="K24" s="133"/>
-      <c r="L24" s="133"/>
-      <c r="M24" s="134"/>
-      <c r="N24" s="77" t="s">
-        <v>75</v>
-      </c>
-      <c r="O24" s="77">
-        <v>10.11</v>
-      </c>
-      <c r="P24" s="77">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="Q24" s="82"/>
-      <c r="R24" s="34">
-        <v>1</v>
-      </c>
+      <c r="B24" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="108" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="109"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="109"/>
+      <c r="H24" s="109"/>
+      <c r="I24" s="109"/>
+      <c r="J24" s="109"/>
+      <c r="K24" s="109"/>
+      <c r="L24" s="109"/>
+      <c r="M24" s="110"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="76"/>
+      <c r="P24" s="80"/>
+      <c r="Q24" s="76"/>
+      <c r="R24" s="33"/>
       <c r="S24" s="36"/>
       <c r="T24" s="7"/>
       <c r="U24" s="85"/>
@@ -4627,8 +4746,8 @@
       <c r="AB24" s="85"/>
       <c r="AC24" s="92"/>
       <c r="AD24" s="7"/>
-      <c r="AE24" s="8"/>
-      <c r="AF24" s="8"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="7"/>
       <c r="AG24" s="7"/>
       <c r="AH24" s="7"/>
       <c r="AI24" s="85"/>
@@ -4652,31 +4771,31 @@
     </row>
     <row r="25" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B25" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="97" t="s">
-        <v>134</v>
-      </c>
-      <c r="D25" s="133" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="133"/>
-      <c r="F25" s="133"/>
-      <c r="G25" s="133"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="133"/>
-      <c r="J25" s="133"/>
-      <c r="K25" s="133"/>
-      <c r="L25" s="133"/>
-      <c r="M25" s="134"/>
+        <v>65</v>
+      </c>
+      <c r="C25" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="111"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="111"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="112"/>
       <c r="N25" s="77" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="O25" s="77">
         <v>10.11</v>
       </c>
       <c r="P25" s="77">
-        <v>10.14</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="Q25" s="82"/>
       <c r="R25" s="34">
@@ -4694,10 +4813,10 @@
       <c r="AB25" s="85"/>
       <c r="AC25" s="92"/>
       <c r="AD25" s="7"/>
-      <c r="AE25" s="10"/>
-      <c r="AF25" s="10"/>
-      <c r="AG25" s="10"/>
-      <c r="AH25" s="10"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="7"/>
       <c r="AI25" s="85"/>
       <c r="AJ25" s="92"/>
       <c r="AK25" s="7"/>
@@ -4719,35 +4838,35 @@
     </row>
     <row r="26" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B26" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="133" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" s="133"/>
-      <c r="F26" s="133"/>
-      <c r="G26" s="133"/>
-      <c r="H26" s="133"/>
-      <c r="I26" s="133"/>
-      <c r="J26" s="133"/>
-      <c r="K26" s="133"/>
-      <c r="L26" s="133"/>
-      <c r="M26" s="134"/>
+        <v>73</v>
+      </c>
+      <c r="C26" s="97" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="111" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="111"/>
+      <c r="L26" s="111"/>
+      <c r="M26" s="112"/>
       <c r="N26" s="77" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="O26" s="77">
-        <v>10.130000000000001</v>
+        <v>10.11</v>
       </c>
       <c r="P26" s="77">
-        <v>10.18</v>
+        <v>10.14</v>
       </c>
       <c r="Q26" s="82"/>
       <c r="R26" s="34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S26" s="36"/>
       <c r="T26" s="7"/>
@@ -4761,14 +4880,14 @@
       <c r="AB26" s="85"/>
       <c r="AC26" s="92"/>
       <c r="AD26" s="7"/>
-      <c r="AE26" s="11"/>
-      <c r="AF26" s="11"/>
-      <c r="AG26" s="8"/>
-      <c r="AH26" s="8"/>
-      <c r="AI26" s="86"/>
-      <c r="AJ26" s="93"/>
-      <c r="AK26" s="8"/>
-      <c r="AL26" s="8"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="10"/>
+      <c r="AI26" s="85"/>
+      <c r="AJ26" s="92"/>
+      <c r="AK26" s="7"/>
+      <c r="AL26" s="7"/>
       <c r="AM26" s="7"/>
       <c r="AN26" s="7"/>
       <c r="AO26" s="7"/>
@@ -4786,56 +4905,56 @@
     </row>
     <row r="27" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B27" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="74" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="104" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="104"/>
-      <c r="J27" s="104"/>
-      <c r="K27" s="104"/>
-      <c r="L27" s="104"/>
-      <c r="M27" s="105"/>
-      <c r="N27" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="O27" s="17">
-        <v>10.17</v>
-      </c>
-      <c r="P27" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="31">
-        <v>1</v>
-      </c>
-      <c r="S27" s="39"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="88"/>
-      <c r="V27" s="95"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
+        <v>82</v>
+      </c>
+      <c r="C27" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="111" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="112"/>
+      <c r="N27" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="O27" s="77">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="P27" s="77">
+        <v>10.18</v>
+      </c>
+      <c r="Q27" s="82"/>
+      <c r="R27" s="34">
+        <v>3</v>
+      </c>
+      <c r="S27" s="36"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="85"/>
+      <c r="V27" s="92"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
       <c r="AA27" s="7"/>
       <c r="AB27" s="85"/>
       <c r="AC27" s="92"/>
       <c r="AD27" s="7"/>
-      <c r="AE27" s="7"/>
-      <c r="AF27" s="7"/>
-      <c r="AG27" s="7"/>
-      <c r="AH27" s="7"/>
-      <c r="AI27" s="85"/>
-      <c r="AJ27" s="92"/>
-      <c r="AK27" s="9"/>
-      <c r="AL27" s="9"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="86"/>
+      <c r="AJ27" s="93"/>
+      <c r="AK27" s="8"/>
+      <c r="AL27" s="8"/>
       <c r="AM27" s="7"/>
       <c r="AN27" s="7"/>
       <c r="AO27" s="7"/>
@@ -4853,13 +4972,13 @@
     </row>
     <row r="28" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B28" s="65" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C28" s="74" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D28" s="104" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E28" s="104"/>
       <c r="F28" s="104"/>
@@ -4871,13 +4990,13 @@
       <c r="L28" s="104"/>
       <c r="M28" s="105"/>
       <c r="N28" s="17" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="O28" s="17">
-        <v>10.17</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="P28" s="21" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="Q28" s="25"/>
       <c r="R28" s="31">
@@ -4896,16 +5015,16 @@
       <c r="AC28" s="92"/>
       <c r="AD28" s="7"/>
       <c r="AE28" s="7"/>
-      <c r="AF28" s="7"/>
-      <c r="AG28" s="7"/>
-      <c r="AH28" s="7"/>
+      <c r="AF28" s="9"/>
+      <c r="AG28" s="9"/>
+      <c r="AH28" s="9"/>
       <c r="AI28" s="85"/>
       <c r="AJ28" s="92"/>
-      <c r="AK28" s="9"/>
-      <c r="AL28" s="9"/>
-      <c r="AM28" s="9"/>
-      <c r="AN28" s="9"/>
-      <c r="AO28" s="9"/>
+      <c r="AK28" s="11"/>
+      <c r="AL28" s="11"/>
+      <c r="AM28" s="7"/>
+      <c r="AN28" s="7"/>
+      <c r="AO28" s="7"/>
       <c r="AP28" s="85"/>
       <c r="AQ28" s="92"/>
       <c r="AR28" s="7"/>
@@ -4920,13 +5039,13 @@
     </row>
     <row r="29" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B29" s="65" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C29" s="74" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D29" s="104" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E29" s="104"/>
       <c r="F29" s="104"/>
@@ -4938,13 +5057,13 @@
       <c r="L29" s="104"/>
       <c r="M29" s="105"/>
       <c r="N29" s="17" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="O29" s="17">
-        <v>10.19</v>
+        <v>10.17</v>
       </c>
       <c r="P29" s="21" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="Q29" s="25"/>
       <c r="R29" s="31">
@@ -4968,15 +5087,15 @@
       <c r="AH29" s="7"/>
       <c r="AI29" s="85"/>
       <c r="AJ29" s="92"/>
-      <c r="AK29" s="7"/>
-      <c r="AL29" s="7"/>
+      <c r="AK29" s="9"/>
+      <c r="AL29" s="9"/>
       <c r="AM29" s="9"/>
       <c r="AN29" s="9"/>
       <c r="AO29" s="9"/>
-      <c r="AP29" s="87"/>
-      <c r="AQ29" s="94"/>
-      <c r="AR29" s="9"/>
-      <c r="AS29" s="9"/>
+      <c r="AP29" s="85"/>
+      <c r="AQ29" s="92"/>
+      <c r="AR29" s="7"/>
+      <c r="AS29" s="7"/>
       <c r="AT29" s="7"/>
       <c r="AU29" s="7"/>
       <c r="AV29" s="7"/>
@@ -4986,33 +5105,43 @@
       <c r="AZ29" s="43"/>
     </row>
     <row r="30" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B30" s="66">
-        <v>5</v>
-      </c>
-      <c r="C30" s="124" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="125"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="125"/>
-      <c r="J30" s="125"/>
-      <c r="K30" s="125"/>
-      <c r="L30" s="125"/>
-      <c r="M30" s="126"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="76"/>
-      <c r="P30" s="76"/>
-      <c r="Q30" s="76"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="85"/>
-      <c r="V30" s="92"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
+      <c r="B30" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="104" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="104"/>
+      <c r="J30" s="104"/>
+      <c r="K30" s="104"/>
+      <c r="L30" s="104"/>
+      <c r="M30" s="105"/>
+      <c r="N30" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="O30" s="17">
+        <v>10.19</v>
+      </c>
+      <c r="P30" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="31">
+        <v>1</v>
+      </c>
+      <c r="S30" s="39"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="88"/>
+      <c r="V30" s="95"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
@@ -5027,13 +5156,13 @@
       <c r="AJ30" s="92"/>
       <c r="AK30" s="7"/>
       <c r="AL30" s="7"/>
-      <c r="AM30" s="7"/>
-      <c r="AN30" s="7"/>
-      <c r="AO30" s="7"/>
-      <c r="AP30" s="85"/>
-      <c r="AQ30" s="92"/>
-      <c r="AR30" s="7"/>
-      <c r="AS30" s="7"/>
+      <c r="AM30" s="9"/>
+      <c r="AN30" s="9"/>
+      <c r="AO30" s="9"/>
+      <c r="AP30" s="87"/>
+      <c r="AQ30" s="94"/>
+      <c r="AR30" s="9"/>
+      <c r="AS30" s="9"/>
       <c r="AT30" s="7"/>
       <c r="AU30" s="7"/>
       <c r="AV30" s="7"/>
@@ -5043,39 +5172,27 @@
       <c r="AZ30" s="43"/>
     </row>
     <row r="31" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B31" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="104" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="104"/>
-      <c r="J31" s="104"/>
-      <c r="K31" s="104"/>
-      <c r="L31" s="104"/>
-      <c r="M31" s="105"/>
-      <c r="N31" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="O31" s="17">
-        <v>10.11</v>
-      </c>
-      <c r="P31" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q31" s="25">
-        <v>1</v>
-      </c>
-      <c r="R31" s="31">
-        <v>1</v>
-      </c>
+      <c r="B31" s="66">
+        <v>5</v>
+      </c>
+      <c r="C31" s="108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="109"/>
+      <c r="K31" s="109"/>
+      <c r="L31" s="109"/>
+      <c r="M31" s="110"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="76"/>
+      <c r="P31" s="76"/>
+      <c r="Q31" s="76"/>
+      <c r="R31" s="33"/>
       <c r="S31" s="36"/>
       <c r="T31" s="7"/>
       <c r="U31" s="85"/>
@@ -5088,8 +5205,8 @@
       <c r="AB31" s="85"/>
       <c r="AC31" s="92"/>
       <c r="AD31" s="7"/>
-      <c r="AE31" s="8"/>
-      <c r="AF31" s="11"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
       <c r="AG31" s="7"/>
       <c r="AH31" s="7"/>
       <c r="AI31" s="85"/>
@@ -5113,13 +5230,13 @@
     </row>
     <row r="32" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B32" s="65" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="C32" s="72" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D32" s="104" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="E32" s="104"/>
       <c r="F32" s="104"/>
@@ -5131,15 +5248,17 @@
       <c r="L32" s="104"/>
       <c r="M32" s="105"/>
       <c r="N32" s="17" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="O32" s="17">
         <v>10.11</v>
       </c>
       <c r="P32" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q32" s="25"/>
+        <v>76</v>
+      </c>
+      <c r="Q32" s="25">
+        <v>1</v>
+      </c>
       <c r="R32" s="31">
         <v>1</v>
       </c>
@@ -5156,7 +5275,7 @@
       <c r="AC32" s="92"/>
       <c r="AD32" s="7"/>
       <c r="AE32" s="8"/>
-      <c r="AF32" s="8"/>
+      <c r="AF32" s="11"/>
       <c r="AG32" s="7"/>
       <c r="AH32" s="7"/>
       <c r="AI32" s="85"/>
@@ -5180,13 +5299,13 @@
     </row>
     <row r="33" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B33" s="65" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="74" t="s">
-        <v>119</v>
+        <v>123</v>
+      </c>
+      <c r="C33" s="72" t="s">
+        <v>74</v>
       </c>
       <c r="D33" s="104" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E33" s="104"/>
       <c r="F33" s="104"/>
@@ -5198,19 +5317,17 @@
       <c r="L33" s="104"/>
       <c r="M33" s="105"/>
       <c r="N33" s="17" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="O33" s="17">
         <v>10.11</v>
       </c>
       <c r="P33" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q33" s="17" t="s">
-        <v>133</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="Q33" s="25"/>
       <c r="R33" s="31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S33" s="36"/>
       <c r="T33" s="7"/>
@@ -5224,8 +5341,8 @@
       <c r="AB33" s="85"/>
       <c r="AC33" s="92"/>
       <c r="AD33" s="7"/>
-      <c r="AE33" s="9"/>
-      <c r="AF33" s="11"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
       <c r="AG33" s="7"/>
       <c r="AH33" s="7"/>
       <c r="AI33" s="85"/>
@@ -5248,14 +5365,12 @@
       <c r="AZ33" s="43"/>
     </row>
     <row r="34" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B34" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="C34" s="74" t="s">
-        <v>85</v>
+      <c r="B34" s="65"/>
+      <c r="C34" s="72" t="s">
+        <v>135</v>
       </c>
       <c r="D34" s="104" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="E34" s="104"/>
       <c r="F34" s="104"/>
@@ -5267,18 +5382,12 @@
       <c r="L34" s="104"/>
       <c r="M34" s="105"/>
       <c r="N34" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="O34" s="17">
-        <v>10.11</v>
-      </c>
-      <c r="P34" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="31">
-        <v>1</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="O34" s="17"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="31"/>
       <c r="S34" s="36"/>
       <c r="T34" s="7"/>
       <c r="U34" s="85"/>
@@ -5291,22 +5400,22 @@
       <c r="AB34" s="85"/>
       <c r="AC34" s="92"/>
       <c r="AD34" s="7"/>
-      <c r="AE34" s="9"/>
-      <c r="AF34" s="9"/>
-      <c r="AG34" s="9"/>
-      <c r="AH34" s="9"/>
-      <c r="AI34" s="87"/>
-      <c r="AJ34" s="94"/>
-      <c r="AK34" s="9"/>
-      <c r="AL34" s="9"/>
-      <c r="AM34" s="9"/>
-      <c r="AN34" s="9"/>
-      <c r="AO34" s="9"/>
-      <c r="AP34" s="87"/>
-      <c r="AQ34" s="94"/>
-      <c r="AR34" s="9"/>
-      <c r="AS34" s="9"/>
-      <c r="AT34" s="9"/>
+      <c r="AE34" s="11"/>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="7"/>
+      <c r="AI34" s="85"/>
+      <c r="AJ34" s="92"/>
+      <c r="AK34" s="7"/>
+      <c r="AL34" s="7"/>
+      <c r="AM34" s="7"/>
+      <c r="AN34" s="7"/>
+      <c r="AO34" s="7"/>
+      <c r="AP34" s="85"/>
+      <c r="AQ34" s="92"/>
+      <c r="AR34" s="7"/>
+      <c r="AS34" s="7"/>
+      <c r="AT34" s="7"/>
       <c r="AU34" s="7"/>
       <c r="AV34" s="7"/>
       <c r="AW34" s="85"/>
@@ -5315,27 +5424,39 @@
       <c r="AZ34" s="43"/>
     </row>
     <row r="35" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B35" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="124" t="s">
-        <v>114</v>
-      </c>
-      <c r="D35" s="125"/>
-      <c r="E35" s="125"/>
-      <c r="F35" s="125"/>
-      <c r="G35" s="125"/>
-      <c r="H35" s="125"/>
-      <c r="I35" s="125"/>
-      <c r="J35" s="125"/>
-      <c r="K35" s="125"/>
-      <c r="L35" s="125"/>
-      <c r="M35" s="126"/>
-      <c r="N35" s="76"/>
-      <c r="O35" s="76"/>
-      <c r="P35" s="80"/>
-      <c r="Q35" s="76"/>
-      <c r="R35" s="33"/>
+      <c r="B35" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="104" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="104"/>
+      <c r="J35" s="104"/>
+      <c r="K35" s="104"/>
+      <c r="L35" s="104"/>
+      <c r="M35" s="105"/>
+      <c r="N35" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="O35" s="17">
+        <v>10.11</v>
+      </c>
+      <c r="P35" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q35" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="R35" s="31">
+        <v>2</v>
+      </c>
       <c r="S35" s="36"/>
       <c r="T35" s="7"/>
       <c r="U35" s="85"/>
@@ -5348,8 +5469,8 @@
       <c r="AB35" s="85"/>
       <c r="AC35" s="92"/>
       <c r="AD35" s="7"/>
-      <c r="AE35" s="7"/>
-      <c r="AF35" s="7"/>
+      <c r="AE35" s="9"/>
+      <c r="AF35" s="11"/>
       <c r="AG35" s="7"/>
       <c r="AH35" s="7"/>
       <c r="AI35" s="85"/>
@@ -5373,13 +5494,13 @@
     </row>
     <row r="36" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B36" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="C36" s="72" t="s">
-        <v>74</v>
+        <v>120</v>
+      </c>
+      <c r="C36" s="74" t="s">
+        <v>85</v>
       </c>
       <c r="D36" s="104" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="E36" s="104"/>
       <c r="F36" s="104"/>
@@ -5391,13 +5512,13 @@
       <c r="L36" s="104"/>
       <c r="M36" s="105"/>
       <c r="N36" s="17" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="O36" s="17">
-        <v>10.119999999999999</v>
+        <v>10.11</v>
       </c>
       <c r="P36" s="21" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="Q36" s="17"/>
       <c r="R36" s="31">
@@ -5415,22 +5536,22 @@
       <c r="AB36" s="85"/>
       <c r="AC36" s="92"/>
       <c r="AD36" s="7"/>
-      <c r="AE36" s="11"/>
-      <c r="AF36" s="8"/>
-      <c r="AG36" s="8"/>
-      <c r="AH36" s="7"/>
-      <c r="AI36" s="85"/>
-      <c r="AJ36" s="92"/>
-      <c r="AK36" s="7"/>
-      <c r="AL36" s="7"/>
-      <c r="AM36" s="7"/>
-      <c r="AN36" s="7"/>
-      <c r="AO36" s="7"/>
-      <c r="AP36" s="85"/>
-      <c r="AQ36" s="92"/>
-      <c r="AR36" s="7"/>
-      <c r="AS36" s="7"/>
-      <c r="AT36" s="7"/>
+      <c r="AE36" s="9"/>
+      <c r="AF36" s="9"/>
+      <c r="AG36" s="9"/>
+      <c r="AH36" s="9"/>
+      <c r="AI36" s="87"/>
+      <c r="AJ36" s="94"/>
+      <c r="AK36" s="9"/>
+      <c r="AL36" s="9"/>
+      <c r="AM36" s="9"/>
+      <c r="AN36" s="9"/>
+      <c r="AO36" s="9"/>
+      <c r="AP36" s="87"/>
+      <c r="AQ36" s="94"/>
+      <c r="AR36" s="9"/>
+      <c r="AS36" s="9"/>
+      <c r="AT36" s="9"/>
       <c r="AU36" s="7"/>
       <c r="AV36" s="7"/>
       <c r="AW36" s="85"/>
@@ -5439,37 +5560,27 @@
       <c r="AZ36" s="43"/>
     </row>
     <row r="37" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="B37" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="C37" s="72" t="s">
-        <v>117</v>
-      </c>
-      <c r="D37" s="104" t="s">
-        <v>118</v>
-      </c>
-      <c r="E37" s="104"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="104"/>
-      <c r="I37" s="104"/>
-      <c r="J37" s="104"/>
-      <c r="K37" s="104"/>
-      <c r="L37" s="104"/>
-      <c r="M37" s="105"/>
-      <c r="N37" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="O37" s="17">
-        <v>10.130000000000001</v>
-      </c>
-      <c r="P37" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="31">
-        <v>1</v>
-      </c>
+      <c r="B37" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="109"/>
+      <c r="E37" s="109"/>
+      <c r="F37" s="109"/>
+      <c r="G37" s="109"/>
+      <c r="H37" s="109"/>
+      <c r="I37" s="109"/>
+      <c r="J37" s="109"/>
+      <c r="K37" s="109"/>
+      <c r="L37" s="109"/>
+      <c r="M37" s="110"/>
+      <c r="N37" s="76"/>
+      <c r="O37" s="76"/>
+      <c r="P37" s="80"/>
+      <c r="Q37" s="76"/>
+      <c r="R37" s="33"/>
       <c r="S37" s="36"/>
       <c r="T37" s="7"/>
       <c r="U37" s="85"/>
@@ -5483,9 +5594,9 @@
       <c r="AC37" s="92"/>
       <c r="AD37" s="7"/>
       <c r="AE37" s="7"/>
-      <c r="AF37" s="11"/>
-      <c r="AG37" s="8"/>
-      <c r="AH37" s="8"/>
+      <c r="AF37" s="7"/>
+      <c r="AG37" s="7"/>
+      <c r="AH37" s="7"/>
       <c r="AI37" s="85"/>
       <c r="AJ37" s="92"/>
       <c r="AK37" s="7"/>
@@ -5507,13 +5618,13 @@
     </row>
     <row r="38" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B38" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" s="74" t="s">
-        <v>119</v>
+        <v>121</v>
+      </c>
+      <c r="C38" s="72" t="s">
+        <v>74</v>
       </c>
       <c r="D38" s="104" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="E38" s="104"/>
       <c r="F38" s="104"/>
@@ -5525,13 +5636,13 @@
       <c r="L38" s="104"/>
       <c r="M38" s="105"/>
       <c r="N38" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O38" s="17">
-        <v>10.14</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="P38" s="21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q38" s="17"/>
       <c r="R38" s="31">
@@ -5549,22 +5660,22 @@
       <c r="AB38" s="85"/>
       <c r="AC38" s="92"/>
       <c r="AD38" s="7"/>
-      <c r="AE38" s="7"/>
-      <c r="AF38" s="7"/>
-      <c r="AG38" s="7"/>
-      <c r="AH38" s="9"/>
-      <c r="AI38" s="87"/>
-      <c r="AJ38" s="94"/>
-      <c r="AK38" s="9"/>
-      <c r="AL38" s="9"/>
-      <c r="AM38" s="9"/>
-      <c r="AN38" s="9"/>
-      <c r="AO38" s="9"/>
-      <c r="AP38" s="87"/>
-      <c r="AQ38" s="94"/>
-      <c r="AR38" s="9"/>
-      <c r="AS38" s="9"/>
-      <c r="AT38" s="9"/>
+      <c r="AE38" s="11"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="7"/>
+      <c r="AI38" s="85"/>
+      <c r="AJ38" s="92"/>
+      <c r="AK38" s="7"/>
+      <c r="AL38" s="7"/>
+      <c r="AM38" s="7"/>
+      <c r="AN38" s="7"/>
+      <c r="AO38" s="7"/>
+      <c r="AP38" s="85"/>
+      <c r="AQ38" s="92"/>
+      <c r="AR38" s="7"/>
+      <c r="AS38" s="7"/>
+      <c r="AT38" s="7"/>
       <c r="AU38" s="7"/>
       <c r="AV38" s="7"/>
       <c r="AW38" s="85"/>
@@ -5574,13 +5685,13 @@
     </row>
     <row r="39" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B39" s="65" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="C39" s="72" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="D39" s="104" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E39" s="104"/>
       <c r="F39" s="104"/>
@@ -5592,24 +5703,24 @@
       <c r="L39" s="104"/>
       <c r="M39" s="105"/>
       <c r="N39" s="17" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="O39" s="17">
-        <v>10.19</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="P39" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="98">
-        <v>2</v>
-      </c>
-      <c r="S39" s="39"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="88"/>
-      <c r="V39" s="95"/>
-      <c r="W39" s="11"/>
-      <c r="X39" s="11"/>
+        <v>111</v>
+      </c>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="31">
+        <v>1</v>
+      </c>
+      <c r="S39" s="36"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="85"/>
+      <c r="V39" s="92"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
       <c r="AA39" s="7"/>
@@ -5617,16 +5728,16 @@
       <c r="AC39" s="92"/>
       <c r="AD39" s="7"/>
       <c r="AE39" s="7"/>
-      <c r="AF39" s="7"/>
-      <c r="AG39" s="7"/>
-      <c r="AH39" s="7"/>
+      <c r="AF39" s="11"/>
+      <c r="AG39" s="8"/>
+      <c r="AH39" s="8"/>
       <c r="AI39" s="85"/>
       <c r="AJ39" s="92"/>
       <c r="AK39" s="7"/>
       <c r="AL39" s="7"/>
-      <c r="AM39" s="8"/>
-      <c r="AN39" s="8"/>
-      <c r="AO39" s="8"/>
+      <c r="AM39" s="7"/>
+      <c r="AN39" s="7"/>
+      <c r="AO39" s="7"/>
       <c r="AP39" s="85"/>
       <c r="AQ39" s="92"/>
       <c r="AR39" s="7"/>
@@ -5639,129 +5750,265 @@
       <c r="AY39" s="37"/>
       <c r="AZ39" s="43"/>
     </row>
-    <row r="40" spans="2:52" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="67" t="s">
-        <v>136</v>
-      </c>
-      <c r="C40" s="75" t="s">
+    <row r="40" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="B40" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" s="104"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="104"/>
+      <c r="H40" s="104"/>
+      <c r="I40" s="104"/>
+      <c r="J40" s="104"/>
+      <c r="K40" s="104"/>
+      <c r="L40" s="104"/>
+      <c r="M40" s="105"/>
+      <c r="N40" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="O40" s="17">
+        <v>10.14</v>
+      </c>
+      <c r="P40" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="31">
+        <v>1</v>
+      </c>
+      <c r="S40" s="36"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="85"/>
+      <c r="V40" s="92"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="85"/>
+      <c r="AC40" s="92"/>
+      <c r="AD40" s="7"/>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="7"/>
+      <c r="AG40" s="7"/>
+      <c r="AH40" s="9"/>
+      <c r="AI40" s="87"/>
+      <c r="AJ40" s="94"/>
+      <c r="AK40" s="9"/>
+      <c r="AL40" s="9"/>
+      <c r="AM40" s="9"/>
+      <c r="AN40" s="9"/>
+      <c r="AO40" s="9"/>
+      <c r="AP40" s="87"/>
+      <c r="AQ40" s="94"/>
+      <c r="AR40" s="9"/>
+      <c r="AS40" s="9"/>
+      <c r="AT40" s="9"/>
+      <c r="AU40" s="7"/>
+      <c r="AV40" s="7"/>
+      <c r="AW40" s="85"/>
+      <c r="AX40" s="7"/>
+      <c r="AY40" s="37"/>
+      <c r="AZ40" s="43"/>
+    </row>
+    <row r="41" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="B41" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="104" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="104"/>
+      <c r="K41" s="104"/>
+      <c r="L41" s="104"/>
+      <c r="M41" s="105"/>
+      <c r="N41" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="O41" s="17">
+        <v>10.19</v>
+      </c>
+      <c r="P41" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="98">
+        <v>2</v>
+      </c>
+      <c r="S41" s="39"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="88"/>
+      <c r="V41" s="95"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="85"/>
+      <c r="AC41" s="92"/>
+      <c r="AD41" s="7"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="7"/>
+      <c r="AG41" s="7"/>
+      <c r="AH41" s="7"/>
+      <c r="AI41" s="85"/>
+      <c r="AJ41" s="92"/>
+      <c r="AK41" s="7"/>
+      <c r="AL41" s="7"/>
+      <c r="AM41" s="8"/>
+      <c r="AN41" s="8"/>
+      <c r="AO41" s="8"/>
+      <c r="AP41" s="85"/>
+      <c r="AQ41" s="92"/>
+      <c r="AR41" s="7"/>
+      <c r="AS41" s="7"/>
+      <c r="AT41" s="7"/>
+      <c r="AU41" s="7"/>
+      <c r="AV41" s="7"/>
+      <c r="AW41" s="85"/>
+      <c r="AX41" s="7"/>
+      <c r="AY41" s="37"/>
+      <c r="AZ41" s="43"/>
+    </row>
+    <row r="42" spans="2:52" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="67" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="75" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="106" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="106"/>
+      <c r="F42" s="106"/>
+      <c r="G42" s="106"/>
+      <c r="H42" s="106"/>
+      <c r="I42" s="106"/>
+      <c r="J42" s="106"/>
+      <c r="K42" s="106"/>
+      <c r="L42" s="106"/>
+      <c r="M42" s="107"/>
+      <c r="N42" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="D40" s="131" t="s">
+      <c r="O42" s="79">
+        <v>10.24</v>
+      </c>
+      <c r="P42" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="E40" s="131"/>
-      <c r="F40" s="131"/>
-      <c r="G40" s="131"/>
-      <c r="H40" s="131"/>
-      <c r="I40" s="131"/>
-      <c r="J40" s="131"/>
-      <c r="K40" s="131"/>
-      <c r="L40" s="131"/>
-      <c r="M40" s="132"/>
-      <c r="N40" s="79" t="s">
-        <v>111</v>
-      </c>
-      <c r="O40" s="79">
-        <v>10.24</v>
-      </c>
-      <c r="P40" s="81" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q40" s="99"/>
-      <c r="R40" s="35">
+      <c r="Q42" s="99"/>
+      <c r="R42" s="35">
         <v>2</v>
       </c>
-      <c r="S40" s="100"/>
-      <c r="T40" s="101"/>
-      <c r="U40" s="102"/>
-      <c r="V40" s="103"/>
-      <c r="W40" s="101"/>
-      <c r="X40" s="101"/>
-      <c r="Y40" s="40"/>
-      <c r="Z40" s="40"/>
-      <c r="AA40" s="40"/>
-      <c r="AB40" s="89"/>
-      <c r="AC40" s="96"/>
-      <c r="AD40" s="40"/>
-      <c r="AE40" s="40"/>
-      <c r="AF40" s="40"/>
-      <c r="AG40" s="40"/>
-      <c r="AH40" s="40"/>
-      <c r="AI40" s="89"/>
-      <c r="AJ40" s="96"/>
-      <c r="AK40" s="40"/>
-      <c r="AL40" s="40"/>
-      <c r="AM40" s="101"/>
-      <c r="AN40" s="101"/>
-      <c r="AO40" s="101"/>
-      <c r="AP40" s="102"/>
-      <c r="AQ40" s="96"/>
-      <c r="AR40" s="41"/>
-      <c r="AS40" s="41"/>
-      <c r="AT40" s="41"/>
-      <c r="AU40" s="40"/>
-      <c r="AV40" s="40"/>
-      <c r="AW40" s="89"/>
-      <c r="AX40" s="40"/>
-      <c r="AY40" s="42"/>
-      <c r="AZ40" s="44"/>
+      <c r="S42" s="100"/>
+      <c r="T42" s="101"/>
+      <c r="U42" s="102"/>
+      <c r="V42" s="103"/>
+      <c r="W42" s="101"/>
+      <c r="X42" s="101"/>
+      <c r="Y42" s="40"/>
+      <c r="Z42" s="40"/>
+      <c r="AA42" s="40"/>
+      <c r="AB42" s="89"/>
+      <c r="AC42" s="96"/>
+      <c r="AD42" s="40"/>
+      <c r="AE42" s="40"/>
+      <c r="AF42" s="40"/>
+      <c r="AG42" s="40"/>
+      <c r="AH42" s="40"/>
+      <c r="AI42" s="89"/>
+      <c r="AJ42" s="96"/>
+      <c r="AK42" s="40"/>
+      <c r="AL42" s="40"/>
+      <c r="AM42" s="101"/>
+      <c r="AN42" s="101"/>
+      <c r="AO42" s="101"/>
+      <c r="AP42" s="102"/>
+      <c r="AQ42" s="96"/>
+      <c r="AR42" s="41"/>
+      <c r="AS42" s="41"/>
+      <c r="AT42" s="41"/>
+      <c r="AU42" s="40"/>
+      <c r="AV42" s="40"/>
+      <c r="AW42" s="89"/>
+      <c r="AX42" s="40"/>
+      <c r="AY42" s="42"/>
+      <c r="AZ42" s="44"/>
     </row>
-    <row r="42" spans="2:52" x14ac:dyDescent="0.3">
-      <c r="G42" s="12"/>
+    <row r="44" spans="2:52" x14ac:dyDescent="0.3">
+      <c r="G44" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="D37:M37"/>
+  <mergeCells count="47">
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="U5:AY5"/>
+    <mergeCell ref="AZ5:AZ6"/>
+    <mergeCell ref="D21:M21"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="D17:M17"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="D16:M16"/>
+    <mergeCell ref="C7:M7"/>
+    <mergeCell ref="C12:M12"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="D10:M10"/>
+    <mergeCell ref="C37:M37"/>
+    <mergeCell ref="D38:M38"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:M6"/>
+    <mergeCell ref="D22:M22"/>
+    <mergeCell ref="D23:M23"/>
+    <mergeCell ref="D19:M19"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="D13:M13"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="D18:M18"/>
     <mergeCell ref="D34:M34"/>
-    <mergeCell ref="D40:M40"/>
-    <mergeCell ref="C23:M23"/>
-    <mergeCell ref="D24:M24"/>
-    <mergeCell ref="C30:M30"/>
-    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="D11:M11"/>
+    <mergeCell ref="D39:M39"/>
+    <mergeCell ref="D36:M36"/>
+    <mergeCell ref="D42:M42"/>
+    <mergeCell ref="C24:M24"/>
     <mergeCell ref="D25:M25"/>
+    <mergeCell ref="C31:M31"/>
+    <mergeCell ref="D32:M32"/>
     <mergeCell ref="D26:M26"/>
     <mergeCell ref="D27:M27"/>
     <mergeCell ref="D28:M28"/>
     <mergeCell ref="D29:M29"/>
-    <mergeCell ref="D39:M39"/>
-    <mergeCell ref="D38:M38"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="D41:M41"/>
+    <mergeCell ref="D40:M40"/>
+    <mergeCell ref="D35:M35"/>
     <mergeCell ref="D33:M33"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="C35:M35"/>
-    <mergeCell ref="D36:M36"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="U5:AY5"/>
-    <mergeCell ref="AZ5:AZ6"/>
-    <mergeCell ref="D20:M20"/>
-    <mergeCell ref="D21:M21"/>
-    <mergeCell ref="D22:M22"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="D16:M16"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="D15:M15"/>
-    <mergeCell ref="C7:M7"/>
-    <mergeCell ref="C11:M11"/>
-    <mergeCell ref="C19:M19"/>
-    <mergeCell ref="D10:M10"/>
-    <mergeCell ref="D18:M18"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="D12:M12"/>
-    <mergeCell ref="D13:M13"/>
-    <mergeCell ref="D14:M14"/>
-    <mergeCell ref="D17:M17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B7 B11 B19 P20:P22 P18 B23 P32:P33 P27:P29 P36:P40 P31 P34 B35" numberStoredAsText="1"/>
+    <ignoredError sqref="B7 B12 B20 P21:P23 P19 B24 P28:P30 P38:P42 P35:P36 B37 P32:P33 P11" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
